--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A76EB5-9BDB-4517-B227-943C8A80C073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="6555" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -34,6 +28,183 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>많은 돈을 벌다/많은 돈이 들다</t>
+  </si>
+  <si>
+    <t>유년 걸 스카우트 단에 들다</t>
+  </si>
+  <si>
+    <t>보험에 들다/담보 대출을 받다/융자를 받다</t>
+  </si>
+  <si>
+    <t>그는 18세 이후로 줄곧 자기 차가 있었다.</t>
+  </si>
+  <si>
+    <t>나는 아침 식사 이후로 아무것도 안 먹었다.</t>
+  </si>
+  <si>
+    <t>1977년 이후로 수달 사냥은 불법이 되었다.</t>
+  </si>
+  <si>
+    <t>길게 나 있는 핏자국</t>
+  </si>
+  <si>
+    <t>루니에게 길게 한 패스</t>
+  </si>
+  <si>
+    <t>계산대에 길게 늘어선 줄</t>
+  </si>
+  <si>
+    <t>너랑 얘기하다 보니까 시간가는 줄 몰랐어.</t>
+  </si>
+  <si>
+    <t>실제 스파이 요원들, 스파이 활동에 대해 얘기하다</t>
+  </si>
+  <si>
+    <t>그것을 보다 더 평등하게 얘기하다.</t>
+  </si>
+  <si>
+    <t>불법 마약을 팔러 다니다</t>
+  </si>
+  <si>
+    <t>보수를 받는 직장에 다니다</t>
+  </si>
+  <si>
+    <t>가외의 무게를 지니고 다니다</t>
+  </si>
+  <si>
+    <t>그녀는 성을 그의 성으로 바꾸었다.</t>
+  </si>
+  <si>
+    <t>성 조지가 그 용을 죽였다.</t>
+  </si>
+  <si>
+    <t>성 바울 성당의 돔</t>
+  </si>
+  <si>
+    <t>그 충격으로 그녀는 유산을 했다.</t>
+  </si>
+  <si>
+    <t>그들은 각각 5 000달러의 유산을 받았다.</t>
+  </si>
+  <si>
+    <t>우리는 위대한 문화유산의 후계자이다.</t>
+  </si>
+  <si>
+    <t>다음 주 제주도로 수학여행!</t>
+  </si>
+  <si>
+    <t>…으로 수학 여행을 가다</t>
+  </si>
+  <si>
+    <t>전 수학여행을 제주도로 갔었어요.</t>
+  </si>
+  <si>
+    <t>나의 유년 시절에 대한 기억은 흐릿하고 단편적이다.</t>
+  </si>
+  <si>
+    <t>전시의 유년 시절에 대한 회상담</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자기 자신을 잃을 정도로 명성을 좇는 자는 선비가 아니다. </t>
+  </si>
+  <si>
+    <t>도마뱀 속의 자가 수정 유전자는 이 도마뱀의 모든 부화한 유생들이 수컷일거라는 것을 의미해요.</t>
+  </si>
+  <si>
+    <t>기후 변화 - 종의 환경적인 허용량은 초과될 수도 있으며 유생과 무생 환경은 변경됩니다.</t>
+  </si>
+  <si>
+    <t>또한 서식지, 집단 그리고 종과 유생 그리고 무생의 환경 사이의 상호 작용은 매우 다양하고 복잡합니다.</t>
+  </si>
+  <si>
+    <t>그녀는 이사회 쿠데타로 지위를 잃었다.</t>
+  </si>
+  <si>
+    <t>그는 자기 지위를 이용하여 부를 축적했다.</t>
+  </si>
+  <si>
+    <t>어떤 후보도 이 지위에 맞는 모든 기준을 충족시키지는 못한다.</t>
+  </si>
+  <si>
+    <t>이민자들이 공동체 내에 성공적으로 동화되어 왔다.</t>
+  </si>
+  <si>
+    <t>관습과 전통들로 긴밀하게 묶여 있는 공동체들</t>
+  </si>
+  <si>
+    <t>공동체 지도자들이 평화로운 해결을 거듭 강조해 왔다.</t>
+  </si>
+  <si>
+    <t>그녀의 가문이 1895년에 그 대학을 설립했다.</t>
+  </si>
+  <si>
+    <t>가문이 봉기에 참여했다는 이유로 그들의 작은 영지는 짜르에 의해 몰수됐다.</t>
+  </si>
+  <si>
+    <t>쓰레기 봉지를 단단히 묶다</t>
+  </si>
+  <si>
+    <t>신발끈을 나비 모양으로 묶다</t>
+  </si>
+  <si>
+    <t>아이를 등에 업고 묶다.</t>
+  </si>
+  <si>
+    <t>그들을 포박하는 것은 허용되지 않는다.</t>
+  </si>
+  <si>
+    <t>회사가 보험 판매 분야로 새로 진출했다.</t>
+  </si>
+  <si>
+    <t>네가 우리 차를 운전하는 것은 보험에 포함이 안 된다.</t>
+  </si>
+  <si>
+    <t>그 보험 약관에서 제외 사항의 리스트를 확인해 보라.</t>
+  </si>
+  <si>
+    <t>고정 금리 담보 대출</t>
+  </si>
+  <si>
+    <t>인플레이션으로 담보 대출금 납부액의 가치가 점차 하락되어 왔다.</t>
+  </si>
+  <si>
+    <t>담보 대출을 신청하다/내다[받다]/다 갚다</t>
+  </si>
+  <si>
+    <t>그 집을 담보로 한 대출</t>
+  </si>
+  <si>
+    <t>그 융자금은 월별로 분할 상환할 수 있다.</t>
+  </si>
+  <si>
+    <t>그 융자금은 미국 달러화로 액수가 매겨졌다.</t>
+  </si>
+  <si>
+    <t>융자금 상환은 당신의 소득에 맞춰 정해진다.</t>
+  </si>
+  <si>
+    <t>그녀는 줄곧 자신감이 커지고 있다.</t>
+  </si>
+  <si>
+    <t>내가 월급날까지 줄곧 허우적거려야 할 것 같다.</t>
+  </si>
+  <si>
+    <t>저는 동물을 좋아하지 않지만 수달 공포증 때문에 특히 수달을 싫어해요.</t>
+  </si>
+  <si>
+    <t>바다에는 모든 종류의 물고기, 상어, 고래, 수달, 돌고래들이 있어요.</t>
+  </si>
+  <si>
+    <t>사냥꾼들은 숲 속에서 뒤쫓던 사냥감을 놓쳤다.</t>
+  </si>
+  <si>
+    <t>그 동물은 모피 때문에 사냥을 당한다.</t>
+  </si>
+  <si>
+    <t>사냥꾼이 개입해서 그 동물을 죽였다.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -106,132 +277,6 @@
     <t>I went on a school field trip to Jeju Island.</t>
   </si>
   <si>
-    <t>나의 유년 시절에 대한 기억은 흐릿하고 단편적이다.</t>
-  </si>
-  <si>
-    <t>유년 걸 스카우트 단에 들다</t>
-  </si>
-  <si>
-    <t>전시의 유년 시절에 대한 회상담</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자기 자신을 잃을 정도로 명성을 좇는 자는 선비가 아니다. </t>
-  </si>
-  <si>
-    <t>도마뱀 속의 자가 수정 유전자는 이 도마뱀의 모든 부화한 유생들이 수컷일거라는 것을 의미해요.</t>
-  </si>
-  <si>
-    <t>기후 변화 - 종의 환경적인 허용량은 초과될 수도 있으며 유생과 무생 환경은 변경됩니다.</t>
-  </si>
-  <si>
-    <t>또한 서식지, 집단 그리고 종과 유생 그리고 무생의 환경 사이의 상호 작용은 매우 다양하고 복잡합니다.</t>
-  </si>
-  <si>
-    <t>그녀는 이사회 쿠데타로 지위를 잃었다.</t>
-  </si>
-  <si>
-    <t>그는 자기 지위를 이용하여 부를 축적했다.</t>
-  </si>
-  <si>
-    <t>어떤 후보도 이 지위에 맞는 모든 기준을 충족시키지는 못한다.</t>
-  </si>
-  <si>
-    <t>이민자들이 공동체 내에 성공적으로 동화되어 왔다.</t>
-  </si>
-  <si>
-    <t>관습과 전통들로 긴밀하게 묶여 있는 공동체들</t>
-  </si>
-  <si>
-    <t>공동체 지도자들이 평화로운 해결을 거듭 강조해 왔다.</t>
-  </si>
-  <si>
-    <t>그녀의 가문이 1895년에 그 대학을 설립했다.</t>
-  </si>
-  <si>
-    <t>가문이 봉기에 참여했다는 이유로 그들의 작은 영지는 짜르에 의해 몰수됐다.</t>
-  </si>
-  <si>
-    <t>쓰레기 봉지를 단단히 묶다</t>
-  </si>
-  <si>
-    <t>신발끈을 나비 모양으로 묶다</t>
-  </si>
-  <si>
-    <t>아이를 등에 업고 묶다.</t>
-  </si>
-  <si>
-    <t>그들을 포박하는 것은 허용되지 않는다.</t>
-  </si>
-  <si>
-    <t>많은 돈을 벌다/많은 돈이 들다</t>
-  </si>
-  <si>
-    <t>보험에 들다/담보 대출을 받다/융자를 받다</t>
-  </si>
-  <si>
-    <t>그는 18세 이후로 줄곧 자기 차가 있었다.</t>
-  </si>
-  <si>
-    <t>나는 아침 식사 이후로 아무것도 안 먹었다.</t>
-  </si>
-  <si>
-    <t>1977년 이후로 수달 사냥은 불법이 되었다.</t>
-  </si>
-  <si>
-    <t>길게 나 있는 핏자국</t>
-  </si>
-  <si>
-    <t>루니에게 길게 한 패스</t>
-  </si>
-  <si>
-    <t>계산대에 길게 늘어선 줄</t>
-  </si>
-  <si>
-    <t>너랑 얘기하다 보니까 시간가는 줄 몰랐어.</t>
-  </si>
-  <si>
-    <t>실제 스파이 요원들, 스파이 활동에 대해 얘기하다</t>
-  </si>
-  <si>
-    <t>그것을 보다 더 평등하게 얘기하다.</t>
-  </si>
-  <si>
-    <t>불법 마약을 팔러 다니다</t>
-  </si>
-  <si>
-    <t>보수를 받는 직장에 다니다</t>
-  </si>
-  <si>
-    <t>가외의 무게를 지니고 다니다</t>
-  </si>
-  <si>
-    <t>그녀는 성을 그의 성으로 바꾸었다.</t>
-  </si>
-  <si>
-    <t>성 조지가 그 용을 죽였다.</t>
-  </si>
-  <si>
-    <t>성 바울 성당의 돔</t>
-  </si>
-  <si>
-    <t>그 충격으로 그녀는 유산을 했다.</t>
-  </si>
-  <si>
-    <t>그들은 각각 5 000달러의 유산을 받았다.</t>
-  </si>
-  <si>
-    <t>우리는 위대한 문화유산의 후계자이다.</t>
-  </si>
-  <si>
-    <t>다음 주 제주도로 수학여행!</t>
-  </si>
-  <si>
-    <t>…으로 수학 여행을 가다</t>
-  </si>
-  <si>
-    <t>전 수학여행을 제주도로 갔었어요.</t>
-  </si>
-  <si>
     <t>My memories of childhood are hazy and episodic.</t>
   </si>
   <si>
@@ -286,6 +331,57 @@
     <t>Tying them down is not acceptable.</t>
   </si>
   <si>
+    <t>The company branched out into selling insurance.</t>
+  </si>
+  <si>
+    <t>You’re not insured to drive our car.</t>
+  </si>
+  <si>
+    <t>Check the list of exclusions in the insurance policy.</t>
+  </si>
+  <si>
+    <t>a fixed-rate mortgage</t>
+  </si>
+  <si>
+    <t>Mortgage payments have been eroded by inflation.</t>
+  </si>
+  <si>
+    <t>to apply for/take out/pay off a mortgage</t>
+  </si>
+  <si>
+    <t>a loan secured on the house</t>
+  </si>
+  <si>
+    <t>The loan is repayable in monthly instalments.</t>
+  </si>
+  <si>
+    <t>The loan was denominated in US dollars.</t>
+  </si>
+  <si>
+    <t>Loan repayments are pegged to your income.</t>
+  </si>
+  <si>
+    <t>She is growing in confidence all the time.</t>
+  </si>
+  <si>
+    <t>I expect I’ll struggle through until payday.</t>
+  </si>
+  <si>
+    <t>I don't like animals, especially otters, due to my lutraphobia.</t>
+  </si>
+  <si>
+    <t>In the ocean you find all kinds of fish, sharks, whales, sea otters, dolphins.</t>
+  </si>
+  <si>
+    <t>The hunters lost sight of their quarry in the forest.</t>
+  </si>
+  <si>
+    <t>The animal is hunted for its fur.</t>
+  </si>
+  <si>
+    <t>The hunter moved in to finish the animal off.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -334,17 +430,41 @@
     <t>포박하다</t>
   </si>
   <si>
+    <t>보험</t>
+  </si>
+  <si>
+    <t>담보 대출</t>
+  </si>
+  <si>
+    <t>담보</t>
+  </si>
+  <si>
+    <t>융자</t>
+  </si>
+  <si>
+    <t>줄곧</t>
+  </si>
+  <si>
+    <t>수달</t>
+  </si>
+  <si>
+    <t>사냥</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,14 +527,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -461,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,27 +605,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,24 +639,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,22 +814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,606 +835,900 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -205,6 +205,54 @@
     <t>사냥꾼이 개입해서 그 동물을 죽였다.</t>
   </si>
   <si>
+    <t>그의 셔츠에는 핏자국이 있었다.</t>
+  </si>
+  <si>
+    <t>살해 현장에 핏자국이 남아 있었다</t>
+  </si>
+  <si>
+    <t>지불은 계산대에서 해 주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>계산대 직원이 나에게 거스름돈을 너무 적게 내주었다.</t>
+  </si>
+  <si>
+    <t>기라성같이 늘어서다</t>
+  </si>
+  <si>
+    <t>손님이 없이 늘어선 카트는 아무도 신뢰하지 않는다.</t>
+  </si>
+  <si>
+    <t>We hope that as the day progresses the queues will be longer.</t>
+  </si>
+  <si>
+    <t>스프레드시트 이용할 줄 아세요?</t>
+  </si>
+  <si>
+    <t>그가 기타를 들더니 줄을 퉁겼다.</t>
+  </si>
+  <si>
+    <t>내게 들려 줄 뭐 재미있는 소식 없어?</t>
+  </si>
+  <si>
+    <t>구급차 요원들이 부상자들을 돌보고 있었다.</t>
+  </si>
+  <si>
+    <t>그 설문 조사는 훈련받은 면접 요원들이 집행했다.</t>
+  </si>
+  <si>
+    <t>구경하던 사람들이 구급요원들이 지나가도록 비켜 서 주었다.</t>
+  </si>
+  <si>
+    <t>모든 이에게 평등하게 찾아오는 죽음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평등은 인간 조직이 만들어낸 결과물이다. 우리는 평등하게 태어나지 않았다. </t>
+  </si>
+  <si>
+    <t>All humans are born equal.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -382,6 +430,54 @@
     <t>The hunter moved in to finish the animal off.</t>
   </si>
   <si>
+    <t>His shirt had a spot of blood on it.</t>
+  </si>
+  <si>
+    <t>There were bloodstains at the murder site.</t>
+  </si>
+  <si>
+    <t>Please pay at the till.</t>
+  </si>
+  <si>
+    <t>The clerk at the counter gave me too little change.</t>
+  </si>
+  <si>
+    <t>There is a galaxy[a fine array] of...</t>
+  </si>
+  <si>
+    <t>Nobody trusts a cart without customers lined up.</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>Do you know how to use spreadsheets?</t>
+  </si>
+  <si>
+    <t>He took the guitar and plucked at the strings.</t>
+  </si>
+  <si>
+    <t>Have you got any interesting snippets for me?</t>
+  </si>
+  <si>
+    <t>Ambulance crews were tending to the injured.</t>
+  </si>
+  <si>
+    <t>The questionnaire was administered by trained interviewers.</t>
+  </si>
+  <si>
+    <t>The onlookers stood aside to let the paramedics through.</t>
+  </si>
+  <si>
+    <t>death, the great leveller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equality...is the result of human organization. We are not born equal. </t>
+  </si>
+  <si>
+    <t>죽음은 만인을 평등하게 한다</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -451,6 +547,24 @@
     <t>사냥</t>
   </si>
   <si>
+    <t>핏자국</t>
+  </si>
+  <si>
+    <t>계산대</t>
+  </si>
+  <si>
+    <t>늘어서다</t>
+  </si>
+  <si>
+    <t>줄</t>
+  </si>
+  <si>
+    <t>요원</t>
+  </si>
+  <si>
+    <t>평등하게</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -458,6 +572,9 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -815,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,13 +957,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -854,13 +971,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -868,13 +985,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -882,13 +999,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -896,13 +1013,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -910,13 +1027,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -924,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -938,13 +1055,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -952,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -966,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -980,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -994,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1008,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1022,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1036,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1050,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1064,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1078,13 +1195,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1092,13 +1209,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1106,13 +1223,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1120,13 +1237,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1134,13 +1251,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1148,13 +1265,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1162,13 +1279,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1176,13 +1293,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1190,13 +1307,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1204,13 +1321,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1218,13 +1335,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1232,13 +1349,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1246,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1260,13 +1377,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1274,13 +1391,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1288,13 +1405,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1302,13 +1419,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1316,13 +1433,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1330,13 +1447,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1344,13 +1461,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1358,13 +1475,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1372,13 +1489,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1386,13 +1503,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1400,13 +1517,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1414,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1428,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1442,13 +1559,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1456,13 +1573,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1470,13 +1587,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1484,13 +1601,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1498,13 +1615,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1512,13 +1629,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1526,13 +1643,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1540,13 +1657,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1554,13 +1671,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1568,13 +1685,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1582,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1596,13 +1713,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1610,13 +1727,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1624,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1638,13 +1755,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1652,13 +1769,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1666,13 +1783,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1680,13 +1797,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1694,13 +1811,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1708,13 +1825,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1722,13 +1839,265 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
         <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="252">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -253,6 +253,87 @@
     <t>All humans are born equal.</t>
   </si>
   <si>
+    <t>불법 마약이라는 위협적인 존재의 퇴치를 겨냥한 새 발의안</t>
+  </si>
+  <si>
+    <t>불법 마약 거래 폭력은 심각한 사회문제다.</t>
+  </si>
+  <si>
+    <t>이런 보수는 salary가 아니라 fee로 명명된다.</t>
+  </si>
+  <si>
+    <t>보수주의와 진보주의 정치 이론 검토</t>
+  </si>
+  <si>
+    <t>보수주의와 자유[진보]주의의 차이는 어디에 있는가?</t>
+  </si>
+  <si>
+    <t>그는 이 직장 저 직장을 전전한다.</t>
+  </si>
+  <si>
+    <t>그는 방향을 잃고 이 직장 저 직장 떠돌았다.</t>
+  </si>
+  <si>
+    <t>샐리는 새 직장에 대해 황홀해 했다.</t>
+  </si>
+  <si>
+    <t>가외의 업무가 당신에게 큰 부담이 될까요?</t>
+  </si>
+  <si>
+    <t>그것은 가외의 일이야. 걱정하지 마.</t>
+  </si>
+  <si>
+    <t>어망에는 납을 매달아 무게를 준다.</t>
+  </si>
+  <si>
+    <t>그것은 무게가 9에서 10킬로 사이였다.</t>
+  </si>
+  <si>
+    <t>약사들은 어떤 무게 단위를 사용하지요?</t>
+  </si>
+  <si>
+    <t>그 성당은 그 도시의 더없는 영광이다.</t>
+  </si>
+  <si>
+    <t>그 성당은 도시의 주 광장을 향하고 있다.</t>
+  </si>
+  <si>
+    <t>그 성당의 천장은 금으로 번쩍번쩍 빛이 났다.</t>
+  </si>
+  <si>
+    <t>그녀의 말이 상스러워 그에게 충격적이었다.</t>
+  </si>
+  <si>
+    <t>그와 같은 일이 일어나면 충격을 받게 된다.</t>
+  </si>
+  <si>
+    <t>경찰은 그 폭행의 악랄함에 충격을 받았다.</t>
+  </si>
+  <si>
+    <t>그는 손주 각각에게 유산을 남겼다.</t>
+  </si>
+  <si>
+    <t>스테이크의 양쪽 면을 각각 2분 동안 구워라.</t>
+  </si>
+  <si>
+    <t>두뇌 속 각각 다른 부위들의 상호 연관성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가슴 깊은 신념에서 말하는 '아니오'는 그저 다른 이를 기쁘게 하거나 위기를 모면하기 위해 말하는 '예'보다 더 낫고 위대하다. </t>
+  </si>
+  <si>
+    <t>"Great !" is the first and the last adjective which the most supercilious modern critic would apply to Dickens.</t>
+  </si>
+  <si>
+    <t>A visibly upset Saddam Hussein shouted 'Allah is great' and 'Long live Iraq' as the court's chief judge delivers the final verdict.</t>
+  </si>
+  <si>
+    <t>그녀의 의무는 왕위를 이을 후계자를 낳는[생산하는] 것이었다.</t>
+  </si>
+  <si>
+    <t>그녀는 현 지도자의 자연스러운 후계자로 널리 평가받고 있다.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -478,6 +559,87 @@
     <t>죽음은 만인을 평등하게 한다</t>
   </si>
   <si>
+    <t>a new initiative aimed at beating the menace of illegal drugs</t>
+  </si>
+  <si>
+    <t>Narcoviolence is a serious social problem.</t>
+  </si>
+  <si>
+    <t>These payments are denominated as ‘fees’ rather than ‘salary’.</t>
+  </si>
+  <si>
+    <t>an examination of the political theories of conservatism and liberalism</t>
+  </si>
+  <si>
+    <t>Wherein lies the difference between conservatism and liberalism?</t>
+  </si>
+  <si>
+    <t>He flits from one job to another.</t>
+  </si>
+  <si>
+    <t>He drifted aimlessly from one job to another.</t>
+  </si>
+  <si>
+    <t>Sally was ecstatic about her new job.</t>
+  </si>
+  <si>
+    <t>Will the extra tasks be too burdensome for you?</t>
+  </si>
+  <si>
+    <t>That's not business. Don't worry about it.</t>
+  </si>
+  <si>
+    <t>The fishing nets are weighted with lead.</t>
+  </si>
+  <si>
+    <t>It weighed between nine and ten kilos.</t>
+  </si>
+  <si>
+    <t>Which measure of weight do pharmacists use?</t>
+  </si>
+  <si>
+    <t>The cathedral is the crowning glory of the city.</t>
+  </si>
+  <si>
+    <t>The cathedral fronts the city’s main square.</t>
+  </si>
+  <si>
+    <t>The ceiling of the cathedral glittered with gold.</t>
+  </si>
+  <si>
+    <t>The crudity of her language shocked him.</t>
+  </si>
+  <si>
+    <t>It shocks you when something like that happens.</t>
+  </si>
+  <si>
+    <t>Police were shocked by the viciousness of the assault.</t>
+  </si>
+  <si>
+    <t>He left a bequest to each of his grandchildren.</t>
+  </si>
+  <si>
+    <t>Fry the steaks for two minutes on each side.</t>
+  </si>
+  <si>
+    <t>interconnections between different parts of the brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 'No' uttered from deepest conviction is better and greater than a 'Yes' merely uttered to please, or what is worse, to avoid trouble. </t>
+  </si>
+  <si>
+    <t>사람들의 좋은 회상 속에 자주 있는 자가 가장 위대하다.</t>
+  </si>
+  <si>
+    <t>"위대하다!" 라는 말은 가장 거만한 비평가라도 디킨즈를 평할 때 처음에 그리고 맨 마지막에 말하게 되는 형용사다.</t>
+  </si>
+  <si>
+    <t>Her duty was to produce an heir to the throne.</t>
+  </si>
+  <si>
+    <t>She is widely regarded as the current leader’s natural successor.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -565,6 +727,36 @@
     <t>평등하게</t>
   </si>
   <si>
+    <t>불법 마약</t>
+  </si>
+  <si>
+    <t>보수</t>
+  </si>
+  <si>
+    <t>직장</t>
+  </si>
+  <si>
+    <t>가외의</t>
+  </si>
+  <si>
+    <t>무게</t>
+  </si>
+  <si>
+    <t>성당</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
+  <si>
+    <t>각각</t>
+  </si>
+  <si>
+    <t>위대하다</t>
+  </si>
+  <si>
+    <t>후계자</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -575,6 +767,9 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -971,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -985,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -999,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1013,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1027,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1041,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1055,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1069,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1083,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1097,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1111,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1125,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1139,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1153,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1167,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1181,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1195,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1209,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1223,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1237,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1251,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1265,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1279,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1293,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1307,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1321,13 +1516,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1335,13 +1530,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1349,13 +1544,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1363,13 +1558,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1377,13 +1572,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1391,13 +1586,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1405,13 +1600,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1419,13 +1614,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1433,13 +1628,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1447,13 +1642,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1461,13 +1656,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1475,13 +1670,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1489,13 +1684,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1503,13 +1698,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1517,13 +1712,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1531,13 +1726,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1545,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1559,13 +1754,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1573,13 +1768,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1587,13 +1782,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1601,13 +1796,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1615,13 +1810,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1629,13 +1824,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1643,13 +1838,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1657,13 +1852,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1671,13 +1866,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1685,13 +1880,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1699,13 +1894,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1713,13 +1908,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1727,13 +1922,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1741,13 +1936,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1755,13 +1950,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1769,13 +1964,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1783,13 +1978,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1797,13 +1992,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1811,13 +2006,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1825,13 +2020,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1839,13 +2034,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1853,13 +2048,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1867,13 +2062,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1881,13 +2076,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1895,13 +2090,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1909,13 +2104,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1923,13 +2118,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1937,13 +2132,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1951,13 +2146,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1965,13 +2160,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1979,13 +2174,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1993,13 +2188,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2007,13 +2202,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2021,13 +2216,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2035,13 +2230,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2049,13 +2244,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2063,13 +2258,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2077,13 +2272,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2091,13 +2286,433 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
         <v>182</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
         <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfitz\Documents\GitHub Clones\anki-card-importer\Databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2089B-69ED-45B8-BC10-282D5857A8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5865" yWindow="1695" windowWidth="11775" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="396">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -334,6 +340,186 @@
     <t>그녀는 현 지도자의 자연스러운 후계자로 널리 평가받고 있다.</t>
   </si>
   <si>
+    <t>유년 시절에 대한 어릴 때 기억은 대체로 단편적이다.</t>
+  </si>
+  <si>
+    <t>이것에 대한 나의 기억은 이제 단편적이다.</t>
+  </si>
+  <si>
+    <t>시력[눈]이 좋다/완벽하다/나쁘다/시야[눈]가 흐릿하다/시력[눈]이 정상이다</t>
+  </si>
+  <si>
+    <t>난 안경을 벗으면 모든 게 흐릿하다.</t>
+  </si>
+  <si>
+    <t>안개 속에 등불 빛이 흐릿하다</t>
+  </si>
+  <si>
+    <t>그때가 내 인생에서 가장 행복한 시절이었다.</t>
+  </si>
+  <si>
+    <t>그 곳에는 그의 어린 시절 추억들이 어려 있었다.</t>
+  </si>
+  <si>
+    <t>그 전시회에는 입체파 화가들의 작품도 전시된다.</t>
+  </si>
+  <si>
+    <t>난파선 인양 물품 전시</t>
+  </si>
+  <si>
+    <t>무역 박람회의 미국 전시장</t>
+  </si>
+  <si>
+    <t>…에 대해 어렴풋한 인상을 갖고 있다/희미하게 기억하다/회상하다</t>
+  </si>
+  <si>
+    <t>젊었을 때의 경험을 회상하다.</t>
+  </si>
+  <si>
+    <t>자신의 과거 행동을 회상하다.</t>
+  </si>
+  <si>
+    <t>명성은 양날의 칼이 될 수가 있다.</t>
+  </si>
+  <si>
+    <t>그 스캔들은 그의 명성을 다 망쳐 버렸다.</t>
+  </si>
+  <si>
+    <t>그는 평생 동안 명성을 갈망해 온 상태였다.</t>
+  </si>
+  <si>
+    <t>대중을 따르다, 대세를 좇다.</t>
+  </si>
+  <si>
+    <t>패륜의 육욕[남색]을 좇다.</t>
+  </si>
+  <si>
+    <t>무지개를 좇다, 불가능한 것을 추구하다.</t>
+  </si>
+  <si>
+    <t>마음의 평정을 잃지 않다/잃다/되찾다/되찾다</t>
+  </si>
+  <si>
+    <t>시력을 잃다[앞을 못 보게 되다]</t>
+  </si>
+  <si>
+    <t>‘총기를 든 범인들에게 10명이 목숨을 잃다’라고 신문 제목은 나와 있었다.</t>
+  </si>
+  <si>
+    <t>도마뱀과 거북의 공통적인 조상이었던 파충류</t>
+  </si>
+  <si>
+    <t>아들이 도마뱀 연구에 완전히 빠져 있어요.</t>
+  </si>
+  <si>
+    <t>턱수염 도마뱀은 따뜻한 지역에 산다.</t>
+  </si>
+  <si>
+    <t>태아와 플로라는 코모도 왕 도마뱀이 자가수정을 통해 번식할 수 있다는 사실도 보여주었다.</t>
+  </si>
+  <si>
+    <t>이런 자가수정은 처녀생식이라고 부른다</t>
+  </si>
+  <si>
+    <t>유전자 배열 순서 규명 프로젝트</t>
+  </si>
+  <si>
+    <t>눈의 색깔을 지정하게 되는 유전자</t>
+  </si>
+  <si>
+    <t>그 유전자는 특수 단백질에 의해 활성화된다.</t>
+  </si>
+  <si>
+    <t>알 13개에서 12마리를 부화하다.</t>
+  </si>
+  <si>
+    <t>그는 아직 갓 부화한 새였을 때 나무에서 떨여졌다.</t>
+  </si>
+  <si>
+    <t>After the fertilized egg hatches, a white, grublike larva is produced.</t>
+  </si>
+  <si>
+    <t>가슴이 노란색인 그 종의 수컷</t>
+  </si>
+  <si>
+    <t>그 종의 수컷은 꼬리가 하얗다.</t>
+  </si>
+  <si>
+    <t>그 새 수컷은 부리에 빨간 점이 있다.</t>
+  </si>
+  <si>
+    <t>최종 권한은 이사회에 있다.</t>
+  </si>
+  <si>
+    <t>기준이 이사회에 의해 정해졌다.</t>
+  </si>
+  <si>
+    <t>대통령은 군사 쿠데타로 폐해졌다</t>
+  </si>
+  <si>
+    <t>그 쿠데타 소식에 주식 시장이 급락했다.</t>
+  </si>
+  <si>
+    <t>부를 축적하다.</t>
+  </si>
+  <si>
+    <t>그리고 그것은 심지어 더 많이 축적할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>다른 후보들은 모두 공탁금을 잃었다.</t>
+  </si>
+  <si>
+    <t>두 후보 다 표를 얻으려고 애쓰고 있다.</t>
+  </si>
+  <si>
+    <t>우리 후보가 선거에서 득표율이 저조했다.</t>
+  </si>
+  <si>
+    <t>그는 근로기준법에 정통해 있었다.</t>
+  </si>
+  <si>
+    <t>그 다이어트는 칼로리 계산에 기준을 두고 있다.</t>
+  </si>
+  <si>
+    <t>특정 연령의 아동들에 대한 상세한 교육 기준</t>
+  </si>
+  <si>
+    <t>자신의 법적/직업상의/재정적 의무를 충족시키다[다하다]</t>
+  </si>
+  <si>
+    <t>필요를 충족시키다/충족시키다/필요성을 찾아내다</t>
+  </si>
+  <si>
+    <t>…의 호기심을 충족시키다</t>
+  </si>
+  <si>
+    <t>신분이 상승하는 이민자 집단들</t>
+  </si>
+  <si>
+    <t>많은 이민자들이 소외감을 겪는다.</t>
+  </si>
+  <si>
+    <t>1996년도 불법 이민자 고용 금지법</t>
+  </si>
+  <si>
+    <t>우리는 인질 석방을 성공적으로 성사시켰다.</t>
+  </si>
+  <si>
+    <t>여러 달 동안 했던 힘든 일이 성공적으로 막을 내렸다.</t>
+  </si>
+  <si>
+    <t>그녀는 그 면접을 허세를 부려 성공적으로 치뤘다.</t>
+  </si>
+  <si>
+    <t>… 속으로 흡수[동화]되다.</t>
+  </si>
+  <si>
+    <t>나는 수천명이 동화되는 것을 도왔다.</t>
+  </si>
+  <si>
+    <t>Most peoples who come try to assimilate.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -640,6 +826,189 @@
     <t>She is widely regarded as the current leader’s natural successor.</t>
   </si>
   <si>
+    <t>Early memories of childhood are mostly fragmentary.</t>
+  </si>
+  <si>
+    <t>My memories of this are now fragmentary.</t>
+  </si>
+  <si>
+    <t>to have good/perfect/poor/blurred/normal vision</t>
+  </si>
+  <si>
+    <t>Everything is a blur when I take my glasses off.</t>
+  </si>
+  <si>
+    <t>Lights are burning dimly in the fog.</t>
+  </si>
+  <si>
+    <t>Those were the happiest days of my life.</t>
+  </si>
+  <si>
+    <t>The place was overlaid with memories of his childhood.</t>
+  </si>
+  <si>
+    <t>The exhibition includes works by the Cubists.</t>
+  </si>
+  <si>
+    <t>an exhibition of the salvage from the wreck</t>
+  </si>
+  <si>
+    <t>the US pavilion at the Trade Fair</t>
+  </si>
+  <si>
+    <t>to have a vague impression/memory/recollection of sth</t>
+  </si>
+  <si>
+    <t>retrace the experiences of one's youth</t>
+  </si>
+  <si>
+    <t>retrace one's past actions</t>
+  </si>
+  <si>
+    <t>Fame can be a two-edged sword.</t>
+  </si>
+  <si>
+    <t>The scandal left his reputation in ruins.</t>
+  </si>
+  <si>
+    <t>He had hankered after fame all his life.</t>
+  </si>
+  <si>
+    <t>follow [go with] the crowd</t>
+  </si>
+  <si>
+    <t>follow [go after] strange flesh</t>
+  </si>
+  <si>
+    <t>chase a rainbow</t>
+  </si>
+  <si>
+    <t>to keep/lose/recover/regain your composure</t>
+  </si>
+  <si>
+    <t>to lose your sight</t>
+  </si>
+  <si>
+    <t>‘Ten shot dead by gunmen,’ ran the newspaper headline.</t>
+  </si>
+  <si>
+    <t>a reptile that was the common ancestor of lizards and turtles</t>
+  </si>
+  <si>
+    <t>My son is really into saurology.</t>
+  </si>
+  <si>
+    <t>Bearded dragons live in warm regions.</t>
+  </si>
+  <si>
+    <t>The tests on the embryos and Flora also showed that Komodo dragons can reproduce through self-fertilization.</t>
+  </si>
+  <si>
+    <t>Self-fertilisation in this way is called parthenogenesis.</t>
+  </si>
+  <si>
+    <t>a gene sequencing project</t>
+  </si>
+  <si>
+    <t>genes that code for the colour of the eyes</t>
+  </si>
+  <si>
+    <t>The gene is activated by a specific protein.</t>
+  </si>
+  <si>
+    <t>hatch 12 out of 13 eggs</t>
+  </si>
+  <si>
+    <t>He fell out of the tree when he was still a hatchling.</t>
+  </si>
+  <si>
+    <t>깜장색꼬마곰</t>
+  </si>
+  <si>
+    <t>the yellow-breasted male of the species</t>
+  </si>
+  <si>
+    <t>The male of the species has a white tail.</t>
+  </si>
+  <si>
+    <t>The male bird has a red spot on its beak.</t>
+  </si>
+  <si>
+    <t>The ultimate authority resides with the board of directors.</t>
+  </si>
+  <si>
+    <t>The standards were set down by the governing body.</t>
+  </si>
+  <si>
+    <t>The president was deposed in a military coup.</t>
+  </si>
+  <si>
+    <t>Stock markets plunged at the news of the coup.</t>
+  </si>
+  <si>
+    <t>amass a fortune</t>
+  </si>
+  <si>
+    <t>heap up riches</t>
+  </si>
+  <si>
+    <t>And it was able to amass even more.</t>
+  </si>
+  <si>
+    <t>All the other candidates lost their deposits.</t>
+  </si>
+  <si>
+    <t>Both candidates have been trolling for votes.</t>
+  </si>
+  <si>
+    <t>Our candidate fared poorly in the election.</t>
+  </si>
+  <si>
+    <t>He was well versed in employment law.</t>
+  </si>
+  <si>
+    <t>The diet is based on counting calories.</t>
+  </si>
+  <si>
+    <t>detailed education norms for children of particular ages</t>
+  </si>
+  <si>
+    <t>to fulfil your legal/professional/financial obligations</t>
+  </si>
+  <si>
+    <t>to satisfy/meet/identify a need</t>
+  </si>
+  <si>
+    <t>to satisfy sb’s curiosity</t>
+  </si>
+  <si>
+    <t>upwardly mobile immigrant groups</t>
+  </si>
+  <si>
+    <t>Many immigrants suffer from a sense of alienation.</t>
+  </si>
+  <si>
+    <t>the 1996 law against the hiring of illegal immigrants</t>
+  </si>
+  <si>
+    <t>We successfully negotiated the release of the hostages.</t>
+  </si>
+  <si>
+    <t>Months of hard work culminated in success.</t>
+  </si>
+  <si>
+    <t>She successfully bluffed her way through the interview.</t>
+  </si>
+  <si>
+    <t>be absorbed into …</t>
+  </si>
+  <si>
+    <t>I helped to assimilate thousands of individuals.</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -757,6 +1126,72 @@
     <t>후계자</t>
   </si>
   <si>
+    <t>단편적이다</t>
+  </si>
+  <si>
+    <t>흐릿하다</t>
+  </si>
+  <si>
+    <t>시절</t>
+  </si>
+  <si>
+    <t>전시</t>
+  </si>
+  <si>
+    <t>회상하다</t>
+  </si>
+  <si>
+    <t>명성</t>
+  </si>
+  <si>
+    <t>좇다</t>
+  </si>
+  <si>
+    <t>잃다</t>
+  </si>
+  <si>
+    <t>도마뱀</t>
+  </si>
+  <si>
+    <t>자가 수정</t>
+  </si>
+  <si>
+    <t>유전자</t>
+  </si>
+  <si>
+    <t>부화하다</t>
+  </si>
+  <si>
+    <t>수컷</t>
+  </si>
+  <si>
+    <t>이사회</t>
+  </si>
+  <si>
+    <t>쿠데타</t>
+  </si>
+  <si>
+    <t>축적하다</t>
+  </si>
+  <si>
+    <t>후보</t>
+  </si>
+  <si>
+    <t>기준</t>
+  </si>
+  <si>
+    <t>충족시키다</t>
+  </si>
+  <si>
+    <t>이민자</t>
+  </si>
+  <si>
+    <t>성공적</t>
+  </si>
+  <si>
+    <t>동화되다</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -770,13 +1205,16 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +1277,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -885,7 +1331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,9 +1363,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,6 +1415,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,14 +1608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,1572 +1635,2496 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="D81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="D106" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="D107" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="D108" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="D112" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="D113" t="s">
-        <v>251</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
+        <v>368</v>
+      </c>
+      <c r="D114" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" t="s">
+        <v>368</v>
+      </c>
+      <c r="D115" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>369</v>
+      </c>
+      <c r="D117" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>369</v>
+      </c>
+      <c r="D118" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" t="s">
+        <v>370</v>
+      </c>
+      <c r="D120" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" t="s">
+        <v>275</v>
+      </c>
+      <c r="C123" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" t="s">
+        <v>372</v>
+      </c>
+      <c r="D127" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>281</v>
+      </c>
+      <c r="C129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" t="s">
+        <v>373</v>
+      </c>
+      <c r="D130" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" t="s">
+        <v>374</v>
+      </c>
+      <c r="D133" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>286</v>
+      </c>
+      <c r="C134" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" t="s">
+        <v>376</v>
+      </c>
+      <c r="D139" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" t="s">
+        <v>376</v>
+      </c>
+      <c r="D140" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" t="s">
+        <v>294</v>
+      </c>
+      <c r="C143" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" t="s">
+        <v>378</v>
+      </c>
+      <c r="D145" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" t="s">
+        <v>378</v>
+      </c>
+      <c r="D146" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" t="s">
+        <v>379</v>
+      </c>
+      <c r="D148" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s">
+        <v>379</v>
+      </c>
+      <c r="D149" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>380</v>
+      </c>
+      <c r="D152" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" t="s">
+        <v>381</v>
+      </c>
+      <c r="D153" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>142</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" t="s">
+        <v>381</v>
+      </c>
+      <c r="D155" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>144</v>
+      </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" t="s">
+        <v>382</v>
+      </c>
+      <c r="D156" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157" t="s">
+        <v>382</v>
+      </c>
+      <c r="D157" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" t="s">
+        <v>382</v>
+      </c>
+      <c r="D158" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>146</v>
+      </c>
+      <c r="B159" t="s">
+        <v>308</v>
+      </c>
+      <c r="C159" t="s">
+        <v>383</v>
+      </c>
+      <c r="D159" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>146</v>
+      </c>
+      <c r="B160" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" t="s">
+        <v>310</v>
+      </c>
+      <c r="C161" t="s">
+        <v>383</v>
+      </c>
+      <c r="D161" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>311</v>
+      </c>
+      <c r="C162" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>312</v>
+      </c>
+      <c r="C163" t="s">
+        <v>384</v>
+      </c>
+      <c r="D163" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" t="s">
+        <v>315</v>
+      </c>
+      <c r="C166" t="s">
+        <v>385</v>
+      </c>
+      <c r="D166" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" t="s">
+        <v>316</v>
+      </c>
+      <c r="C167" t="s">
+        <v>385</v>
+      </c>
+      <c r="D167" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>318</v>
+      </c>
+      <c r="C169" t="s">
+        <v>386</v>
+      </c>
+      <c r="D169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" t="s">
+        <v>386</v>
+      </c>
+      <c r="D170" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171" t="s">
+        <v>387</v>
+      </c>
+      <c r="D171" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" t="s">
+        <v>321</v>
+      </c>
+      <c r="C172" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>322</v>
+      </c>
+      <c r="C173" t="s">
+        <v>387</v>
+      </c>
+      <c r="D173" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" t="s">
+        <v>323</v>
+      </c>
+      <c r="C174" t="s">
+        <v>388</v>
+      </c>
+      <c r="D174" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>161</v>
+      </c>
+      <c r="B175" t="s">
+        <v>324</v>
+      </c>
+      <c r="C175" t="s">
+        <v>388</v>
+      </c>
+      <c r="D175" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" t="s">
+        <v>388</v>
+      </c>
+      <c r="D176" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177" t="s">
+        <v>326</v>
+      </c>
+      <c r="C177" t="s">
+        <v>389</v>
+      </c>
+      <c r="D177" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" t="s">
+        <v>327</v>
+      </c>
+      <c r="C178" t="s">
+        <v>389</v>
+      </c>
+      <c r="D178" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfitz\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2089B-69ED-45B8-BC10-282D5857A8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1695" windowWidth="11775" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="456">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -520,6 +514,81 @@
     <t>Most peoples who come try to assimilate.</t>
   </si>
   <si>
+    <t>17세기의 사회적 윤리와 관습</t>
+  </si>
+  <si>
+    <t>그 여성들은 그 나라의 관습을 존중하여 베일을 쓰고 있었다.</t>
+  </si>
+  <si>
+    <t>그 두 기업은 긴밀하게 공조한다.</t>
+  </si>
+  <si>
+    <t>We are a very tightly knit industry.</t>
+  </si>
+  <si>
+    <t>슬로카우</t>
+  </si>
+  <si>
+    <t>그는 그들의 차기 지도자가 되기를 열망했다.</t>
+  </si>
+  <si>
+    <t>새 지도자는 국가를 통합시키기를 희망한다.</t>
+  </si>
+  <si>
+    <t>추방된 지도자를 지지하는 대규모 시위</t>
+  </si>
+  <si>
+    <t>정부는 그 진실을 밝혀내겠다는 의지를 거듭 강조했다.</t>
+  </si>
+  <si>
+    <t>3의 거듭제곱은 27이다.</t>
+  </si>
+  <si>
+    <t>…을 강조하다[…에 역점을 두다]</t>
+  </si>
+  <si>
+    <t>…에 큰 역점을 두다, …을 크게 강조하다.</t>
+  </si>
+  <si>
+    <t>그 두 가지 경우 사이의 차이를 강조하다.</t>
+  </si>
+  <si>
+    <t>작물의 다양성을 보호하기 위해 씨앗 금고를 설립하다</t>
+  </si>
+  <si>
+    <t>클럽/회사를 설립하다</t>
+  </si>
+  <si>
+    <t>...의 목적으로 회사를 설립하다.</t>
+  </si>
+  <si>
+    <t>그의 집이 몰수되는 걸 꺼렸다.</t>
+  </si>
+  <si>
+    <t>Do you have any projections of the value of assets likely to be confiscated in the coming year?</t>
+  </si>
+  <si>
+    <t>탑탱</t>
+  </si>
+  <si>
+    <t>그녀는 사무실을 자기 개인 영지로 여긴다.</t>
+  </si>
+  <si>
+    <t>그 숲은 영지의 남쪽 끝에 있다.</t>
+  </si>
+  <si>
+    <t>왕의 영지는 침략군에게 짓밟혔다.</t>
+  </si>
+  <si>
+    <t>농민들이 봉기를 하고 나섰다.</t>
+  </si>
+  <si>
+    <t>하이코 마스 독일 외무장관이 불행하게 끝난 '바르샤바 봉기' 75주년을 기념하는 연설에서 폴란드 국민들에게 2차 세계대전 중 독일이 끼친 만행에 대해 용서를 구했다.</t>
+  </si>
+  <si>
+    <t>the Peasants’ Revolt of 1381</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -1009,6 +1078,81 @@
     <t>gray</t>
   </si>
   <si>
+    <t>the social morals and manners of the seventeenth century</t>
+  </si>
+  <si>
+    <t>The women wore veils in deference to the customs of the country.</t>
+  </si>
+  <si>
+    <t>The two industries run hand in glove.</t>
+  </si>
+  <si>
+    <t>einky</t>
+  </si>
+  <si>
+    <t>우리는 유대가 매우 긴밀한 산업체이다.</t>
+  </si>
+  <si>
+    <t>He aspired to be their next leader.</t>
+  </si>
+  <si>
+    <t>The new leader hopes to unify the country.</t>
+  </si>
+  <si>
+    <t>mass demonstrations in support of the exiled leader</t>
+  </si>
+  <si>
+    <t>The government reiterated its resolve to uncover the truth.</t>
+  </si>
+  <si>
+    <t>3 raised to the power of 3 is 27 .</t>
+  </si>
+  <si>
+    <t>to put/lay/place emphasis on sth</t>
+  </si>
+  <si>
+    <t>lay [place, put] great emphasis on [upon]</t>
+  </si>
+  <si>
+    <t>accent the difference between the two cases</t>
+  </si>
+  <si>
+    <t>to establish a seed vault to protect crop diversity</t>
+  </si>
+  <si>
+    <t>to found a club / company</t>
+  </si>
+  <si>
+    <t>float a concern for the purpose of...</t>
+  </si>
+  <si>
+    <t>His house was not about to be repossessed.</t>
+  </si>
+  <si>
+    <t>Sunny Jeong</t>
+  </si>
+  <si>
+    <t>다음 해에 몰수될 거 같은 자산가치의 예상을 하고 있으십니까?</t>
+  </si>
+  <si>
+    <t>She considers the office as her own private fiefdom.</t>
+  </si>
+  <si>
+    <t>The wood lies on the southern extremity of the estate.</t>
+  </si>
+  <si>
+    <t>The king's dominion was devastated by the invading army.</t>
+  </si>
+  <si>
+    <t>The peasants rose in revolt.</t>
+  </si>
+  <si>
+    <t>German Foreign Minister Heiko Maas has asked the Polish people for forgiveness for the atrocities their country suffered during World War II, in a speech to mark the ill-fated Warsaw Uprising 75 years ago.</t>
+  </si>
+  <si>
+    <t>반정부 무장 봉기</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -1192,6 +1336,33 @@
     <t>동화되다</t>
   </si>
   <si>
+    <t>관습</t>
+  </si>
+  <si>
+    <t>긴밀하다</t>
+  </si>
+  <si>
+    <t>지도자</t>
+  </si>
+  <si>
+    <t>거듭</t>
+  </si>
+  <si>
+    <t>강조하다</t>
+  </si>
+  <si>
+    <t>설립하다</t>
+  </si>
+  <si>
+    <t>몰수되다</t>
+  </si>
+  <si>
+    <t>영지</t>
+  </si>
+  <si>
+    <t>봉기</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1208,13 +1379,16 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,14 +1451,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1331,7 +1497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1363,27 +1529,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1415,24 +1563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1608,20 +1738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,2496 +1759,2874 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="D36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="D37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="D44" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="D50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="D51" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="D53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="D54" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="D55" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="D56" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="D59" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="D64" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C70" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="D70" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="D73" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="D74" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D75" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D79" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D80" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="D81" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="D82" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="D83" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D84" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D85" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D86" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D87" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="D90" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="D91" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="D92" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D94" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D95" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D97" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="D99" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="D100" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="D101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="D102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="D103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="D104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="D105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="D109" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="D110" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="D111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="D112" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="D113" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="D114" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="D115" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="D116" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D117" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D118" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C119" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D119" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D120" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D121" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C122" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C123" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="D123" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C124" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="D124" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D126" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D127" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="D130" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C132" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="D132" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="D133" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C135" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="D135" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C136" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="D136" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C137" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="D137" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C138" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="D138" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C139" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C140" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="D140" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C141" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="D141" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="D142" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="D143" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="D144" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C146" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="D146" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C147" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="D147" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="D148" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C149" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="D149" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C150" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="D150" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="D151" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C152" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="D152" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C154" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="D154" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="C155" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="D155" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="D156" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="D157" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C158" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="D158" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D159" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C160" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D160" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C161" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D161" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D162" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C163" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D163" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C164" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D164" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C165" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="D165" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="D166" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="D167" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="D168" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="D169" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C170" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="D170" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="D171" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C172" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="D172" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="D173" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="D174" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C175" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="D175" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="D176" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D177" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D178" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C179" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D179" t="s">
-        <v>395</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" t="s">
+        <v>440</v>
+      </c>
+      <c r="D180" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" t="s">
+        <v>225</v>
+      </c>
+      <c r="C181" t="s">
+        <v>440</v>
+      </c>
+      <c r="D181" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182" t="s">
+        <v>355</v>
+      </c>
+      <c r="C182" t="s">
+        <v>440</v>
+      </c>
+      <c r="D182" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>168</v>
+      </c>
+      <c r="B183" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" t="s">
+        <v>441</v>
+      </c>
+      <c r="D183" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" t="s">
+        <v>357</v>
+      </c>
+      <c r="C184" t="s">
+        <v>441</v>
+      </c>
+      <c r="D184" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" t="s">
+        <v>441</v>
+      </c>
+      <c r="D185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>171</v>
+      </c>
+      <c r="B186" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="s">
+        <v>442</v>
+      </c>
+      <c r="D186" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>172</v>
+      </c>
+      <c r="B187" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" t="s">
+        <v>442</v>
+      </c>
+      <c r="D187" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>173</v>
+      </c>
+      <c r="B188" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" t="s">
+        <v>442</v>
+      </c>
+      <c r="D188" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" t="s">
+        <v>443</v>
+      </c>
+      <c r="D189" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" t="s">
+        <v>226</v>
+      </c>
+      <c r="C190" t="s">
+        <v>443</v>
+      </c>
+      <c r="D190" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" t="s">
+        <v>363</v>
+      </c>
+      <c r="C191" t="s">
+        <v>443</v>
+      </c>
+      <c r="D191" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>176</v>
+      </c>
+      <c r="B192" t="s">
+        <v>364</v>
+      </c>
+      <c r="C192" t="s">
+        <v>444</v>
+      </c>
+      <c r="D192" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>177</v>
+      </c>
+      <c r="B193" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" t="s">
+        <v>444</v>
+      </c>
+      <c r="D193" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>178</v>
+      </c>
+      <c r="B194" t="s">
+        <v>366</v>
+      </c>
+      <c r="C194" t="s">
+        <v>444</v>
+      </c>
+      <c r="D194" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>179</v>
+      </c>
+      <c r="B195" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" t="s">
+        <v>445</v>
+      </c>
+      <c r="D195" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>180</v>
+      </c>
+      <c r="B196" t="s">
+        <v>368</v>
+      </c>
+      <c r="C196" t="s">
+        <v>445</v>
+      </c>
+      <c r="D196" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>181</v>
+      </c>
+      <c r="B197" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" t="s">
+        <v>445</v>
+      </c>
+      <c r="D197" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>182</v>
+      </c>
+      <c r="B198" t="s">
+        <v>370</v>
+      </c>
+      <c r="C198" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>183</v>
+      </c>
+      <c r="B199" t="s">
+        <v>371</v>
+      </c>
+      <c r="C199" t="s">
+        <v>446</v>
+      </c>
+      <c r="D199" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>184</v>
+      </c>
+      <c r="B200" t="s">
+        <v>372</v>
+      </c>
+      <c r="C200" t="s">
+        <v>446</v>
+      </c>
+      <c r="D200" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>185</v>
+      </c>
+      <c r="B201" t="s">
+        <v>373</v>
+      </c>
+      <c r="C201" t="s">
+        <v>447</v>
+      </c>
+      <c r="D201" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>186</v>
+      </c>
+      <c r="B202" t="s">
+        <v>374</v>
+      </c>
+      <c r="C202" t="s">
+        <v>447</v>
+      </c>
+      <c r="D202" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>187</v>
+      </c>
+      <c r="B203" t="s">
+        <v>375</v>
+      </c>
+      <c r="C203" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>188</v>
+      </c>
+      <c r="B204" t="s">
+        <v>376</v>
+      </c>
+      <c r="C204" t="s">
+        <v>448</v>
+      </c>
+      <c r="D204" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>189</v>
+      </c>
+      <c r="B205" t="s">
+        <v>377</v>
+      </c>
+      <c r="C205" t="s">
+        <v>448</v>
+      </c>
+      <c r="D205" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>190</v>
+      </c>
+      <c r="B206" t="s">
+        <v>378</v>
+      </c>
+      <c r="C206" t="s">
+        <v>448</v>
+      </c>
+      <c r="D206" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -589,6 +589,45 @@
     <t>the Peasants’ Revolt of 1381</t>
   </si>
   <si>
+    <t>그 선박은 양현의 돛을 나비 모양으로 벌리며 황해를 건넜다.</t>
+  </si>
+  <si>
+    <t>이 나비 모양의 기관은 갑상선이라고 불린다.</t>
+  </si>
+  <si>
+    <t>네 신발 끈이 풀렸어.</t>
+  </si>
+  <si>
+    <t>그 상점은 신발 끈에서부터 컴퓨터에 이르기까지 모든 것을 다 판다.</t>
+  </si>
+  <si>
+    <t>현재 남자는 이 여분의 시간에 대처할 수 업다.</t>
+  </si>
+  <si>
+    <t>I can't get my head around somebody taking that to their grave.</t>
+  </si>
+  <si>
+    <t>토토토토마스</t>
+  </si>
+  <si>
+    <t>그가 아주 친근하게 내 등을 철썩 쳤다.</t>
+  </si>
+  <si>
+    <t>클러치/핸드 브레이크/스위치 등을 풀다</t>
+  </si>
+  <si>
+    <t>그녀는 등 뒤로 문을 확실히[단단히] 잠갔다.</t>
+  </si>
+  <si>
+    <t>허용되지 않아서 참으로 유감이다.</t>
+  </si>
+  <si>
+    <t>That was not acceptable to the House.</t>
+  </si>
+  <si>
+    <t>luna501</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -1153,6 +1192,45 @@
     <t>반정부 무장 봉기</t>
   </si>
   <si>
+    <t>The ship sailed as wing and wing across the yellow sea.</t>
+  </si>
+  <si>
+    <t>This tiny butterfly-shaped organ is called the thyroid gland .</t>
+  </si>
+  <si>
+    <t>Your laces are undone.</t>
+  </si>
+  <si>
+    <t>The store sells everything from shoelaces to computers.</t>
+  </si>
+  <si>
+    <t>Presently man is unable to cope with this extra time.</t>
+  </si>
+  <si>
+    <t>지겸</t>
+  </si>
+  <si>
+    <t>나는 그것을 그들의 무덤으로 가져가는 사람을 이해할 수 업다.</t>
+  </si>
+  <si>
+    <t>He gave me a hearty slap on the back.</t>
+  </si>
+  <si>
+    <t>to release the clutch/handbrake/switch, etc.</t>
+  </si>
+  <si>
+    <t>She locked the door securely behind her.</t>
+  </si>
+  <si>
+    <t>What a pity it was not accepted.</t>
+  </si>
+  <si>
+    <t>dlawotns5</t>
+  </si>
+  <si>
+    <t>그것은 집으로 허용되지 않았다.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -1363,6 +1441,21 @@
     <t>봉기</t>
   </si>
   <si>
+    <t>나비 모양</t>
+  </si>
+  <si>
+    <t>신발끈</t>
+  </si>
+  <si>
+    <t>업다</t>
+  </si>
+  <si>
+    <t>등</t>
+  </si>
+  <si>
+    <t>허용되다</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1382,6 +1475,9 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,13 +1860,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1778,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1792,13 +1888,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1806,13 +1902,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1820,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1834,13 +1930,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1848,13 +1944,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1862,13 +1958,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1876,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1890,13 +1986,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1904,13 +2000,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1918,13 +2014,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1932,13 +2028,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D14" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1946,13 +2042,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1960,13 +2056,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1974,13 +2070,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1988,13 +2084,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2002,13 +2098,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2016,13 +2112,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2030,13 +2126,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2044,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2058,13 +2154,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2072,13 +2168,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2086,13 +2182,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2100,13 +2196,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D26" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2114,13 +2210,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2128,13 +2224,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D28" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2142,13 +2238,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2156,13 +2252,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D30" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2170,13 +2266,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2184,13 +2280,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2198,13 +2294,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2212,13 +2308,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2226,13 +2322,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2240,13 +2336,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2254,13 +2350,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D37" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2268,13 +2364,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D38" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2282,13 +2378,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2296,13 +2392,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2310,13 +2406,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2324,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2338,13 +2434,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2352,13 +2448,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C44" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2366,13 +2462,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D45" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2380,13 +2476,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2394,13 +2490,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2408,13 +2504,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2422,13 +2518,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2436,13 +2532,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D50" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2450,13 +2546,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2464,13 +2560,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2478,13 +2574,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2492,13 +2588,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2506,13 +2602,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D55" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2520,13 +2616,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2534,13 +2630,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D57" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2548,13 +2644,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D58" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2562,13 +2658,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2576,13 +2672,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D60" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2590,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D61" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2604,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D62" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2618,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2632,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2646,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D65" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2660,13 +2756,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D66" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2674,13 +2770,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2688,13 +2784,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2702,13 +2798,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D69" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2716,13 +2812,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2730,13 +2826,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D71" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2744,13 +2840,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D72" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2758,13 +2854,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2772,13 +2868,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D74" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2786,13 +2882,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D75" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2800,13 +2896,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2814,13 +2910,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2828,13 +2924,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2842,13 +2938,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D79" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2856,13 +2952,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2870,13 +2966,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2884,13 +2980,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C82" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D82" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2898,13 +2994,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C83" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D83" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2912,13 +3008,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D84" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2926,13 +3022,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2940,13 +3036,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2954,13 +3050,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D87" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2968,13 +3064,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D88" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2982,13 +3078,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D89" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2996,13 +3092,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D90" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3010,13 +3106,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D91" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3024,13 +3120,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3038,13 +3134,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D93" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3052,13 +3148,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D94" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3066,13 +3162,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3080,13 +3176,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D96" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3094,13 +3190,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D97" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3108,13 +3204,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D98" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3122,13 +3218,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D99" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3136,13 +3232,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3150,13 +3246,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3164,13 +3260,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D102" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3178,13 +3274,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3192,13 +3288,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D104" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3206,13 +3302,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D105" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3220,13 +3316,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D106" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3234,13 +3330,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D107" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3248,13 +3344,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3262,13 +3358,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3276,13 +3372,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3290,13 +3386,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3304,13 +3400,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D112" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3318,13 +3414,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D113" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3332,13 +3428,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3346,13 +3442,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D115" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3360,13 +3456,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D116" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3374,13 +3470,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D117" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3388,13 +3484,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3402,13 +3498,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C119" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D119" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3416,13 +3512,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C120" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D120" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3430,13 +3526,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D121" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3444,13 +3540,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D122" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3458,13 +3554,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D123" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3472,13 +3568,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D124" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3486,13 +3582,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C125" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3500,13 +3596,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C126" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3514,13 +3610,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D127" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3528,13 +3624,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D128" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3542,13 +3638,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D129" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3556,13 +3652,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D130" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3570,13 +3666,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D131" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3584,13 +3680,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D132" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3598,13 +3694,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D133" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3612,13 +3708,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D134" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3626,13 +3722,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D135" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3640,13 +3736,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D136" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3654,13 +3750,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C137" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D137" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3668,13 +3764,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C138" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D138" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3682,13 +3778,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3696,13 +3792,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D140" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3710,13 +3806,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D141" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3724,13 +3820,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C142" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D142" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3738,13 +3834,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D143" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3752,13 +3848,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D144" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3766,13 +3862,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D145" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3780,13 +3876,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C146" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D146" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3794,13 +3890,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D147" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3808,13 +3904,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C148" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D148" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3822,13 +3918,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D149" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3836,13 +3932,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D150" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3850,13 +3946,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C151" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D151" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3864,13 +3960,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D152" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3878,13 +3974,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C153" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D153" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3892,13 +3988,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D154" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3906,13 +4002,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C155" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D155" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3920,13 +4016,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C156" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D156" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3934,13 +4030,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D157" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3948,13 +4044,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D158" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3962,13 +4058,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C159" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D159" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3976,13 +4072,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D160" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3990,13 +4086,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D161" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4004,13 +4100,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C162" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4018,13 +4114,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C163" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D163" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4032,13 +4128,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C164" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D164" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4046,13 +4142,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C165" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D165" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4060,13 +4156,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4074,13 +4170,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C167" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D167" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4088,13 +4184,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C168" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D168" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4102,13 +4198,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C169" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D169" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4116,13 +4212,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C170" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D170" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4130,13 +4226,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D171" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4144,13 +4240,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C172" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D172" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4158,13 +4254,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C173" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D173" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4172,13 +4268,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C174" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D174" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4186,13 +4282,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D175" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4200,13 +4296,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D176" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4214,13 +4310,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D177" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4228,13 +4324,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4242,13 +4338,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D179" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4256,13 +4352,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D180" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4270,13 +4366,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C181" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D181" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4284,13 +4380,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C182" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D182" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4298,13 +4394,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C183" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="D183" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4312,13 +4408,13 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="D184" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4326,13 +4422,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C185" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="D185" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4340,13 +4436,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C186" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D186" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4354,13 +4450,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D187" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4368,13 +4464,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D188" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4382,13 +4478,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C189" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D189" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4396,13 +4492,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D190" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4410,13 +4506,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D191" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4424,13 +4520,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C192" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D192" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4438,13 +4534,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C193" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D193" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4452,13 +4548,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C194" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D194" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4466,13 +4562,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D195" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4480,13 +4576,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C196" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D196" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4494,13 +4590,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C197" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D197" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4508,13 +4604,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C198" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D198" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4522,13 +4618,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C199" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D199" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4536,13 +4632,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C200" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D200" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4550,13 +4646,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C201" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D201" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4564,13 +4660,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D202" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4578,13 +4674,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D203" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4592,13 +4688,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C204" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D204" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4606,13 +4702,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C205" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D205" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4620,13 +4716,223 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C206" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D206" t="s">
-        <v>455</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" t="s">
+        <v>243</v>
+      </c>
+      <c r="C207" t="s">
+        <v>475</v>
+      </c>
+      <c r="D207" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>191</v>
+      </c>
+      <c r="B208" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" t="s">
+        <v>475</v>
+      </c>
+      <c r="D208" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>192</v>
+      </c>
+      <c r="B209" t="s">
+        <v>393</v>
+      </c>
+      <c r="C209" t="s">
+        <v>475</v>
+      </c>
+      <c r="D209" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>193</v>
+      </c>
+      <c r="B210" t="s">
+        <v>394</v>
+      </c>
+      <c r="C210" t="s">
+        <v>476</v>
+      </c>
+      <c r="D210" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>194</v>
+      </c>
+      <c r="B211" t="s">
+        <v>395</v>
+      </c>
+      <c r="C211" t="s">
+        <v>476</v>
+      </c>
+      <c r="D211" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>43</v>
+      </c>
+      <c r="B212" t="s">
+        <v>243</v>
+      </c>
+      <c r="C212" t="s">
+        <v>476</v>
+      </c>
+      <c r="D212" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>195</v>
+      </c>
+      <c r="B213" t="s">
+        <v>396</v>
+      </c>
+      <c r="C213" t="s">
+        <v>477</v>
+      </c>
+      <c r="D213" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>196</v>
+      </c>
+      <c r="B214" t="s">
+        <v>397</v>
+      </c>
+      <c r="C214" t="s">
+        <v>477</v>
+      </c>
+      <c r="D214" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>197</v>
+      </c>
+      <c r="B215" t="s">
+        <v>398</v>
+      </c>
+      <c r="C215" t="s">
+        <v>477</v>
+      </c>
+      <c r="D215" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>198</v>
+      </c>
+      <c r="B216" t="s">
+        <v>399</v>
+      </c>
+      <c r="C216" t="s">
+        <v>478</v>
+      </c>
+      <c r="D216" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" t="s">
+        <v>400</v>
+      </c>
+      <c r="C217" t="s">
+        <v>478</v>
+      </c>
+      <c r="D217" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" t="s">
+        <v>401</v>
+      </c>
+      <c r="C218" t="s">
+        <v>478</v>
+      </c>
+      <c r="D218" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" t="s">
+        <v>402</v>
+      </c>
+      <c r="C219" t="s">
+        <v>479</v>
+      </c>
+      <c r="D219" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>202</v>
+      </c>
+      <c r="B220" t="s">
+        <v>403</v>
+      </c>
+      <c r="C220" t="s">
+        <v>479</v>
+      </c>
+      <c r="D220" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B221" t="s">
+        <v>404</v>
+      </c>
+      <c r="C221" t="s">
+        <v>479</v>
+      </c>
+      <c r="D221" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="536">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -628,6 +628,66 @@
     <t>luna501</t>
   </si>
   <si>
+    <t>현미 수술 분야의 개척자</t>
+  </si>
+  <si>
+    <t>농업 분야 내부적으로 불만이 있다.</t>
+  </si>
+  <si>
+    <t>아주 수월하게 결승전에 진출하다.</t>
+  </si>
+  <si>
+    <t>멕시코의 수출시장에 진출 하다.</t>
+  </si>
+  <si>
+    <t>노력하여 신용과 책임있는 지위에 진출하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구두쇠는 언제나 가난하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">돈이 없는 사람은 가난하다. 돈 밖에 없는 사람은 더 가난하다. </t>
+  </si>
+  <si>
+    <t>The Smiths do not have a pot to piss in.</t>
+  </si>
+  <si>
+    <t>우리는 신혼여행을 베니스로 갔다.</t>
+  </si>
+  <si>
+    <t>그들은 신혼여행지로 파리를 택했다.</t>
+  </si>
+  <si>
+    <t>신혼여행은 어디로 갈 건지 결정했니?</t>
+  </si>
+  <si>
+    <t>어떤 경우에도 문을 열지 마.</t>
+  </si>
+  <si>
+    <t>12시간 이상 지체될 경우에는 여비를 전액 환불해 드립니다.</t>
+  </si>
+  <si>
+    <t>이 경우는 분명히 법령 2001의 범위 내에 든다.</t>
+  </si>
+  <si>
+    <t>아이들은 수영장에서 서로를 물 속에 밀어 넣으며 장난을 치고 있었다.</t>
+  </si>
+  <si>
+    <t>음식 가지고 장난 그만 해!</t>
+  </si>
+  <si>
+    <t>그것은 모두 악의 없는 장난이었다.</t>
+  </si>
+  <si>
+    <t>이리 와, 이놈의 장난꾸러기 녀석!</t>
+  </si>
+  <si>
+    <t>장난꾸러기 학생들이 학교 건물에 상당한 손상을 입혔다.</t>
+  </si>
+  <si>
+    <t>내 조카는 장난꾸러기 소년이다.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -1231,6 +1291,68 @@
     <t>그것은 집으로 허용되지 않았다.</t>
   </si>
   <si>
+    <t>a pioneer in the field of microsurgery</t>
+  </si>
+  <si>
+    <t>There is discontent within the farming industry.</t>
+  </si>
+  <si>
+    <t>coast to the final</t>
+  </si>
+  <si>
+    <t>make inroads in the export market in Mexico</t>
+  </si>
+  <si>
+    <t>work one's way up to a position of trust and responsibility</t>
+  </si>
+  <si>
+    <t>The miser is always poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">욕망하는 자는 늘 가난하다. 
+명언/속담
+The fellow who has no money is poor; the fellow who has nothing but money is poorer still. </t>
+  </si>
+  <si>
+    <t>브라운씨 일가는 아주 가난하다.</t>
+  </si>
+  <si>
+    <t>We went to Venice for our honeymoon.</t>
+  </si>
+  <si>
+    <t>They’ve fixed on Paris for their honeymoon.</t>
+  </si>
+  <si>
+    <t>Have you made up your minds where to go for your honeymoon?</t>
+  </si>
+  <si>
+    <t>Don’t open the door, in any circumstances.</t>
+  </si>
+  <si>
+    <t>If there is a delay of 12 hours or more, you will receive a full refund of the price of your trip.</t>
+  </si>
+  <si>
+    <t>This case falls clearly within the ambit of the 2001 act.</t>
+  </si>
+  <si>
+    <t>The kids were ducking each other in the pool.</t>
+  </si>
+  <si>
+    <t>Stop playing with your food!</t>
+  </si>
+  <si>
+    <t>It was all innocent fun.</t>
+  </si>
+  <si>
+    <t>Come here, you cheeky little monkey!</t>
+  </si>
+  <si>
+    <t>Student pranksters have done considerable damage to the school buildings.</t>
+  </si>
+  <si>
+    <t>My nephew is a naughty boy.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -1456,6 +1578,27 @@
     <t>허용되다</t>
   </si>
   <si>
+    <t>분야</t>
+  </si>
+  <si>
+    <t>진출하다</t>
+  </si>
+  <si>
+    <t>가난하다</t>
+  </si>
+  <si>
+    <t>신혼여행</t>
+  </si>
+  <si>
+    <t>경우</t>
+  </si>
+  <si>
+    <t>장난</t>
+  </si>
+  <si>
+    <t>장난꾸러기</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1478,6 +1621,9 @@
   </si>
   <si>
     <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1860,13 +2006,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1874,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1888,13 +2034,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1902,13 +2048,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1916,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1930,13 +2076,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1944,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1958,13 +2104,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1972,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1986,13 +2132,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2000,13 +2146,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2014,13 +2160,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2028,13 +2174,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2042,13 +2188,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2056,13 +2202,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2070,13 +2216,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2084,13 +2230,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2098,13 +2244,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2112,13 +2258,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2126,13 +2272,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2140,13 +2286,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2154,13 +2300,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2168,13 +2314,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2182,13 +2328,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D25" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2196,13 +2342,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2210,13 +2356,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2224,13 +2370,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D28" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2238,13 +2384,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2252,13 +2398,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="D30" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2266,13 +2412,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2280,13 +2426,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="D32" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2294,13 +2440,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="D33" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2308,13 +2454,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2322,13 +2468,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2336,13 +2482,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="D36" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2350,13 +2496,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2364,13 +2510,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="D38" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2378,13 +2524,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="D39" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2392,13 +2538,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="D40" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2406,13 +2552,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="D41" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2420,13 +2566,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2434,13 +2580,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="D43" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2448,13 +2594,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D44" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2462,13 +2608,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D45" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2476,13 +2622,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D46" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2490,13 +2636,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D47" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2504,13 +2650,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C48" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2518,13 +2664,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="D49" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2532,13 +2678,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2546,13 +2692,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2560,13 +2706,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D52" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2574,13 +2720,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D53" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2588,13 +2734,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2602,13 +2748,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2616,13 +2762,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="D56" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2630,13 +2776,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2644,13 +2790,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2658,13 +2804,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2672,13 +2818,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2686,13 +2832,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D61" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2700,13 +2846,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D62" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2714,13 +2860,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="D63" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2728,13 +2874,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="D64" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2742,13 +2888,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="D65" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2756,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D66" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2770,13 +2916,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2784,13 +2930,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2798,13 +2944,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2812,13 +2958,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="D70" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2826,13 +2972,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2840,13 +2986,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D72" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2854,13 +3000,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D73" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2868,13 +3014,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2882,13 +3028,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C75" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2896,13 +3042,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="D76" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2910,13 +3056,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C77" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="D77" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2924,13 +3070,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="D78" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2938,13 +3084,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2952,13 +3098,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2966,13 +3112,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C81" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2980,13 +3126,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="D82" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2994,13 +3140,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C83" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="D83" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3008,13 +3154,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D84" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3022,13 +3168,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D85" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3036,13 +3182,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3050,13 +3196,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="D87" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3064,13 +3210,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="D88" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3078,13 +3224,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="D89" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3092,13 +3238,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="D90" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3106,13 +3252,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="D91" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3120,13 +3266,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C92" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="D92" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3134,13 +3280,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D93" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3148,13 +3294,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D94" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3162,13 +3308,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D95" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3176,13 +3322,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D96" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3190,13 +3336,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3204,13 +3350,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D98" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3218,13 +3364,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="D99" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3232,13 +3378,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="D100" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3246,13 +3392,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C101" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3260,13 +3406,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D102" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3274,13 +3420,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C103" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D103" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3288,13 +3434,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D104" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3302,13 +3448,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D105" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3316,13 +3462,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3330,13 +3476,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D107" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3344,13 +3490,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="D108" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3358,13 +3504,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="D109" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3372,13 +3518,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="D110" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3386,13 +3532,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="D111" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3400,13 +3546,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C112" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="D112" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3414,13 +3560,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C113" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="D113" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3428,13 +3574,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="D114" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3442,13 +3588,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="D115" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3456,13 +3602,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C116" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="D116" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3470,13 +3616,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C117" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="D117" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3484,13 +3630,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="D118" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3498,13 +3644,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="D119" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3512,13 +3658,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="D120" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3526,13 +3672,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="D121" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3540,13 +3686,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="D122" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3554,13 +3700,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="D123" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3568,13 +3714,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C124" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="D124" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3582,13 +3728,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="D125" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3596,13 +3742,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="D126" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3610,13 +3756,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C127" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="D127" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3624,13 +3770,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C128" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="D128" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3638,13 +3784,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C129" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="D129" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3652,13 +3798,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="D130" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3666,13 +3812,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="D131" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3680,13 +3826,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D132" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3694,13 +3840,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C133" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D133" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3708,13 +3854,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D134" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3722,13 +3868,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="D135" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3736,13 +3882,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="D136" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3750,13 +3896,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="D137" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3764,13 +3910,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="D138" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3778,13 +3924,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="D139" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3792,13 +3938,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C140" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="D140" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3806,13 +3952,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C141" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D141" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3820,13 +3966,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D142" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3834,13 +3980,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D143" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3848,13 +3994,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="D144" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3862,13 +4008,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C145" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="D145" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3876,13 +4022,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C146" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="D146" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3890,13 +4036,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="D147" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3904,13 +4050,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="D148" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3918,13 +4064,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C149" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="D149" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3932,13 +4078,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C150" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="D150" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3946,13 +4092,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="D151" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3960,13 +4106,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="D152" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3974,13 +4120,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="D153" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3988,13 +4134,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C154" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="D154" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4002,13 +4148,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C155" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="D155" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4016,13 +4162,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C156" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="D156" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4030,13 +4176,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4044,13 +4190,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C158" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="D158" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4058,13 +4204,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C159" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4072,13 +4218,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C160" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="D160" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4086,13 +4232,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4100,13 +4246,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C162" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4114,13 +4260,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D163" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4128,13 +4274,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C164" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="D164" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4142,13 +4288,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C165" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D165" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4156,13 +4302,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C166" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D166" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4170,13 +4316,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C167" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D167" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4184,13 +4330,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C168" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4198,13 +4344,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C169" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D169" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4212,13 +4358,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4226,13 +4372,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C171" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="D171" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4240,13 +4386,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4254,13 +4400,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C173" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="D173" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4268,13 +4414,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C174" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="D174" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4282,13 +4428,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C175" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="D175" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4296,13 +4442,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C176" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="D176" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4310,13 +4456,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C177" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D177" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4324,13 +4470,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D178" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4338,13 +4484,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C179" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D179" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4352,13 +4498,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="C180" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="D180" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4366,13 +4512,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="D181" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4380,13 +4526,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C182" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="D182" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4394,13 +4540,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C183" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="D183" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4408,13 +4554,13 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C184" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="D184" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4422,13 +4568,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C185" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="D185" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4436,13 +4582,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C186" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D186" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4450,13 +4596,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C187" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D187" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4464,13 +4610,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C188" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D188" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4478,13 +4624,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C189" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="D189" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4492,13 +4638,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C190" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="D190" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4506,13 +4652,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C191" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="D191" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4520,13 +4666,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C192" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="D192" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4534,13 +4680,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C193" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="D193" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4548,13 +4694,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C194" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="D194" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4562,13 +4708,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C195" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D195" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4576,13 +4722,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C196" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D196" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4590,13 +4736,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D197" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4604,13 +4750,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C198" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="D198" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4618,13 +4764,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C199" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="D199" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4632,13 +4778,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="D200" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4646,13 +4792,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C201" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D201" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4660,13 +4806,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C202" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D202" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4674,13 +4820,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C203" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D203" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4688,13 +4834,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C204" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="D204" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4702,13 +4848,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C205" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="D205" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4716,13 +4862,13 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C206" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="D206" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4730,13 +4876,13 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C207" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="D207" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4744,13 +4890,13 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="D208" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4758,13 +4904,13 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="D209" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4772,13 +4918,13 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="D210" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4786,13 +4932,13 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C211" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="D211" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4800,13 +4946,13 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C212" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="D212" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4814,13 +4960,13 @@
         <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C213" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D213" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4828,13 +4974,13 @@
         <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C214" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D214" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4842,13 +4988,13 @@
         <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C215" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D215" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4856,13 +5002,13 @@
         <v>198</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C216" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="D216" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4870,13 +5016,13 @@
         <v>199</v>
       </c>
       <c r="B217" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C217" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="D217" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4884,13 +5030,13 @@
         <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C218" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="D218" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4898,13 +5044,13 @@
         <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="C219" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="D219" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4912,13 +5058,13 @@
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="D220" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4926,13 +5072,307 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C221" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="D221" t="s">
-        <v>487</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" t="s">
+        <v>425</v>
+      </c>
+      <c r="C222" t="s">
+        <v>520</v>
+      </c>
+      <c r="D222" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>205</v>
+      </c>
+      <c r="B223" t="s">
+        <v>426</v>
+      </c>
+      <c r="C223" t="s">
+        <v>520</v>
+      </c>
+      <c r="D223" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" t="s">
+        <v>520</v>
+      </c>
+      <c r="D224" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" t="s">
+        <v>427</v>
+      </c>
+      <c r="C225" t="s">
+        <v>521</v>
+      </c>
+      <c r="D225" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226" t="s">
+        <v>428</v>
+      </c>
+      <c r="C226" t="s">
+        <v>521</v>
+      </c>
+      <c r="D226" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>208</v>
+      </c>
+      <c r="B227" t="s">
+        <v>429</v>
+      </c>
+      <c r="C227" t="s">
+        <v>521</v>
+      </c>
+      <c r="D227" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>209</v>
+      </c>
+      <c r="B228" t="s">
+        <v>430</v>
+      </c>
+      <c r="C228" t="s">
+        <v>522</v>
+      </c>
+      <c r="D228" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>210</v>
+      </c>
+      <c r="B229" t="s">
+        <v>431</v>
+      </c>
+      <c r="C229" t="s">
+        <v>522</v>
+      </c>
+      <c r="D229" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>211</v>
+      </c>
+      <c r="B230" t="s">
+        <v>432</v>
+      </c>
+      <c r="C230" t="s">
+        <v>522</v>
+      </c>
+      <c r="D230" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>212</v>
+      </c>
+      <c r="B231" t="s">
+        <v>433</v>
+      </c>
+      <c r="C231" t="s">
+        <v>523</v>
+      </c>
+      <c r="D231" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>213</v>
+      </c>
+      <c r="B232" t="s">
+        <v>434</v>
+      </c>
+      <c r="C232" t="s">
+        <v>523</v>
+      </c>
+      <c r="D232" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>214</v>
+      </c>
+      <c r="B233" t="s">
+        <v>435</v>
+      </c>
+      <c r="C233" t="s">
+        <v>523</v>
+      </c>
+      <c r="D233" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>215</v>
+      </c>
+      <c r="B234" t="s">
+        <v>436</v>
+      </c>
+      <c r="C234" t="s">
+        <v>524</v>
+      </c>
+      <c r="D234" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>216</v>
+      </c>
+      <c r="B235" t="s">
+        <v>437</v>
+      </c>
+      <c r="C235" t="s">
+        <v>524</v>
+      </c>
+      <c r="D235" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>217</v>
+      </c>
+      <c r="B236" t="s">
+        <v>438</v>
+      </c>
+      <c r="C236" t="s">
+        <v>524</v>
+      </c>
+      <c r="D236" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>218</v>
+      </c>
+      <c r="B237" t="s">
+        <v>439</v>
+      </c>
+      <c r="C237" t="s">
+        <v>525</v>
+      </c>
+      <c r="D237" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>219</v>
+      </c>
+      <c r="B238" t="s">
+        <v>440</v>
+      </c>
+      <c r="C238" t="s">
+        <v>525</v>
+      </c>
+      <c r="D238" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" t="s">
+        <v>441</v>
+      </c>
+      <c r="C239" t="s">
+        <v>525</v>
+      </c>
+      <c r="D239" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>221</v>
+      </c>
+      <c r="B240" t="s">
+        <v>442</v>
+      </c>
+      <c r="C240" t="s">
+        <v>526</v>
+      </c>
+      <c r="D240" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>222</v>
+      </c>
+      <c r="B241" t="s">
+        <v>443</v>
+      </c>
+      <c r="C241" t="s">
+        <v>526</v>
+      </c>
+      <c r="D241" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>223</v>
+      </c>
+      <c r="B242" t="s">
+        <v>444</v>
+      </c>
+      <c r="C242" t="s">
+        <v>526</v>
+      </c>
+      <c r="D242" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39387620-0556-49B3-98D7-B4E53B992682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1629,8 +1635,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,6 +1699,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1739,7 +1753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,9 +1785,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1805,6 +1837,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1980,14 +2030,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2067,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +2081,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2043,7 +2095,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2109,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2123,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2137,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2151,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2165,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2179,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2193,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2207,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2221,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2235,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2249,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2263,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2277,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2239,7 +2291,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2305,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2319,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2333,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2347,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +2361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2375,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2337,7 +2389,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2403,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2417,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2379,7 +2431,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2393,7 +2445,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2459,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2421,7 +2473,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2435,7 +2487,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2449,7 +2501,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2515,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2477,7 +2529,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2491,7 +2543,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2557,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2519,7 +2571,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2533,7 +2585,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2547,7 +2599,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2613,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2575,7 +2627,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2641,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2655,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2617,7 +2669,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2631,7 +2683,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +2697,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2673,7 +2725,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2687,7 +2739,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2701,7 +2753,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2715,7 +2767,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2729,7 +2781,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2795,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +2809,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2771,7 +2823,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2785,7 +2837,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2851,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +2879,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2841,7 +2893,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2855,7 +2907,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2869,7 +2921,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2883,7 +2935,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2897,7 +2949,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2911,7 +2963,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2925,7 +2977,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2939,7 +2991,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2953,7 +3005,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2967,7 +3019,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2981,7 +3033,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2995,7 +3047,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3009,7 +3061,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3023,7 +3075,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3037,7 +3089,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3051,7 +3103,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3065,7 +3117,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3079,7 +3131,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3093,7 +3145,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3107,7 +3159,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3121,7 +3173,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3135,7 +3187,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3149,7 +3201,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3215,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3177,7 +3229,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -3191,7 +3243,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -3219,7 +3271,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -3233,7 +3285,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -3247,7 +3299,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3261,7 +3313,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -3289,7 +3341,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -3303,7 +3355,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3317,7 +3369,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3331,7 +3383,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3345,7 +3397,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3359,7 +3411,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3373,7 +3425,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3387,7 +3439,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3401,7 +3453,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3415,7 +3467,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -3429,7 +3481,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -3443,7 +3495,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -3457,7 +3509,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -3471,7 +3523,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3485,7 +3537,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -3499,7 +3551,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -3513,7 +3565,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -3527,7 +3579,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -3541,7 +3593,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -3555,7 +3607,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>105</v>
       </c>
@@ -3569,7 +3621,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -3583,7 +3635,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -3597,7 +3649,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -3611,7 +3663,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -3625,7 +3677,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -3639,7 +3691,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -3653,7 +3705,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>111</v>
       </c>
@@ -3667,7 +3719,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3733,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3695,7 +3747,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3709,7 +3761,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3723,7 +3775,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -3737,7 +3789,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3751,7 +3803,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3765,7 +3817,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3779,7 +3831,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -3793,7 +3845,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -3807,7 +3859,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3821,7 +3873,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -3835,7 +3887,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -3849,7 +3901,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>124</v>
       </c>
@@ -3863,7 +3915,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>125</v>
       </c>
@@ -3877,7 +3929,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -3891,7 +3943,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -3905,7 +3957,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -3919,7 +3971,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -3933,7 +3985,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -3947,7 +3999,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>131</v>
       </c>
@@ -3961,7 +4013,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -3975,7 +4027,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -3989,7 +4041,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -4003,7 +4055,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4069,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>135</v>
       </c>
@@ -4031,7 +4083,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -4045,7 +4097,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -4059,7 +4111,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -4073,7 +4125,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -4087,7 +4139,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -4101,7 +4153,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -4115,7 +4167,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -4129,7 +4181,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>142</v>
       </c>
@@ -4143,7 +4195,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>143</v>
       </c>
@@ -4157,7 +4209,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -4171,7 +4223,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -4185,7 +4237,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -4199,7 +4251,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -4213,7 +4265,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -4227,7 +4279,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -4241,7 +4293,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -4255,7 +4307,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -4269,7 +4321,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>150</v>
       </c>
@@ -4283,7 +4335,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -4297,7 +4349,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -4311,7 +4363,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -4325,7 +4377,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>154</v>
       </c>
@@ -4339,7 +4391,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>155</v>
       </c>
@@ -4353,7 +4405,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>156</v>
       </c>
@@ -4367,7 +4419,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -4381,7 +4433,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>158</v>
       </c>
@@ -4395,7 +4447,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>159</v>
       </c>
@@ -4409,7 +4461,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>160</v>
       </c>
@@ -4423,7 +4475,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -4437,7 +4489,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>162</v>
       </c>
@@ -4451,7 +4503,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -4465,7 +4517,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>164</v>
       </c>
@@ -4479,7 +4531,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -4493,7 +4545,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -4507,7 +4559,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4521,7 +4573,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -4535,7 +4587,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -4549,7 +4601,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -4563,7 +4615,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -4577,7 +4629,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -4591,7 +4643,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -4605,7 +4657,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -4619,7 +4671,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>174</v>
       </c>
@@ -4633,7 +4685,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -4647,7 +4699,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>175</v>
       </c>
@@ -4661,7 +4713,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -4675,7 +4727,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -4703,7 +4755,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -4717,7 +4769,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -4731,7 +4783,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -4745,7 +4797,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -4759,7 +4811,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -4787,7 +4839,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -4801,7 +4853,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -4829,7 +4881,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -4843,7 +4895,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>189</v>
       </c>
@@ -4857,7 +4909,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>190</v>
       </c>
@@ -4871,7 +4923,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -4885,7 +4937,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>191</v>
       </c>
@@ -4899,7 +4951,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>192</v>
       </c>
@@ -4913,7 +4965,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>193</v>
       </c>
@@ -4927,7 +4979,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>194</v>
       </c>
@@ -4941,7 +4993,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>43</v>
       </c>
@@ -4955,7 +5007,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>195</v>
       </c>
@@ -4969,7 +5021,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>196</v>
       </c>
@@ -4983,7 +5035,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>197</v>
       </c>
@@ -4997,7 +5049,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>198</v>
       </c>
@@ -5011,7 +5063,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>199</v>
       </c>
@@ -5025,7 +5077,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -5039,7 +5091,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>201</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>202</v>
       </c>
@@ -5067,7 +5119,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>203</v>
       </c>
@@ -5081,7 +5133,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>204</v>
       </c>
@@ -5095,7 +5147,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>205</v>
       </c>
@@ -5109,7 +5161,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -5123,7 +5175,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>206</v>
       </c>
@@ -5137,7 +5189,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>207</v>
       </c>
@@ -5151,7 +5203,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>208</v>
       </c>
@@ -5165,7 +5217,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -5179,7 +5231,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -5193,7 +5245,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -5207,7 +5259,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -5221,7 +5273,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>213</v>
       </c>
@@ -5235,7 +5287,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>214</v>
       </c>
@@ -5249,7 +5301,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>215</v>
       </c>
@@ -5263,7 +5315,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -5277,7 +5329,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>217</v>
       </c>
@@ -5291,7 +5343,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>218</v>
       </c>
@@ -5305,7 +5357,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>219</v>
       </c>
@@ -5319,7 +5371,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>220</v>
       </c>
@@ -5333,7 +5385,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>221</v>
       </c>
@@ -5347,7 +5399,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>222</v>
       </c>
@@ -5361,7 +5413,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>223</v>
       </c>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39387620-0556-49B3-98D7-B4E53B992682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC24223-DB9A-4D9F-8C44-79E8AC1DE45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="5460" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="15480" windowWidth="13170" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="J231" sqref="J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC24223-DB9A-4D9F-8C44-79E8AC1DE45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="15480" windowWidth="13170" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1635,8 +1629,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,14 +1693,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1753,7 +1739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1785,27 +1771,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,24 +1805,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2030,16 +1980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="J231" sqref="J231"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2015,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2029,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2043,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2057,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2071,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2137,7 +2085,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2151,7 +2099,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2113,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2179,7 +2127,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2141,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2207,7 +2155,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2221,7 +2169,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2183,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2249,7 +2197,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2211,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2225,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2239,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +2253,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2319,7 +2267,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2281,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +2295,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +2309,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2375,7 +2323,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2389,7 +2337,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2403,7 +2351,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2417,7 +2365,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2431,7 +2379,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2445,7 +2393,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2407,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2421,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2487,7 +2435,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2501,7 +2449,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2515,7 +2463,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2529,7 +2477,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2543,7 +2491,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2557,7 +2505,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2571,7 +2519,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2585,7 +2533,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2599,7 +2547,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2561,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2627,7 +2575,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2641,7 +2589,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2655,7 +2603,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2669,7 +2617,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +2631,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2645,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2711,7 +2659,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2725,7 +2673,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2739,7 +2687,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2753,7 +2701,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2767,7 +2715,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2781,7 +2729,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2795,7 +2743,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2757,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2823,7 +2771,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2837,7 +2785,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2799,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2865,7 +2813,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2879,7 +2827,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2893,7 +2841,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2907,7 +2855,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2921,7 +2869,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2935,7 +2883,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2949,7 +2897,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2963,7 +2911,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2977,7 +2925,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2991,7 +2939,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +2953,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -3019,7 +2967,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3033,7 +2981,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3047,7 +2995,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3061,7 +3009,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3075,7 +3023,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3089,7 +3037,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3103,7 +3051,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3117,7 +3065,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3131,7 +3079,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3145,7 +3093,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3159,7 +3107,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3173,7 +3121,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3187,7 +3135,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3201,7 +3149,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3215,7 +3163,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3229,7 +3177,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -3243,7 +3191,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3257,7 +3205,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -3271,7 +3219,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -3285,7 +3233,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -3299,7 +3247,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3313,7 +3261,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3327,7 +3275,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -3341,7 +3289,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -3355,7 +3303,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3369,7 +3317,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3383,7 +3331,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3397,7 +3345,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3411,7 +3359,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3425,7 +3373,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3439,7 +3387,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3453,7 +3401,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3467,7 +3415,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -3481,7 +3429,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -3495,7 +3443,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -3509,7 +3457,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -3523,7 +3471,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3537,7 +3485,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -3551,7 +3499,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -3565,7 +3513,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -3579,7 +3527,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +3541,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -3607,7 +3555,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>105</v>
       </c>
@@ -3621,7 +3569,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3583,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -3649,7 +3597,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -3663,7 +3611,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -3677,7 +3625,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -3691,7 +3639,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -3705,7 +3653,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>111</v>
       </c>
@@ -3719,7 +3667,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3733,7 +3681,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3747,7 +3695,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3761,7 +3709,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3775,7 +3723,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -3789,7 +3737,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3803,7 +3751,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3817,7 +3765,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3831,7 +3779,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -3845,7 +3793,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -3859,7 +3807,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3873,7 +3821,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -3887,7 +3835,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -3901,7 +3849,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>124</v>
       </c>
@@ -3915,7 +3863,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>125</v>
       </c>
@@ -3929,7 +3877,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -3943,7 +3891,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -3957,7 +3905,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -3971,7 +3919,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -3985,7 +3933,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -3999,7 +3947,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>131</v>
       </c>
@@ -4013,7 +3961,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -4027,7 +3975,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -4041,7 +3989,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -4055,7 +4003,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>134</v>
       </c>
@@ -4069,7 +4017,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>135</v>
       </c>
@@ -4083,7 +4031,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -4097,7 +4045,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -4111,7 +4059,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -4125,7 +4073,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -4139,7 +4087,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -4153,7 +4101,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -4167,7 +4115,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -4181,7 +4129,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>142</v>
       </c>
@@ -4195,7 +4143,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>143</v>
       </c>
@@ -4209,7 +4157,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -4223,7 +4171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -4237,7 +4185,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -4251,7 +4199,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -4265,7 +4213,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -4279,7 +4227,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -4293,7 +4241,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -4307,7 +4255,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -4321,7 +4269,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>150</v>
       </c>
@@ -4335,7 +4283,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -4349,7 +4297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -4363,7 +4311,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -4377,7 +4325,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>154</v>
       </c>
@@ -4391,7 +4339,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>155</v>
       </c>
@@ -4405,7 +4353,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>156</v>
       </c>
@@ -4419,7 +4367,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -4433,7 +4381,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>158</v>
       </c>
@@ -4447,7 +4395,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>159</v>
       </c>
@@ -4461,7 +4409,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>160</v>
       </c>
@@ -4475,7 +4423,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -4489,7 +4437,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>162</v>
       </c>
@@ -4503,7 +4451,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -4517,7 +4465,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>164</v>
       </c>
@@ -4531,7 +4479,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -4545,7 +4493,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -4559,7 +4507,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4573,7 +4521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -4587,7 +4535,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -4601,7 +4549,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -4615,7 +4563,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -4629,7 +4577,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -4643,7 +4591,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -4657,7 +4605,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -4671,7 +4619,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>174</v>
       </c>
@@ -4685,7 +4633,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -4699,7 +4647,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>175</v>
       </c>
@@ -4713,7 +4661,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>176</v>
       </c>
@@ -4727,7 +4675,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -4741,7 +4689,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>178</v>
       </c>
@@ -4755,7 +4703,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -4769,7 +4717,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -4783,7 +4731,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -4797,7 +4745,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -4811,7 +4759,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -4825,7 +4773,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -4839,7 +4787,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -4853,7 +4801,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -4867,7 +4815,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -4881,7 +4829,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>188</v>
       </c>
@@ -4895,7 +4843,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>189</v>
       </c>
@@ -4909,7 +4857,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>190</v>
       </c>
@@ -4923,7 +4871,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -4937,7 +4885,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>191</v>
       </c>
@@ -4951,7 +4899,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>192</v>
       </c>
@@ -4965,7 +4913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>193</v>
       </c>
@@ -4979,7 +4927,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>194</v>
       </c>
@@ -4993,7 +4941,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>43</v>
       </c>
@@ -5007,7 +4955,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>195</v>
       </c>
@@ -5021,7 +4969,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>196</v>
       </c>
@@ -5035,7 +4983,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>197</v>
       </c>
@@ -5049,7 +4997,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>198</v>
       </c>
@@ -5063,7 +5011,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>199</v>
       </c>
@@ -5077,7 +5025,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -5091,7 +5039,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>201</v>
       </c>
@@ -5105,7 +5053,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>202</v>
       </c>
@@ -5119,7 +5067,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>203</v>
       </c>
@@ -5133,7 +5081,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>204</v>
       </c>
@@ -5147,7 +5095,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>205</v>
       </c>
@@ -5161,7 +5109,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -5175,7 +5123,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>206</v>
       </c>
@@ -5189,7 +5137,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>207</v>
       </c>
@@ -5203,7 +5151,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>208</v>
       </c>
@@ -5217,7 +5165,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -5231,7 +5179,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -5245,7 +5193,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -5259,7 +5207,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -5273,7 +5221,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>213</v>
       </c>
@@ -5287,7 +5235,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>214</v>
       </c>
@@ -5301,7 +5249,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>215</v>
       </c>
@@ -5315,7 +5263,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -5329,7 +5277,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>217</v>
       </c>
@@ -5343,7 +5291,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>218</v>
       </c>
@@ -5357,7 +5305,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>219</v>
       </c>
@@ -5371,7 +5319,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>220</v>
       </c>
@@ -5385,7 +5333,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>221</v>
       </c>
@@ -5399,7 +5347,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>222</v>
       </c>
@@ -5413,7 +5361,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>223</v>
       </c>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="572">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -688,6 +688,51 @@
     <t>내 조카는 장난꾸러기 소년이다.</t>
   </si>
   <si>
+    <t>그들은 매트를 제외하고는 모두 왔다.</t>
+  </si>
+  <si>
+    <t>그 제재는 의약품과 식품을 제외하고는 어떤 물품의 판매도 금한다.</t>
+  </si>
+  <si>
+    <t>지시 사항은 전화로 그에게 전달되었다.</t>
+  </si>
+  <si>
+    <t>변경 사항은 뒷면에 상세히 설명되어 있다.</t>
+  </si>
+  <si>
+    <t>그가 내게 그 일의 핵심 사항들을 가르쳐 주었다.</t>
+  </si>
+  <si>
+    <t>목록에서 한 항목을 제외하다[생략하다].</t>
+  </si>
+  <si>
+    <t>회의일정에서 그 사항을 제외하다.</t>
+  </si>
+  <si>
+    <t>그 계획에서 제외하다.</t>
+  </si>
+  <si>
+    <t>청구 내역/납부액: 이 항목에는 지난달 납부액, 이번 달 납부액, 납기일, 그리고 지난번 청구액에 대한 체납액과 연체료가 나와 있습니다.</t>
+  </si>
+  <si>
+    <t>이자 부과금/납부액</t>
+  </si>
+  <si>
+    <t>그런 상품들은 통화의 가치가 하락하면 도움이 된다.</t>
+  </si>
+  <si>
+    <t>With US interest rates so low, the dollar’s value may slide.</t>
+  </si>
+  <si>
+    <t>einky</t>
+  </si>
+  <si>
+    <t>그들은 정부의 힘을 점차 약하게 만들었다.</t>
+  </si>
+  <si>
+    <t>그 도로는 점차 작아지다가 작은 흙길이 되었다.</t>
+  </si>
+  <si>
     <t>to make/cost a mint</t>
   </si>
   <si>
@@ -1184,9 +1229,6 @@
   </si>
   <si>
     <t>The two industries run hand in glove.</t>
-  </si>
-  <si>
-    <t>einky</t>
   </si>
   <si>
     <t>우리는 유대가 매우 긴밀한 산업체이다.</t>
@@ -1353,6 +1395,51 @@
     <t>My nephew is a naughty boy.</t>
   </si>
   <si>
+    <t>They all came except Matt.</t>
+  </si>
+  <si>
+    <t>The sanctions ban the sale of any products excepting medical supplies and food.</t>
+  </si>
+  <si>
+    <t>Instructions were relayed to him by phone.</t>
+  </si>
+  <si>
+    <t>The changes are explained in detail overleaf.</t>
+  </si>
+  <si>
+    <t>He taught me the fundamentals of the job.</t>
+  </si>
+  <si>
+    <t>omit an item from the list</t>
+  </si>
+  <si>
+    <t>excluded the item from the agenda of the conference</t>
+  </si>
+  <si>
+    <t>exclude from the plan</t>
+  </si>
+  <si>
+    <t>Account Summary/Amount Due: This explains the previous amount due, current amount now due, and payment due date, plus any outstanding balance and late payment charges since your last billing.</t>
+  </si>
+  <si>
+    <t>interest charges/payments</t>
+  </si>
+  <si>
+    <t>Those goods are helped if there is depreciation in the currency.</t>
+  </si>
+  <si>
+    <t>무튼</t>
+  </si>
+  <si>
+    <t>미국 금리가 너무 낮은 가운데, 달러 가치가 하락할 수 있다.</t>
+  </si>
+  <si>
+    <t>They chipped away at the power of the government.</t>
+  </si>
+  <si>
+    <t>The road petered out into a dirt track.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -1599,6 +1686,24 @@
     <t>장난꾸러기</t>
   </si>
   <si>
+    <t>제외</t>
+  </si>
+  <si>
+    <t>사항</t>
+  </si>
+  <si>
+    <t>제외하다</t>
+  </si>
+  <si>
+    <t>납부액</t>
+  </si>
+  <si>
+    <t>가치가 하락하다</t>
+  </si>
+  <si>
+    <t>점차</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1624,6 +1729,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2006,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2020,13 +2128,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2034,13 +2142,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2048,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2062,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2076,13 +2184,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2090,13 +2198,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D8" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2104,13 +2212,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2118,13 +2226,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2132,13 +2240,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2146,13 +2254,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2160,13 +2268,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2174,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2188,13 +2296,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2202,13 +2310,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2216,13 +2324,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D17" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2230,13 +2338,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D18" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2244,13 +2352,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D19" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2258,13 +2366,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2272,13 +2380,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="D21" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2286,13 +2394,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="D22" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2300,13 +2408,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2314,13 +2422,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2328,13 +2436,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D25" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2342,13 +2450,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2356,13 +2464,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2370,13 +2478,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2384,13 +2492,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2398,13 +2506,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D30" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2412,13 +2520,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2426,13 +2534,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2440,13 +2548,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2454,13 +2562,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2468,13 +2576,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2482,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="D36" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2496,13 +2604,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="D37" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2510,13 +2618,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="D38" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2524,13 +2632,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2538,13 +2646,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2552,13 +2660,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2566,13 +2674,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2580,13 +2688,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2594,13 +2702,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2608,13 +2716,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2622,13 +2730,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2636,13 +2744,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D47" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2650,13 +2758,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D48" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2664,13 +2772,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D49" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2678,13 +2786,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2692,13 +2800,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D51" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2706,13 +2814,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2720,13 +2828,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D53" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2734,13 +2842,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D54" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2748,13 +2856,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2762,13 +2870,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D56" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2776,13 +2884,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D57" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2790,13 +2898,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D58" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2804,13 +2912,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D59" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2818,13 +2926,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D60" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2832,13 +2940,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D61" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2846,13 +2954,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D62" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2860,13 +2968,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2874,13 +2982,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2888,13 +2996,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D65" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2902,13 +3010,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D66" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2916,13 +3024,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2930,13 +3038,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D68" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2944,13 +3052,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2958,13 +3066,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2972,13 +3080,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C71" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2986,13 +3094,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D72" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3000,13 +3108,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3014,13 +3122,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3028,13 +3136,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3042,13 +3150,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D76" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3056,13 +3164,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D77" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3070,13 +3178,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C78" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D78" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3084,13 +3192,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C79" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D79" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3098,13 +3206,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C80" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D80" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3112,13 +3220,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C81" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D81" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3126,13 +3234,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D82" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3140,13 +3248,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D83" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3154,13 +3262,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3168,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C85" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3182,13 +3290,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3196,13 +3304,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C87" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D87" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3210,13 +3318,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C88" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D88" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3224,13 +3332,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3238,13 +3346,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D90" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3252,13 +3360,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C91" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D91" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3266,13 +3374,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C92" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D92" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3280,13 +3388,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D93" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3294,13 +3402,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D94" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3308,13 +3416,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D95" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3322,13 +3430,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D96" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3336,13 +3444,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3350,13 +3458,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D98" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3364,13 +3472,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C99" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D99" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3378,13 +3486,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3392,13 +3500,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D101" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3406,13 +3514,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C102" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D102" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3420,13 +3528,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D103" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3434,13 +3542,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D104" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3448,13 +3556,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D105" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3462,13 +3570,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D106" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3476,13 +3584,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C107" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="D107" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3490,13 +3598,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C108" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D108" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3504,13 +3612,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D109" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3518,13 +3626,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C110" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D110" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3532,13 +3640,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D111" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3546,13 +3654,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D112" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3560,13 +3668,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D113" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3574,13 +3682,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D114" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3588,13 +3696,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C115" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D115" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3602,13 +3710,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D116" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3616,13 +3724,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D117" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3630,13 +3738,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D118" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3644,13 +3752,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D119" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3658,13 +3766,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D120" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3672,13 +3780,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C121" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D121" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3686,13 +3794,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C122" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="D122" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3700,13 +3808,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3714,13 +3822,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="D124" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3728,13 +3836,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="D125" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3742,13 +3850,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C126" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="D126" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3756,13 +3864,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="D127" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3770,13 +3878,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C128" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="D128" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3784,13 +3892,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C129" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="D129" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3798,13 +3906,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C130" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="D130" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3812,13 +3920,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C131" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="D131" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3826,13 +3934,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C132" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="D132" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3840,13 +3948,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="D133" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3854,13 +3962,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C134" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="D134" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3868,13 +3976,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C135" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="D135" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3882,13 +3990,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="D136" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3896,13 +4004,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="D137" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3910,13 +4018,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C138" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="D138" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3924,13 +4032,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="D139" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3938,13 +4046,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="D140" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3952,13 +4060,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D141" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3966,13 +4074,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C142" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D142" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3980,13 +4088,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C143" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D143" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3994,13 +4102,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C144" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D144" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4008,13 +4116,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C145" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D145" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4022,13 +4130,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D146" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4036,13 +4144,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="D147" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4050,13 +4158,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="D148" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4064,13 +4172,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="D149" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4078,13 +4186,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D150" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4092,13 +4200,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D151" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4106,13 +4214,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D152" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4120,13 +4228,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C153" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D153" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4134,13 +4242,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C154" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D154" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4148,13 +4256,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D155" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4162,13 +4270,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D156" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4176,13 +4284,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D157" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4190,13 +4298,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D158" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4204,13 +4312,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C159" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="D159" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4218,13 +4326,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="D160" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4232,13 +4340,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="D161" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4246,13 +4354,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C162" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D162" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4260,13 +4368,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C163" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D163" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4274,13 +4382,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="D164" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4288,13 +4396,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D165" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4302,13 +4410,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C166" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4316,13 +4424,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="D167" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4330,13 +4438,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D168" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4344,13 +4452,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D169" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4358,13 +4466,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C170" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D170" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4372,13 +4480,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C171" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="D171" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4386,13 +4494,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C172" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="D172" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4400,13 +4508,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C173" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="D173" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4414,13 +4522,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D174" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4428,13 +4536,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D175" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4442,13 +4550,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C176" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="D176" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4456,13 +4564,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D177" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4470,13 +4578,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C178" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D178" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4484,13 +4592,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C179" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="D179" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4498,13 +4606,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="D180" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4512,13 +4620,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="D181" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4526,13 +4634,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C182" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="D182" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4540,13 +4648,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C183" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D183" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4554,13 +4662,13 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>390</v>
+        <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D184" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4568,13 +4676,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C185" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="D185" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4582,13 +4690,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C186" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="D186" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4596,13 +4704,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C187" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="D187" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4610,13 +4718,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C188" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="D188" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4624,13 +4732,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D189" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4638,13 +4746,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D190" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4652,13 +4760,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C191" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D191" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4666,13 +4774,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C192" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D192" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4680,13 +4788,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C193" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D193" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4694,13 +4802,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C194" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="D194" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4708,13 +4816,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C195" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D195" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4722,13 +4830,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C196" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D196" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4736,13 +4844,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C197" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D197" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4750,13 +4858,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C198" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="D198" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4764,13 +4872,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C199" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="D199" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4778,13 +4886,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C200" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="D200" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4792,13 +4900,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C201" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D201" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4806,13 +4914,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C202" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D202" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4820,13 +4928,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C203" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="D203" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4834,13 +4942,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C204" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="D204" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4848,13 +4956,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C205" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="D205" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4862,13 +4970,13 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C206" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="D206" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4876,13 +4984,13 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C207" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D207" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4890,13 +4998,13 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C208" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D208" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4904,13 +5012,13 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C209" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D209" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4918,13 +5026,13 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C210" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="D210" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4932,13 +5040,13 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C211" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="D211" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4946,13 +5054,13 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C212" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="D212" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4960,13 +5068,13 @@
         <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C213" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D213" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4974,13 +5082,13 @@
         <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C214" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D214" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4988,13 +5096,13 @@
         <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C215" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D215" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5002,13 +5110,13 @@
         <v>198</v>
       </c>
       <c r="B216" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C216" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D216" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5016,13 +5124,13 @@
         <v>199</v>
       </c>
       <c r="B217" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C217" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D217" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5030,13 +5138,13 @@
         <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C218" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D218" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5044,13 +5152,13 @@
         <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C219" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D219" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5058,13 +5166,13 @@
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C220" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D220" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5072,13 +5180,13 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="D221" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5086,13 +5194,13 @@
         <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D222" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5100,13 +5208,13 @@
         <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D223" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5114,13 +5222,13 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C224" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="D224" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5128,13 +5236,13 @@
         <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C225" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D225" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5142,13 +5250,13 @@
         <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C226" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D226" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5156,13 +5264,13 @@
         <v>208</v>
       </c>
       <c r="B227" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C227" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D227" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5170,13 +5278,13 @@
         <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C228" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="D228" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5184,13 +5292,13 @@
         <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C229" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="D229" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5198,13 +5306,13 @@
         <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C230" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="D230" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5212,13 +5320,13 @@
         <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C231" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="D231" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5226,13 +5334,13 @@
         <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C232" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="D232" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5240,13 +5348,13 @@
         <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C233" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="D233" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5254,13 +5362,13 @@
         <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C234" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D234" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5268,13 +5376,13 @@
         <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="C235" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D235" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5282,13 +5390,13 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C236" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="D236" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5296,13 +5404,13 @@
         <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C237" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="D237" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5310,13 +5418,13 @@
         <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C238" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="D238" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5324,13 +5432,13 @@
         <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C239" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="D239" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5338,13 +5446,13 @@
         <v>221</v>
       </c>
       <c r="B240" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C240" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="D240" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5352,13 +5460,13 @@
         <v>222</v>
       </c>
       <c r="B241" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C241" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="D241" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5366,13 +5474,265 @@
         <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C242" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="D242" t="s">
-        <v>535</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>48</v>
+      </c>
+      <c r="B243" t="s">
+        <v>283</v>
+      </c>
+      <c r="C243" t="s">
+        <v>556</v>
+      </c>
+      <c r="D243" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>224</v>
+      </c>
+      <c r="B244" t="s">
+        <v>459</v>
+      </c>
+      <c r="C244" t="s">
+        <v>556</v>
+      </c>
+      <c r="D244" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245" t="s">
+        <v>460</v>
+      </c>
+      <c r="C245" t="s">
+        <v>556</v>
+      </c>
+      <c r="D245" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>226</v>
+      </c>
+      <c r="B246" t="s">
+        <v>461</v>
+      </c>
+      <c r="C246" t="s">
+        <v>557</v>
+      </c>
+      <c r="D246" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>227</v>
+      </c>
+      <c r="B247" t="s">
+        <v>462</v>
+      </c>
+      <c r="C247" t="s">
+        <v>557</v>
+      </c>
+      <c r="D247" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>228</v>
+      </c>
+      <c r="B248" t="s">
+        <v>463</v>
+      </c>
+      <c r="C248" t="s">
+        <v>557</v>
+      </c>
+      <c r="D248" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>229</v>
+      </c>
+      <c r="B249" t="s">
+        <v>464</v>
+      </c>
+      <c r="C249" t="s">
+        <v>558</v>
+      </c>
+      <c r="D249" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>230</v>
+      </c>
+      <c r="B250" t="s">
+        <v>465</v>
+      </c>
+      <c r="C250" t="s">
+        <v>558</v>
+      </c>
+      <c r="D250" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>231</v>
+      </c>
+      <c r="B251" t="s">
+        <v>466</v>
+      </c>
+      <c r="C251" t="s">
+        <v>558</v>
+      </c>
+      <c r="D251" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>50</v>
+      </c>
+      <c r="B252" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" t="s">
+        <v>559</v>
+      </c>
+      <c r="D252" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>232</v>
+      </c>
+      <c r="B253" t="s">
+        <v>467</v>
+      </c>
+      <c r="C253" t="s">
+        <v>559</v>
+      </c>
+      <c r="D253" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>233</v>
+      </c>
+      <c r="B254" t="s">
+        <v>468</v>
+      </c>
+      <c r="C254" t="s">
+        <v>559</v>
+      </c>
+      <c r="D254" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>234</v>
+      </c>
+      <c r="B255" t="s">
+        <v>469</v>
+      </c>
+      <c r="C255" t="s">
+        <v>560</v>
+      </c>
+      <c r="D255" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>235</v>
+      </c>
+      <c r="B256" t="s">
+        <v>470</v>
+      </c>
+      <c r="C256" t="s">
+        <v>560</v>
+      </c>
+      <c r="D256" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>236</v>
+      </c>
+      <c r="B257" t="s">
+        <v>471</v>
+      </c>
+      <c r="C257" t="s">
+        <v>560</v>
+      </c>
+      <c r="D257" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>237</v>
+      </c>
+      <c r="B258" t="s">
+        <v>472</v>
+      </c>
+      <c r="C258" t="s">
+        <v>561</v>
+      </c>
+      <c r="D258" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B259" t="s">
+        <v>285</v>
+      </c>
+      <c r="C259" t="s">
+        <v>561</v>
+      </c>
+      <c r="D259" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>238</v>
+      </c>
+      <c r="B260" t="s">
+        <v>473</v>
+      </c>
+      <c r="C260" t="s">
+        <v>561</v>
+      </c>
+      <c r="D260" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="674">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -731,6 +731,132 @@
   </si>
   <si>
     <t>그 도로는 점차 작아지다가 작은 흙길이 되었다.</t>
+  </si>
+  <si>
+    <t>국가를 분할하다</t>
+  </si>
+  <si>
+    <t>땅을 작은 밭들로 분할하다.</t>
+  </si>
+  <si>
+    <t>분할한 이후에도 평화는 없었다</t>
+  </si>
+  <si>
+    <t>융자금/담보 대출금을 상환하다</t>
+  </si>
+  <si>
+    <t>빚/융자금/담보 대출금을 갚다[상환하다]</t>
+  </si>
+  <si>
+    <t>담보 대출금을 상환하다</t>
+  </si>
+  <si>
+    <t>그 가수는 엄청난 액수의 돈을 번다.</t>
+  </si>
+  <si>
+    <t>그는 그들이 소비한 액수에 깜짝 놀랐다.</t>
+  </si>
+  <si>
+    <t>말 값을 천 달러로 매기다.</t>
+  </si>
+  <si>
+    <t>비축되어 있는 상품[땅]의 값을 매기다.</t>
+  </si>
+  <si>
+    <t>물건에 비싼 값을 매기다.</t>
+  </si>
+  <si>
+    <t>허공을 잡으려고 하다,  허공에 대고 손을 허우적거리다.</t>
+  </si>
+  <si>
+    <t>진창 속에서 허우적거리다.</t>
+  </si>
+  <si>
+    <t>발[손]을 허우적거리다.</t>
+  </si>
+  <si>
+    <t>그녀의 비행 공포증이 거의 강박 상태 수준이다.</t>
+  </si>
+  <si>
+    <t>그는 비행 공포증이 있다.</t>
+  </si>
+  <si>
+    <t>밀실 공포증을 느끼게 하는 그 방의 분위기</t>
+  </si>
+  <si>
+    <t>상어가 원을 그리며 고기 떼 주위를 돌았다.</t>
+  </si>
+  <si>
+    <t>초육식동물에는 북극곰과 상어가 있다.</t>
+  </si>
+  <si>
+    <t>나는 상어를 보려고 철창 상자 다이빙을 했다.</t>
+  </si>
+  <si>
+    <t>바다 깊은 곳에서 먹이를 먹고 사는 고래들</t>
+  </si>
+  <si>
+    <t>고래 한 마리가 꼬리로 물을 마구 요동치게 했다.</t>
+  </si>
+  <si>
+    <t>그 고래는 작살을 맞자 물 속으로 더 깊이 들어갔다.</t>
+  </si>
+  <si>
+    <t>사냥꾼들이 덤불들 사이로 길을 내었다.</t>
+  </si>
+  <si>
+    <t>도둑을 뒤쫓다.</t>
+  </si>
+  <si>
+    <t>그림자[환영]를 뒤쫓다.</t>
+  </si>
+  <si>
+    <t>용의자를 뒤쫓다.</t>
+  </si>
+  <si>
+    <t>사자는 사냥감을 흔히 몇 시간씩 살금살금 따라다닌다.</t>
+  </si>
+  <si>
+    <t>사진 기자들이 거리거리로 자신들의 사냥감을 쫓아다녔다.</t>
+  </si>
+  <si>
+    <t>디바이싱으로 인해 삶에서 기회를 놓치다</t>
+  </si>
+  <si>
+    <t>2분이 늦어 기차[배]를 놓치다.</t>
+  </si>
+  <si>
+    <t>그림자를 잡으려다 실체를 놓치다.</t>
+  </si>
+  <si>
+    <t>모피를 안감으로 댄 가죽 장갑 한 켤레</t>
+  </si>
+  <si>
+    <t>미국 너구리는 예전에 그 모피 때문에 덫으로 잡곤 했다.</t>
+  </si>
+  <si>
+    <t>…에게  매질을 하다/ 매질을 당하다</t>
+  </si>
+  <si>
+    <t>~를 매질하다/매질을 당하다</t>
+  </si>
+  <si>
+    <t>손상/부상을 입다/패배를 당하다</t>
+  </si>
+  <si>
+    <t>싸움 중인 두 상대 사이에 개입하다.</t>
+  </si>
+  <si>
+    <t>싸우고 있는 두 사람 사이에 개입하다.</t>
+  </si>
+  <si>
+    <t>분쟁에 개입하다.</t>
+  </si>
+  <si>
+    <t>이 책은 그 개척자들의 용맹에 바치는 딱 맞는 찬사이다.</t>
+  </si>
+  <si>
+    <t>그 회사는 컴퓨터 기술 분야의 개척자이다.</t>
   </si>
   <si>
     <t>to make/cost a mint</t>
@@ -1440,6 +1566,132 @@
     <t>The road petered out into a dirt track.</t>
   </si>
   <si>
+    <t>to partition a country</t>
+  </si>
+  <si>
+    <t>separate land into small fields</t>
+  </si>
+  <si>
+    <t>Even after partition, there is no peace.</t>
+  </si>
+  <si>
+    <t>to redeem a loan/mortgage</t>
+  </si>
+  <si>
+    <t>to repay a debt/loan/mortgage</t>
+  </si>
+  <si>
+    <t>to pay off a bond</t>
+  </si>
+  <si>
+    <t>The singer earns a colossal amount of money.</t>
+  </si>
+  <si>
+    <t>He was stupefied by the amount they had spent.</t>
+  </si>
+  <si>
+    <t>set the value of the horse at $1,000</t>
+  </si>
+  <si>
+    <t>appraise a stock of goods[the land]</t>
+  </si>
+  <si>
+    <t>price the goods high</t>
+  </si>
+  <si>
+    <t>grasp at the air</t>
+  </si>
+  <si>
+    <t>flounder in mud</t>
+  </si>
+  <si>
+    <t>paw the air</t>
+  </si>
+  <si>
+    <t>Her fear of flying is bordering on obsession.</t>
+  </si>
+  <si>
+    <t>He has a phobia about flying.</t>
+  </si>
+  <si>
+    <t>the claustrophobic atmosphere of the room</t>
+  </si>
+  <si>
+    <t>The shark described a circle around the shoal of fish.</t>
+  </si>
+  <si>
+    <t>Hypercarnivores include polar bears, and sharks.</t>
+  </si>
+  <si>
+    <t>I tried a cage diving to see sharks.</t>
+  </si>
+  <si>
+    <t>whales that feed deep beneath the waves</t>
+  </si>
+  <si>
+    <t>A whale was thrashing the water with its tail.</t>
+  </si>
+  <si>
+    <t>The whale dived as the harpoon struck it.</t>
+  </si>
+  <si>
+    <t>The hunters beat a path through the undergrowth.</t>
+  </si>
+  <si>
+    <t>chase after the burglar</t>
+  </si>
+  <si>
+    <t>run after a shadow</t>
+  </si>
+  <si>
+    <t>chase the suspect</t>
+  </si>
+  <si>
+    <t>The lion will often stalk its prey for hours.</t>
+  </si>
+  <si>
+    <t>The photographers pursued their quarry through the streets.</t>
+  </si>
+  <si>
+    <t>to miss out on life because of devicing</t>
+  </si>
+  <si>
+    <t>miss a train [boat] by two minutes</t>
+  </si>
+  <si>
+    <t>grasp at the shadow and lose the substance</t>
+  </si>
+  <si>
+    <t>a pair of leather gloves with fur linings</t>
+  </si>
+  <si>
+    <t>Raccoons used to be trapped for their fur.</t>
+  </si>
+  <si>
+    <t>to give sb/get a  hiding</t>
+  </si>
+  <si>
+    <t>to give sb/get a thrashing</t>
+  </si>
+  <si>
+    <t>to sustain damage/an injury/a defeat</t>
+  </si>
+  <si>
+    <t>interpose between the opponents in a quarrel</t>
+  </si>
+  <si>
+    <t>intervene between two persons who are quarreling</t>
+  </si>
+  <si>
+    <t>intervene in a dispute</t>
+  </si>
+  <si>
+    <t>This book is a fitting tribute to the bravery of the pioneers.</t>
+  </si>
+  <si>
+    <t>The company is a pathfinder in computer technology.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -1704,6 +1956,57 @@
     <t>점차</t>
   </si>
   <si>
+    <t>분할하다</t>
+  </si>
+  <si>
+    <t>상환하다</t>
+  </si>
+  <si>
+    <t>액수</t>
+  </si>
+  <si>
+    <t>매기다</t>
+  </si>
+  <si>
+    <t>허우적거리다</t>
+  </si>
+  <si>
+    <t>공포증</t>
+  </si>
+  <si>
+    <t>상어</t>
+  </si>
+  <si>
+    <t>고래</t>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+  </si>
+  <si>
+    <t>뒤쫓다</t>
+  </si>
+  <si>
+    <t>사냥감</t>
+  </si>
+  <si>
+    <t>놓치다</t>
+  </si>
+  <si>
+    <t>모피</t>
+  </si>
+  <si>
+    <t>당하다</t>
+  </si>
+  <si>
+    <t>개입하다</t>
+  </si>
+  <si>
+    <t>현미 수술</t>
+  </si>
+  <si>
+    <t>개척자</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1732,6 +2035,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2114,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2128,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2142,13 +2448,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2156,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2170,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2184,13 +2490,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2198,13 +2504,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2212,13 +2518,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="D9" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2226,13 +2532,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="D10" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2240,13 +2546,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2254,13 +2560,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="D12" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2268,13 +2574,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="D13" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2282,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="D14" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2296,13 +2602,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="D15" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2310,13 +2616,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="D16" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2324,13 +2630,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="D17" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2338,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="D18" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2352,13 +2658,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="D19" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2366,13 +2672,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="D20" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2380,13 +2686,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="D21" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2394,13 +2700,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="D22" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2408,13 +2714,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="D23" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2422,13 +2728,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="D24" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2436,13 +2742,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C25" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="D25" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2450,13 +2756,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="D26" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2464,13 +2770,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="D27" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2478,13 +2784,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2492,13 +2798,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="D29" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2506,13 +2812,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="D30" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2520,13 +2826,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="D31" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2534,13 +2840,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="D32" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2548,13 +2854,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C33" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="D33" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2562,13 +2868,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="C34" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="D34" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2576,13 +2882,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="D35" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2590,13 +2896,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="D36" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2604,13 +2910,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="D37" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2618,13 +2924,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="C38" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="D38" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2632,13 +2938,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="D39" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2646,13 +2952,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="D40" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2660,13 +2966,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="D41" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2674,13 +2980,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C42" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2688,13 +2994,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="C43" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="D43" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2702,13 +3008,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="C44" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="D44" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2716,13 +3022,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2730,13 +3036,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2744,13 +3050,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2758,13 +3064,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C48" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2772,13 +3078,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2786,13 +3092,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D50" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2800,13 +3106,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C51" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2814,13 +3120,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C52" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="D52" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2828,13 +3134,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="D53" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2842,13 +3148,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C54" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="D54" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2856,13 +3162,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C55" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2870,13 +3176,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C56" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="D56" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2884,13 +3190,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2898,13 +3204,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="D58" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2912,13 +3218,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="D59" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2926,13 +3232,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="D60" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2940,13 +3246,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2954,13 +3260,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C62" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="D62" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2968,13 +3274,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C63" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2982,13 +3288,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2996,13 +3302,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="D65" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3010,13 +3316,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="D66" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3024,13 +3330,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C67" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="D67" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3038,13 +3344,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C68" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="D68" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3052,13 +3358,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="D69" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3066,13 +3372,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3080,13 +3386,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="C71" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="D71" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3094,13 +3400,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="C72" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D72" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3108,13 +3414,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="C73" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D73" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3122,13 +3428,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D74" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3136,13 +3442,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="D75" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3150,13 +3456,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C76" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="D76" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3164,13 +3470,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C77" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="D77" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3178,13 +3484,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C78" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="D78" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3192,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="D79" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3206,13 +3512,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C80" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="D80" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3220,13 +3526,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="D81" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3234,13 +3540,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="C82" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="D82" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3248,13 +3554,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="D83" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3262,13 +3568,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="D84" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3276,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="D85" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3290,13 +3596,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="D86" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3304,13 +3610,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="D87" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3318,13 +3624,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="D88" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3332,13 +3638,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="D89" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3346,13 +3652,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D90" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3360,13 +3666,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D91" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3374,13 +3680,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D92" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3388,13 +3694,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3402,13 +3708,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="C94" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="D94" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3416,13 +3722,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="C95" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3430,13 +3736,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C96" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="D96" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3444,13 +3750,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C97" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="D97" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3458,13 +3764,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C98" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="D98" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3472,13 +3778,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="D99" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3486,13 +3792,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="D100" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3500,13 +3806,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C101" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="D101" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3514,13 +3820,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="C102" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="D102" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3528,13 +3834,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="D103" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3542,13 +3848,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="D104" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3556,13 +3862,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="C105" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3570,13 +3876,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="D106" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3584,13 +3890,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="D107" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3598,13 +3904,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="D108" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3612,13 +3918,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="C109" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="D109" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3626,13 +3932,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="D110" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3640,13 +3946,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="D111" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3654,13 +3960,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="D112" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3668,13 +3974,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C113" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="D113" t="s">
-        <v>566</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3682,13 +3988,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="D114" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3696,13 +4002,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="D115" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3710,13 +4016,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="D116" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3724,13 +4030,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="D117" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3738,13 +4044,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C118" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="D118" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3752,13 +4058,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="D119" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3766,13 +4072,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="D120" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3780,13 +4086,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="D121" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3794,13 +4100,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="D122" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3808,13 +4114,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C123" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="D123" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3822,13 +4128,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C124" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="D124" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3836,13 +4142,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C125" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="D125" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3850,13 +4156,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="C126" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="D126" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3864,13 +4170,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="C127" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="D127" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3878,13 +4184,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C128" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="D128" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3892,13 +4198,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C129" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="D129" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3906,13 +4212,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="C130" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="D130" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3920,13 +4226,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C131" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="D131" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3934,13 +4240,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C132" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="D132" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3948,13 +4254,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="C133" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="D133" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3962,13 +4268,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="C134" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="D134" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3976,13 +4282,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="C135" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="D135" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3990,13 +4296,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C136" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="D136" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4004,13 +4310,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="C137" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="D137" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4018,13 +4324,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="D138" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4032,13 +4338,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="C139" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="D139" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4046,13 +4352,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="D140" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4060,13 +4366,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="C141" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="D141" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4074,13 +4380,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C142" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="D142" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4088,13 +4394,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="C143" t="s">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="D143" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4102,13 +4408,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="C144" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="D144" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4116,13 +4422,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C145" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="D145" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4130,13 +4436,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="D146" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4144,13 +4450,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="C147" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="D147" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4158,13 +4464,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="C148" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="D148" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4172,13 +4478,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C149" t="s">
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="D149" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4186,13 +4492,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="D150" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4200,13 +4506,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C151" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="D151" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4214,13 +4520,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="C152" t="s">
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="D152" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4228,13 +4534,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C153" t="s">
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="D153" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4242,13 +4548,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="C154" t="s">
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="D154" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4256,13 +4562,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="C155" t="s">
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="D155" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4270,13 +4576,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="C156" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="D156" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4284,13 +4590,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="D157" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4298,13 +4604,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="C158" t="s">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="D158" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4312,13 +4618,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C159" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="D159" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4326,13 +4632,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C160" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="D160" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4340,13 +4646,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="D161" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4354,13 +4660,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="C162" t="s">
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="D162" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4368,13 +4674,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="C163" t="s">
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="D163" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4382,13 +4688,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="C164" t="s">
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="D164" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4396,13 +4702,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="C165" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="D165" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4410,13 +4716,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="C166" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="D166" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4424,13 +4730,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="C167" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="D167" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4438,13 +4744,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="C168" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="D168" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4452,13 +4758,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="C169" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="D169" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4466,13 +4772,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C170" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="D170" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4480,13 +4786,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="C171" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="D171" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4494,13 +4800,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="C172" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="D172" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4508,13 +4814,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="C173" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="D173" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4522,13 +4828,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C174" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="D174" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4536,13 +4842,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="C175" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="D175" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4550,13 +4856,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="C176" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="D176" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4564,13 +4870,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="C177" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="D177" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4578,13 +4884,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="C178" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="D178" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4592,13 +4898,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C179" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="D179" t="s">
-        <v>567</v>
+        <v>668</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4606,13 +4912,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="C180" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="D180" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4620,13 +4926,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="C181" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="D181" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4634,13 +4940,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="C182" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="D182" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4648,13 +4954,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="C183" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="D183" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4665,10 +4971,10 @@
         <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="D184" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4676,13 +4982,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="C185" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="D185" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4690,13 +4996,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="D186" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4704,13 +5010,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C187" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="D187" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4718,13 +5024,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="C188" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="D188" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4732,13 +5038,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="D189" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4746,13 +5052,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="C190" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="D190" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4760,13 +5066,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="C191" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="D191" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4774,13 +5080,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="C192" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="D192" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4788,13 +5094,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="C193" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="D193" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4802,13 +5108,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C194" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="D194" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4816,13 +5122,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="C195" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="D195" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4830,13 +5136,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="C196" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="D196" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4844,13 +5150,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="C197" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="D197" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4858,13 +5164,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="C198" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="D198" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4872,13 +5178,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="D199" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4886,13 +5192,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="C200" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="D200" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4900,13 +5206,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C201" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="D201" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4914,13 +5220,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="C202" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="D202" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4928,13 +5234,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="C203" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="D203" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4942,13 +5248,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C204" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="D204" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4956,13 +5262,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="C205" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="D205" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4970,13 +5276,13 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="C206" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="D206" t="s">
-        <v>568</v>
+        <v>669</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4984,13 +5290,13 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C207" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="D207" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4998,13 +5304,13 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C208" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="D208" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5012,13 +5318,13 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="D209" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5026,13 +5332,13 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C210" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="D210" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5040,13 +5346,13 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="C211" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="D211" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5054,13 +5360,13 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C212" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="D212" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5068,13 +5374,13 @@
         <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C213" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="D213" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5082,13 +5388,13 @@
         <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="C214" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="D214" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5096,13 +5402,13 @@
         <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="C215" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="D215" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5110,13 +5416,13 @@
         <v>198</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="C216" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="D216" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5124,13 +5430,13 @@
         <v>199</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C217" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="D217" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5138,13 +5444,13 @@
         <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="C218" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="D218" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5152,13 +5458,13 @@
         <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C219" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="D219" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5166,13 +5472,13 @@
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C220" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="D220" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5180,13 +5486,13 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C221" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="D221" t="s">
-        <v>569</v>
+        <v>670</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5194,13 +5500,13 @@
         <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="C222" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="D222" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5208,13 +5514,13 @@
         <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C223" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="D223" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5222,13 +5528,13 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C224" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="D224" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5236,13 +5542,13 @@
         <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="C225" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="D225" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5250,13 +5556,13 @@
         <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C226" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="D226" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5264,13 +5570,13 @@
         <v>208</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="C227" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="D227" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5278,13 +5584,13 @@
         <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C228" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="D228" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5292,13 +5598,13 @@
         <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C229" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="D229" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5306,13 +5612,13 @@
         <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C230" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="D230" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5320,13 +5626,13 @@
         <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="C231" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="D231" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5334,13 +5640,13 @@
         <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="C232" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="D232" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5348,13 +5654,13 @@
         <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="C233" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="D233" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5362,13 +5668,13 @@
         <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="C234" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="D234" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5376,13 +5682,13 @@
         <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="C235" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="D235" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5390,13 +5696,13 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="C236" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="D236" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5404,13 +5710,13 @@
         <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="C237" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="D237" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5418,13 +5724,13 @@
         <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="C238" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="D238" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5432,13 +5738,13 @@
         <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="C239" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="D239" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5446,13 +5752,13 @@
         <v>221</v>
       </c>
       <c r="B240" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C240" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="D240" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5460,13 +5766,13 @@
         <v>222</v>
       </c>
       <c r="B241" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="C241" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="D241" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5474,13 +5780,13 @@
         <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="C242" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="D242" t="s">
-        <v>570</v>
+        <v>671</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5488,13 +5794,13 @@
         <v>48</v>
       </c>
       <c r="B243" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C243" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="D243" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5502,13 +5808,13 @@
         <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="C244" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="D244" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5516,13 +5822,13 @@
         <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="C245" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="D245" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5530,13 +5836,13 @@
         <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="C246" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="D246" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5544,13 +5850,13 @@
         <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="C247" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="D247" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5558,13 +5864,13 @@
         <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="C248" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="D248" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5572,13 +5878,13 @@
         <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="C249" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="D249" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5586,13 +5892,13 @@
         <v>230</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="C250" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="D250" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5600,13 +5906,13 @@
         <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="C251" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="D251" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5614,13 +5920,13 @@
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C252" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="D252" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5628,13 +5934,13 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="C253" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="D253" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5642,13 +5948,13 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="C254" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="D254" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5656,13 +5962,13 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="C255" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="D255" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5670,13 +5976,13 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="C256" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="D256" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5684,13 +5990,13 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="C257" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="D257" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5698,13 +6004,13 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="C258" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="D258" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5712,13 +6018,13 @@
         <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C259" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="D259" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5726,13 +6032,699 @@
         <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="C260" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="D260" t="s">
-        <v>571</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>239</v>
+      </c>
+      <c r="B261" t="s">
+        <v>516</v>
+      </c>
+      <c r="C261" t="s">
+        <v>646</v>
+      </c>
+      <c r="D261" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>240</v>
+      </c>
+      <c r="B262" t="s">
+        <v>517</v>
+      </c>
+      <c r="C262" t="s">
+        <v>646</v>
+      </c>
+      <c r="D262" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>241</v>
+      </c>
+      <c r="B263" t="s">
+        <v>518</v>
+      </c>
+      <c r="C263" t="s">
+        <v>646</v>
+      </c>
+      <c r="D263" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" t="s">
+        <v>519</v>
+      </c>
+      <c r="C264" t="s">
+        <v>647</v>
+      </c>
+      <c r="D264" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>243</v>
+      </c>
+      <c r="B265" t="s">
+        <v>520</v>
+      </c>
+      <c r="C265" t="s">
+        <v>647</v>
+      </c>
+      <c r="D265" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>244</v>
+      </c>
+      <c r="B266" t="s">
+        <v>521</v>
+      </c>
+      <c r="C266" t="s">
+        <v>647</v>
+      </c>
+      <c r="D266" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>245</v>
+      </c>
+      <c r="B267" t="s">
+        <v>522</v>
+      </c>
+      <c r="C267" t="s">
+        <v>648</v>
+      </c>
+      <c r="D267" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>246</v>
+      </c>
+      <c r="B268" t="s">
+        <v>523</v>
+      </c>
+      <c r="C268" t="s">
+        <v>648</v>
+      </c>
+      <c r="D268" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>54</v>
+      </c>
+      <c r="B269" t="s">
+        <v>331</v>
+      </c>
+      <c r="C269" t="s">
+        <v>648</v>
+      </c>
+      <c r="D269" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>247</v>
+      </c>
+      <c r="B270" t="s">
+        <v>524</v>
+      </c>
+      <c r="C270" t="s">
+        <v>649</v>
+      </c>
+      <c r="D270" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>248</v>
+      </c>
+      <c r="B271" t="s">
+        <v>525</v>
+      </c>
+      <c r="C271" t="s">
+        <v>649</v>
+      </c>
+      <c r="D271" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>249</v>
+      </c>
+      <c r="B272" t="s">
+        <v>526</v>
+      </c>
+      <c r="C272" t="s">
+        <v>649</v>
+      </c>
+      <c r="D272" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>250</v>
+      </c>
+      <c r="B273" t="s">
+        <v>527</v>
+      </c>
+      <c r="C273" t="s">
+        <v>650</v>
+      </c>
+      <c r="D273" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>251</v>
+      </c>
+      <c r="B274" t="s">
+        <v>528</v>
+      </c>
+      <c r="C274" t="s">
+        <v>650</v>
+      </c>
+      <c r="D274" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>252</v>
+      </c>
+      <c r="B275" t="s">
+        <v>529</v>
+      </c>
+      <c r="C275" t="s">
+        <v>650</v>
+      </c>
+      <c r="D275" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>253</v>
+      </c>
+      <c r="B276" t="s">
+        <v>530</v>
+      </c>
+      <c r="C276" t="s">
+        <v>651</v>
+      </c>
+      <c r="D276" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>254</v>
+      </c>
+      <c r="B277" t="s">
+        <v>531</v>
+      </c>
+      <c r="C277" t="s">
+        <v>651</v>
+      </c>
+      <c r="D277" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>255</v>
+      </c>
+      <c r="B278" t="s">
+        <v>532</v>
+      </c>
+      <c r="C278" t="s">
+        <v>651</v>
+      </c>
+      <c r="D278" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>256</v>
+      </c>
+      <c r="B279" t="s">
+        <v>533</v>
+      </c>
+      <c r="C279" t="s">
+        <v>652</v>
+      </c>
+      <c r="D279" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>257</v>
+      </c>
+      <c r="B280" t="s">
+        <v>534</v>
+      </c>
+      <c r="C280" t="s">
+        <v>652</v>
+      </c>
+      <c r="D280" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>258</v>
+      </c>
+      <c r="B281" t="s">
+        <v>535</v>
+      </c>
+      <c r="C281" t="s">
+        <v>652</v>
+      </c>
+      <c r="D281" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>259</v>
+      </c>
+      <c r="B282" t="s">
+        <v>536</v>
+      </c>
+      <c r="C282" t="s">
+        <v>653</v>
+      </c>
+      <c r="D282" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>260</v>
+      </c>
+      <c r="B283" t="s">
+        <v>537</v>
+      </c>
+      <c r="C283" t="s">
+        <v>653</v>
+      </c>
+      <c r="D283" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>261</v>
+      </c>
+      <c r="B284" t="s">
+        <v>538</v>
+      </c>
+      <c r="C284" t="s">
+        <v>653</v>
+      </c>
+      <c r="D284" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>60</v>
+      </c>
+      <c r="B285" t="s">
+        <v>337</v>
+      </c>
+      <c r="C285" t="s">
+        <v>654</v>
+      </c>
+      <c r="D285" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286" t="s">
+        <v>339</v>
+      </c>
+      <c r="C286" t="s">
+        <v>654</v>
+      </c>
+      <c r="D286" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>262</v>
+      </c>
+      <c r="B287" t="s">
+        <v>539</v>
+      </c>
+      <c r="C287" t="s">
+        <v>654</v>
+      </c>
+      <c r="D287" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>263</v>
+      </c>
+      <c r="B288" t="s">
+        <v>540</v>
+      </c>
+      <c r="C288" t="s">
+        <v>655</v>
+      </c>
+      <c r="D288" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>264</v>
+      </c>
+      <c r="B289" t="s">
+        <v>541</v>
+      </c>
+      <c r="C289" t="s">
+        <v>655</v>
+      </c>
+      <c r="D289" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>265</v>
+      </c>
+      <c r="B290" t="s">
+        <v>542</v>
+      </c>
+      <c r="C290" t="s">
+        <v>655</v>
+      </c>
+      <c r="D290" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>60</v>
+      </c>
+      <c r="B291" t="s">
+        <v>337</v>
+      </c>
+      <c r="C291" t="s">
+        <v>656</v>
+      </c>
+      <c r="D291" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>266</v>
+      </c>
+      <c r="B292" t="s">
+        <v>543</v>
+      </c>
+      <c r="C292" t="s">
+        <v>656</v>
+      </c>
+      <c r="D292" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>267</v>
+      </c>
+      <c r="B293" t="s">
+        <v>544</v>
+      </c>
+      <c r="C293" t="s">
+        <v>656</v>
+      </c>
+      <c r="D293" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>268</v>
+      </c>
+      <c r="B294" t="s">
+        <v>545</v>
+      </c>
+      <c r="C294" t="s">
+        <v>657</v>
+      </c>
+      <c r="D294" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>269</v>
+      </c>
+      <c r="B295" t="s">
+        <v>546</v>
+      </c>
+      <c r="C295" t="s">
+        <v>657</v>
+      </c>
+      <c r="D295" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>270</v>
+      </c>
+      <c r="B296" t="s">
+        <v>547</v>
+      </c>
+      <c r="C296" t="s">
+        <v>657</v>
+      </c>
+      <c r="D296" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>61</v>
+      </c>
+      <c r="B297" t="s">
+        <v>338</v>
+      </c>
+      <c r="C297" t="s">
+        <v>658</v>
+      </c>
+      <c r="D297" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>271</v>
+      </c>
+      <c r="B298" t="s">
+        <v>548</v>
+      </c>
+      <c r="C298" t="s">
+        <v>658</v>
+      </c>
+      <c r="D298" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>272</v>
+      </c>
+      <c r="B299" t="s">
+        <v>549</v>
+      </c>
+      <c r="C299" t="s">
+        <v>658</v>
+      </c>
+      <c r="D299" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>273</v>
+      </c>
+      <c r="B300" t="s">
+        <v>550</v>
+      </c>
+      <c r="C300" t="s">
+        <v>659</v>
+      </c>
+      <c r="D300" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>274</v>
+      </c>
+      <c r="B301" t="s">
+        <v>551</v>
+      </c>
+      <c r="C301" t="s">
+        <v>659</v>
+      </c>
+      <c r="D301" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>275</v>
+      </c>
+      <c r="B302" t="s">
+        <v>552</v>
+      </c>
+      <c r="C302" t="s">
+        <v>659</v>
+      </c>
+      <c r="D302" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>276</v>
+      </c>
+      <c r="B303" t="s">
+        <v>553</v>
+      </c>
+      <c r="C303" t="s">
+        <v>660</v>
+      </c>
+      <c r="D303" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>277</v>
+      </c>
+      <c r="B304" t="s">
+        <v>554</v>
+      </c>
+      <c r="C304" t="s">
+        <v>660</v>
+      </c>
+      <c r="D304" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>278</v>
+      </c>
+      <c r="B305" t="s">
+        <v>555</v>
+      </c>
+      <c r="C305" t="s">
+        <v>660</v>
+      </c>
+      <c r="D305" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>204</v>
+      </c>
+      <c r="B306" t="s">
+        <v>481</v>
+      </c>
+      <c r="C306" t="s">
+        <v>661</v>
+      </c>
+      <c r="D306" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>204</v>
+      </c>
+      <c r="B307" t="s">
+        <v>481</v>
+      </c>
+      <c r="C307" t="s">
+        <v>662</v>
+      </c>
+      <c r="D307" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>279</v>
+      </c>
+      <c r="B308" t="s">
+        <v>556</v>
+      </c>
+      <c r="C308" t="s">
+        <v>662</v>
+      </c>
+      <c r="D308" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>280</v>
+      </c>
+      <c r="B309" t="s">
+        <v>557</v>
+      </c>
+      <c r="C309" t="s">
+        <v>662</v>
+      </c>
+      <c r="D309" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="690">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -857,6 +857,24 @@
   </si>
   <si>
     <t>그 회사는 컴퓨터 기술 분야의 개척자이다.</t>
+  </si>
+  <si>
+    <t>농업은 농촌 경제의 근간을 이룬다.</t>
+  </si>
+  <si>
+    <t>농업 및 목축 활동</t>
+  </si>
+  <si>
+    <t>내부적 균형의 하나로 중국이 군비 증강을 꾀하고 있다.</t>
+  </si>
+  <si>
+    <t>그 첫번째는 내부적인 조사라는 것입니다.</t>
+  </si>
+  <si>
+    <t>우리는 그의 방법에 대해 불만 없다.</t>
+  </si>
+  <si>
+    <t>그들이 모든 불만을 나한테 죽 털어놓았다.</t>
   </si>
   <si>
     <t>to make/cost a mint</t>
@@ -1692,6 +1710,24 @@
     <t>The company is a pathfinder in computer technology.</t>
   </si>
   <si>
+    <t>Agriculture forms the backbone of the rural economy.</t>
+  </si>
+  <si>
+    <t>agricultural and pastoral practices</t>
+  </si>
+  <si>
+    <t>China is boosting its military budget as a means of internal balancing.</t>
+  </si>
+  <si>
+    <t>The first is what we call an internal study.</t>
+  </si>
+  <si>
+    <t>We have no quarrel with his methods.</t>
+  </si>
+  <si>
+    <t>They recited all their grievances to me.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -2007,6 +2043,15 @@
     <t>개척자</t>
   </si>
   <si>
+    <t>농업</t>
+  </si>
+  <si>
+    <t>내부적</t>
+  </si>
+  <si>
+    <t>불만</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -2038,6 +2083,9 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2420,13 +2468,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D2" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2434,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2448,13 +2496,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D4" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2462,13 +2510,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2476,13 +2524,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2490,13 +2538,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D7" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2504,13 +2552,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2518,13 +2566,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D9" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2532,13 +2580,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D10" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2546,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2560,13 +2608,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C12" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D12" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2574,13 +2622,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D13" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2588,13 +2636,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D14" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2602,13 +2650,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2616,13 +2664,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2630,13 +2678,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2644,13 +2692,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2658,13 +2706,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2672,13 +2720,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D20" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2686,13 +2734,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D21" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2700,13 +2748,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D22" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2714,13 +2762,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D23" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2728,13 +2776,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D24" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2742,13 +2790,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D25" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2756,13 +2804,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D26" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2770,13 +2818,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2784,13 +2832,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D28" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2798,13 +2846,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2812,13 +2860,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D30" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2826,13 +2874,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C31" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D31" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2840,13 +2888,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D32" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2854,13 +2902,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D33" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2868,13 +2916,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D34" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2882,13 +2930,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D35" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2896,13 +2944,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C36" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D36" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2910,13 +2958,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D37" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2924,13 +2972,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D38" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2938,13 +2986,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C39" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D39" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2952,13 +3000,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D40" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2966,13 +3014,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D41" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2980,13 +3028,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D42" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2994,13 +3042,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C43" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D43" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3008,13 +3056,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C44" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D44" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3022,13 +3070,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3036,13 +3084,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D46" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3050,13 +3098,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C47" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D47" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3064,13 +3112,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D48" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3078,13 +3126,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3092,13 +3140,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3106,13 +3154,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C51" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D51" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3120,13 +3168,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3134,13 +3182,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D53" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3148,13 +3196,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C54" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D54" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3162,13 +3210,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C55" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D55" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3176,13 +3224,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D56" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3190,13 +3238,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D57" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3204,13 +3252,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D58" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3218,13 +3266,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D59" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3232,13 +3280,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D60" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3246,13 +3294,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C61" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D61" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3260,13 +3308,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C62" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3274,13 +3322,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C63" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3288,13 +3336,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D64" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3302,13 +3350,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D65" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3316,13 +3364,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D66" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3330,13 +3378,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D67" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3344,13 +3392,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C68" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D68" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3358,13 +3406,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D69" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3372,13 +3420,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C70" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D70" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3386,13 +3434,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D71" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3400,13 +3448,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C72" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D72" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3414,13 +3462,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D73" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3428,13 +3476,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D74" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3442,13 +3490,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D75" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3456,13 +3504,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D76" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3470,13 +3518,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D77" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3484,13 +3532,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C78" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D78" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3498,13 +3546,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D79" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3512,13 +3560,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C80" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D80" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3526,13 +3574,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C81" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D81" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3540,13 +3588,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D82" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3554,13 +3602,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D83" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3568,13 +3616,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C84" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D84" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3582,13 +3630,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D85" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3596,13 +3644,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C86" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D86" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3610,13 +3658,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D87" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3624,13 +3672,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D88" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3638,13 +3686,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C89" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D89" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3652,13 +3700,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C90" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D90" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3666,13 +3714,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D91" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3680,13 +3728,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D92" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3694,13 +3742,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C93" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D93" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3708,13 +3756,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D94" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3722,13 +3770,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D95" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3736,13 +3784,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C96" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D96" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3750,13 +3798,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C97" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D97" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3764,13 +3812,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D98" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3778,13 +3826,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D99" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3792,13 +3840,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D100" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3806,13 +3854,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C101" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D101" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3820,13 +3868,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D102" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3834,13 +3882,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D103" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3848,13 +3896,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D104" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3862,13 +3910,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D105" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3876,13 +3924,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D106" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3890,13 +3938,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C107" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D107" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3904,13 +3952,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C108" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D108" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3918,13 +3966,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D109" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3932,13 +3980,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D110" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3946,13 +3994,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D111" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3960,13 +4008,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C112" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D112" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3974,13 +4022,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C113" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D113" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3988,13 +4036,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C114" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D114" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4002,13 +4050,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C115" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D115" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4016,13 +4064,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C116" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D116" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4030,13 +4078,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C117" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D117" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4044,13 +4092,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D118" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4058,13 +4106,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D119" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4072,13 +4120,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C120" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D120" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4086,13 +4134,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D121" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4100,13 +4148,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C122" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D122" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4114,13 +4162,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D123" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4128,13 +4176,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C124" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D124" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4142,13 +4190,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C125" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D125" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4156,13 +4204,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C126" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D126" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4170,13 +4218,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C127" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D127" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4184,13 +4232,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C128" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D128" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4198,13 +4246,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C129" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="D129" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4212,13 +4260,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C130" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="D130" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4226,13 +4274,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C131" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="D131" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4240,13 +4288,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D132" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4254,13 +4302,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C133" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D133" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4268,13 +4316,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C134" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D134" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4282,13 +4330,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C135" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D135" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4296,13 +4344,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C136" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D136" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4310,13 +4358,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C137" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D137" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4324,13 +4372,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="D138" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4338,13 +4386,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C139" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="D139" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4352,13 +4400,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C140" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="D140" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4366,13 +4414,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C141" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D141" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4380,13 +4428,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C142" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D142" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4394,13 +4442,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D143" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4408,13 +4456,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D144" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4422,13 +4470,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D145" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4436,13 +4484,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C146" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="D146" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4450,13 +4498,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C147" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D147" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4464,13 +4512,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C148" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D148" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4478,13 +4526,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C149" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D149" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4492,13 +4540,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C150" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D150" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4506,13 +4554,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C151" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D151" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4520,13 +4568,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D152" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4534,13 +4582,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D153" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4548,13 +4596,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D154" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4562,13 +4610,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C155" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D155" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4576,13 +4624,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C156" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="D156" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4590,13 +4638,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C157" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="D157" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4604,13 +4652,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C158" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="D158" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4618,13 +4666,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D159" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4632,13 +4680,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C160" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D160" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4646,13 +4694,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C161" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D161" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4660,13 +4708,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C162" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D162" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4674,13 +4722,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C163" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D163" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4688,13 +4736,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C164" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D164" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4702,13 +4750,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C165" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D165" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4716,13 +4764,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C166" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D166" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4730,13 +4778,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C167" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D167" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4744,13 +4792,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C168" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4758,13 +4806,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C169" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="D169" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4772,13 +4820,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C170" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="D170" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4786,13 +4834,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C171" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D171" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4800,13 +4848,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C172" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D172" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4814,13 +4862,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C173" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D173" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4828,13 +4876,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C174" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D174" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4842,13 +4890,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C175" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D175" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4856,13 +4904,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C176" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D176" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4870,13 +4918,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C177" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D177" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4884,13 +4932,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C178" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D178" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4898,13 +4946,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C179" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D179" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4912,13 +4960,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D180" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4926,13 +4974,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C181" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D181" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4940,13 +4988,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C182" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D182" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4954,13 +5002,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C183" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D183" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4971,10 +5019,10 @@
         <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D184" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4982,13 +5030,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C185" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D185" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4996,13 +5044,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C186" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D186" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5010,13 +5058,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C187" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D187" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5024,13 +5072,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C188" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D188" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5038,13 +5086,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C189" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D189" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5052,13 +5100,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C190" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D190" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5066,13 +5114,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C191" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D191" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5080,13 +5128,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C192" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D192" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5094,13 +5142,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D193" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5108,13 +5156,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C194" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D194" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5122,13 +5170,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C195" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="D195" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5136,13 +5184,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="D196" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5150,13 +5198,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C197" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="D197" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5164,13 +5212,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D198" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5178,13 +5226,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C199" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D199" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5192,13 +5240,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C200" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D200" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5206,13 +5254,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C201" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D201" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5220,13 +5268,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D202" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5234,13 +5282,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C203" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D203" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5248,13 +5296,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C204" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D204" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5262,13 +5310,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C205" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D205" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5276,13 +5324,13 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D206" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5290,13 +5338,13 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C207" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="D207" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5304,13 +5352,13 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C208" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="D208" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5318,13 +5366,13 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C209" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="D209" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5332,13 +5380,13 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C210" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D210" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5346,13 +5394,13 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C211" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D211" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5360,13 +5408,13 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C212" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D212" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5374,13 +5422,13 @@
         <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C213" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D213" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5388,13 +5436,13 @@
         <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C214" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D214" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5402,13 +5450,13 @@
         <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C215" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D215" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5416,13 +5464,13 @@
         <v>198</v>
       </c>
       <c r="B216" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C216" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D216" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5430,13 +5478,13 @@
         <v>199</v>
       </c>
       <c r="B217" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C217" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D217" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5444,13 +5492,13 @@
         <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C218" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D218" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5458,13 +5506,13 @@
         <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C219" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D219" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5472,13 +5520,13 @@
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C220" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D220" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5486,13 +5534,13 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C221" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D221" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5500,13 +5548,13 @@
         <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C222" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D222" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5514,13 +5562,13 @@
         <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C223" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D223" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5528,13 +5576,13 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C224" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D224" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5542,13 +5590,13 @@
         <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C225" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D225" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5556,13 +5604,13 @@
         <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C226" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D226" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5570,13 +5618,13 @@
         <v>208</v>
       </c>
       <c r="B227" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C227" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D227" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5584,13 +5632,13 @@
         <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C228" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D228" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5598,13 +5646,13 @@
         <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C229" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D229" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5612,13 +5660,13 @@
         <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C230" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D230" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5626,13 +5674,13 @@
         <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C231" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="D231" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5640,13 +5688,13 @@
         <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C232" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="D232" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5654,13 +5702,13 @@
         <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C233" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="D233" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5668,13 +5716,13 @@
         <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C234" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D234" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5682,13 +5730,13 @@
         <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C235" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D235" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5696,13 +5744,13 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C236" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D236" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5710,13 +5758,13 @@
         <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C237" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D237" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5724,13 +5772,13 @@
         <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C238" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D238" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5738,13 +5786,13 @@
         <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C239" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D239" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5752,13 +5800,13 @@
         <v>221</v>
       </c>
       <c r="B240" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C240" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="D240" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5766,13 +5814,13 @@
         <v>222</v>
       </c>
       <c r="B241" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C241" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="D241" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5780,13 +5828,13 @@
         <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C242" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="D242" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5794,13 +5842,13 @@
         <v>48</v>
       </c>
       <c r="B243" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C243" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="D243" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5808,13 +5856,13 @@
         <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C244" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="D244" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5822,13 +5870,13 @@
         <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C245" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="D245" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5836,13 +5884,13 @@
         <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C246" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="D246" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5850,13 +5898,13 @@
         <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C247" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="D247" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5864,13 +5912,13 @@
         <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C248" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="D248" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5878,13 +5926,13 @@
         <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C249" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="D249" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5892,13 +5940,13 @@
         <v>230</v>
       </c>
       <c r="B250" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C250" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="D250" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5906,13 +5954,13 @@
         <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C251" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="D251" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5920,13 +5968,13 @@
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C252" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D252" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5934,13 +5982,13 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C253" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D253" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5948,13 +5996,13 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C254" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D254" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5962,13 +6010,13 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C255" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="D255" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5976,13 +6024,13 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C256" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="D256" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5990,13 +6038,13 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C257" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="D257" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6004,13 +6052,13 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C258" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D258" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6018,13 +6066,13 @@
         <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C259" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D259" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6032,13 +6080,13 @@
         <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C260" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D260" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6046,13 +6094,13 @@
         <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C261" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="D261" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6060,13 +6108,13 @@
         <v>240</v>
       </c>
       <c r="B262" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C262" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="D262" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6074,13 +6122,13 @@
         <v>241</v>
       </c>
       <c r="B263" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C263" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="D263" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6088,13 +6136,13 @@
         <v>242</v>
       </c>
       <c r="B264" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="D264" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6102,13 +6150,13 @@
         <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C265" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="D265" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6116,13 +6164,13 @@
         <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C266" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="D266" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6130,13 +6178,13 @@
         <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C267" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D267" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6144,13 +6192,13 @@
         <v>246</v>
       </c>
       <c r="B268" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C268" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D268" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6158,13 +6206,13 @@
         <v>54</v>
       </c>
       <c r="B269" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C269" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D269" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6172,13 +6220,13 @@
         <v>247</v>
       </c>
       <c r="B270" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C270" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D270" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6186,13 +6234,13 @@
         <v>248</v>
       </c>
       <c r="B271" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C271" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D271" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6200,13 +6248,13 @@
         <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C272" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D272" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6214,13 +6262,13 @@
         <v>250</v>
       </c>
       <c r="B273" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C273" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D273" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6228,13 +6276,13 @@
         <v>251</v>
       </c>
       <c r="B274" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C274" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D274" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6242,13 +6290,13 @@
         <v>252</v>
       </c>
       <c r="B275" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C275" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D275" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6256,13 +6304,13 @@
         <v>253</v>
       </c>
       <c r="B276" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C276" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D276" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6270,13 +6318,13 @@
         <v>254</v>
       </c>
       <c r="B277" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C277" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D277" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6284,13 +6332,13 @@
         <v>255</v>
       </c>
       <c r="B278" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C278" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D278" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6298,13 +6346,13 @@
         <v>256</v>
       </c>
       <c r="B279" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C279" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="D279" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6312,13 +6360,13 @@
         <v>257</v>
       </c>
       <c r="B280" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C280" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="D280" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6326,13 +6374,13 @@
         <v>258</v>
       </c>
       <c r="B281" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C281" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="D281" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6340,13 +6388,13 @@
         <v>259</v>
       </c>
       <c r="B282" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C282" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D282" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6354,13 +6402,13 @@
         <v>260</v>
       </c>
       <c r="B283" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C283" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D283" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6368,13 +6416,13 @@
         <v>261</v>
       </c>
       <c r="B284" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C284" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D284" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6382,13 +6430,13 @@
         <v>60</v>
       </c>
       <c r="B285" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C285" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D285" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6396,13 +6444,13 @@
         <v>62</v>
       </c>
       <c r="B286" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C286" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D286" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6410,13 +6458,13 @@
         <v>262</v>
       </c>
       <c r="B287" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C287" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D287" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6424,13 +6472,13 @@
         <v>263</v>
       </c>
       <c r="B288" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C288" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D288" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6438,13 +6486,13 @@
         <v>264</v>
       </c>
       <c r="B289" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C289" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D289" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6452,13 +6500,13 @@
         <v>265</v>
       </c>
       <c r="B290" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C290" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D290" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6466,13 +6514,13 @@
         <v>60</v>
       </c>
       <c r="B291" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C291" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="D291" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6480,13 +6528,13 @@
         <v>266</v>
       </c>
       <c r="B292" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C292" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="D292" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6494,13 +6542,13 @@
         <v>267</v>
       </c>
       <c r="B293" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C293" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="D293" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6508,13 +6556,13 @@
         <v>268</v>
       </c>
       <c r="B294" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C294" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D294" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6522,13 +6570,13 @@
         <v>269</v>
       </c>
       <c r="B295" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C295" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D295" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6536,13 +6584,13 @@
         <v>270</v>
       </c>
       <c r="B296" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C296" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D296" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6550,13 +6598,13 @@
         <v>61</v>
       </c>
       <c r="B297" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C297" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D297" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6564,13 +6612,13 @@
         <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C298" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D298" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6578,13 +6626,13 @@
         <v>272</v>
       </c>
       <c r="B299" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C299" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D299" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6592,13 +6640,13 @@
         <v>273</v>
       </c>
       <c r="B300" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C300" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D300" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6606,13 +6654,13 @@
         <v>274</v>
       </c>
       <c r="B301" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C301" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D301" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6620,13 +6668,13 @@
         <v>275</v>
       </c>
       <c r="B302" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C302" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D302" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6634,13 +6682,13 @@
         <v>276</v>
       </c>
       <c r="B303" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C303" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D303" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6648,13 +6696,13 @@
         <v>277</v>
       </c>
       <c r="B304" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C304" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D304" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6662,13 +6710,13 @@
         <v>278</v>
       </c>
       <c r="B305" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C305" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D305" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6676,13 +6724,13 @@
         <v>204</v>
       </c>
       <c r="B306" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C306" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="D306" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6690,13 +6738,13 @@
         <v>204</v>
       </c>
       <c r="B307" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C307" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="D307" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6704,13 +6752,13 @@
         <v>279</v>
       </c>
       <c r="B308" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C308" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="D308" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6718,13 +6766,139 @@
         <v>280</v>
       </c>
       <c r="B309" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C309" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="D309" t="s">
-        <v>673</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>205</v>
+      </c>
+      <c r="B310" t="s">
+        <v>488</v>
+      </c>
+      <c r="C310" t="s">
+        <v>675</v>
+      </c>
+      <c r="D310" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>281</v>
+      </c>
+      <c r="B311" t="s">
+        <v>564</v>
+      </c>
+      <c r="C311" t="s">
+        <v>675</v>
+      </c>
+      <c r="D311" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>282</v>
+      </c>
+      <c r="B312" t="s">
+        <v>565</v>
+      </c>
+      <c r="C312" t="s">
+        <v>675</v>
+      </c>
+      <c r="D312" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>205</v>
+      </c>
+      <c r="B313" t="s">
+        <v>488</v>
+      </c>
+      <c r="C313" t="s">
+        <v>676</v>
+      </c>
+      <c r="D313" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>283</v>
+      </c>
+      <c r="B314" t="s">
+        <v>566</v>
+      </c>
+      <c r="C314" t="s">
+        <v>676</v>
+      </c>
+      <c r="D314" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>284</v>
+      </c>
+      <c r="B315" t="s">
+        <v>567</v>
+      </c>
+      <c r="C315" t="s">
+        <v>676</v>
+      </c>
+      <c r="D315" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>285</v>
+      </c>
+      <c r="B316" t="s">
+        <v>568</v>
+      </c>
+      <c r="C316" t="s">
+        <v>677</v>
+      </c>
+      <c r="D316" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>205</v>
+      </c>
+      <c r="B317" t="s">
+        <v>488</v>
+      </c>
+      <c r="C317" t="s">
+        <v>677</v>
+      </c>
+      <c r="D317" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>286</v>
+      </c>
+      <c r="B318" t="s">
+        <v>569</v>
+      </c>
+      <c r="C318" t="s">
+        <v>677</v>
+      </c>
+      <c r="D318" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_sentences.xlsx
+++ b/Databases/한국어_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="924">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -875,6 +875,288 @@
   </si>
   <si>
     <t>그들이 모든 불만을 나한테 죽 털어놓았다.</t>
+  </si>
+  <si>
+    <t>'탄소 중립'은 에너지를 일으키기 위해 소비된 탄소의 모든 양에 대해, 재생 가능한 자원도 사용되는 것을 의미한다.</t>
+  </si>
+  <si>
+    <t>하지만 실제로는 생물연료는 탄소중립이 아니다.</t>
+  </si>
+  <si>
+    <t>2nd Statement: 생물연료가 기술적으로 이산화탄소 중립이 될지도 모른다는 것을 정확하다.</t>
+  </si>
+  <si>
+    <t>실제로 존재하다.</t>
+  </si>
+  <si>
+    <t>특히 육체노동에 있어서, 여전히 장벽이 존재하다.</t>
+  </si>
+  <si>
+    <t>exist as</t>
+  </si>
+  <si>
+    <t>필요한 수면 량은 개인의 깨어 있을 때의 활동량에 따라 결정되기 때문이다.</t>
+  </si>
+  <si>
+    <t>금년에 세계 곡물 생산량은 역사적인 기록을 세워 세계 식량 비축 량을 어느 정도 다시 세울 것 같다.</t>
+  </si>
+  <si>
+    <t>한국의 해외 총 수출 량의 20퍼센트 이상을 차지하는 중국으로의 수출이 지난 달 1.8퍼센트 감소하면서 2002년 2월 이후 처음으로 월간 수출량이 감소했다.</t>
+  </si>
+  <si>
+    <t>연구 기관</t>
+  </si>
+  <si>
+    <t>두 곳의 독립된 연구 기관에서 동일한 결론에 이르렀다.</t>
+  </si>
+  <si>
+    <t>절대 연구기관감사위원회 세탁에 연루되지 마십시오.</t>
+  </si>
+  <si>
+    <t>기상 기록[관측]이 시작된 이래 가장 포근한 겨울</t>
+  </si>
+  <si>
+    <t>천리안 해양관측위성은 한반도를 관찰 중이다.</t>
+  </si>
+  <si>
+    <t>우리는 세 개의 행성이 결합하는 현상을 하늘에서 관측할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>그 연구에는 심층 인터뷰[면담]도 들어간다.</t>
+  </si>
+  <si>
+    <t>예전에는 무생물 시대로 여겨졌던 지하 심층에서 해양 생명체가 발견되었다.</t>
+  </si>
+  <si>
+    <t>심층적 자료는 많은 양의 변수와 사실을 포함한다.</t>
+  </si>
+  <si>
+    <t>지질학, 즉 지각에 대한 학문</t>
+  </si>
+  <si>
+    <t>그만 꾸물거려! 지각하겠단 말야!</t>
+  </si>
+  <si>
+    <t>자네가 지각하면 임금을 제할 거야.</t>
+  </si>
+  <si>
+    <t>불과 2년 전만 하더라도 그는 국내 최고 선수였다.</t>
+  </si>
+  <si>
+    <t>이 살균제는 불과 수초 안에 1만 마리의 균을 죽인다.</t>
+  </si>
+  <si>
+    <t>불과 30분 전에, 이 클럽은 과음으로 난장판이었어요.</t>
+  </si>
+  <si>
+    <t>원시 미개인에서 발달해 온 인류</t>
+  </si>
+  <si>
+    <t>인류는 스스로를 전멸시키기에 충분한 무기를 갖고 있다.</t>
+  </si>
+  <si>
+    <t>평화와 인류애 속에 살다</t>
+  </si>
+  <si>
+    <t>가장 현대적인 과학 기술을 활용하다</t>
+  </si>
+  <si>
+    <t>게릴라 마케팅 전술을 효율적으로 활용하다.</t>
+  </si>
+  <si>
+    <t>글자 수 제한 때문에 아이스버그 트윗을 활용하다</t>
+  </si>
+  <si>
+    <t>그 팀은 초반의 주도권을 활용하지 못했다.</t>
+  </si>
+  <si>
+    <t>우리는 우리 노동자들의 기술과 창의력을 활용해야 한다.</t>
+  </si>
+  <si>
+    <t>계절별로 여러 야채를 써서 창의적으로 활용할 수 있는 조리법</t>
+  </si>
+  <si>
+    <t>움직일 수 있는 공간이 극히 부족했다.</t>
+  </si>
+  <si>
+    <t>그 예산에는 느슨한 부분이 극히 적다.</t>
+  </si>
+  <si>
+    <t>그는 극히 적은 노력으로 시험에 합격했다.</t>
+  </si>
+  <si>
+    <t>환추 관절은 경추의 일부다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재를 사는 법을 배우는 것은 기쁨의 행로의 일부다. </t>
+  </si>
+  <si>
+    <t>하이랜드 게임은 커다란 스포츠 행사의 일부다.</t>
+  </si>
+  <si>
+    <t>...는 절찬에 해당하다.</t>
+  </si>
+  <si>
+    <t>10년 전 고문 방식에 해당한다.</t>
+  </si>
+  <si>
+    <t>This equates to an average of 5.6 per cent.</t>
+  </si>
+  <si>
+    <t>그 통나무들은 제재소까지 하류로 떠내려 보낸다.</t>
+  </si>
+  <si>
+    <t>유엔 제재에 대해서는 전반적인 묵인이 있었다.</t>
+  </si>
+  <si>
+    <t>모든 가구는 천연 제재를 가지고 만든 공예품이다.</t>
+  </si>
+  <si>
+    <t>남이 집에 들어가는 것을 금하다.</t>
+  </si>
+  <si>
+    <t>남에게 …하는 것을 금하다.</t>
+  </si>
+  <si>
+    <t>선수의 경기 출장을 금하다.</t>
+  </si>
+  <si>
+    <t>열대지역에서는 원주민들이 생계를 이어 가는 것이 수월하다.</t>
+  </si>
+  <si>
+    <t>젊을 때는 원기 회복하는 것이 수월하다.</t>
+  </si>
+  <si>
+    <t>그리고 World Wide Web 과 이와 같은 사이트 덕분에 정보를 접하고  접촉하고 연락을 취하는 것이 보다 수월하다.</t>
+  </si>
+  <si>
+    <t>그들은 결승전에서는 완패를 당했다.</t>
+  </si>
+  <si>
+    <t>그는 100미터 결승 경기에서 10.09초를 기록했다.</t>
+  </si>
+  <si>
+    <t>그는 그 선수권 대회 결승전에서 수월히 이겼다.</t>
+  </si>
+  <si>
+    <t>그 회의는 다음주로 일정이 변경되었다</t>
+  </si>
+  <si>
+    <t>그 판사의 결정은 변경할 수 없다.</t>
+  </si>
+  <si>
+    <t>그 의복은 뒷면을[뒤집어서] 다림질하세요.</t>
+  </si>
+  <si>
+    <t>수표 뒷면에 이름을 쓰세요.</t>
+  </si>
+  <si>
+    <t>그 계약서의 상세한 내용</t>
+  </si>
+  <si>
+    <t>저 논평은 좀 더 상세한 설명이 필요하다.</t>
+  </si>
+  <si>
+    <t>그는 속아서 그들에게 자기 신용 카드를 주었다.</t>
+  </si>
+  <si>
+    <t>저희 호텔에서는 모든 주요 신용 카드를 받습니다.</t>
+  </si>
+  <si>
+    <t>송금은 수표로도 할 수 있고 신용카드로도 할 수 있다.</t>
+  </si>
+  <si>
+    <t>그 박물관의 지질학 부문 책임자</t>
+  </si>
+  <si>
+    <t>그는 직원 채용과 해고를 책임 맡고 있었다.</t>
+  </si>
+  <si>
+    <t>누군가가 이들 죽음에 대해 책임을 져야 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">재능이 있거든 가능한 모든 방법으로 사용하라. 쌓아두지 마라. 구두쇠처럼 아껴 쓰지 마라. 파산하려는 백만장자처럼 아낌없이 써라. </t>
+  </si>
+  <si>
+    <t>He's such a penny pincher.</t>
+  </si>
+  <si>
+    <t>나는 그들에게 호텔 목록을 팩스로 보냈다.</t>
+  </si>
+  <si>
+    <t>출간 예정 도서 목록</t>
+  </si>
+  <si>
+    <t>멸종 위기에 처한 종의 목록에는 거의 600종의 어류가 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>겨자는 가루[분말] 형태로 판매된다.</t>
+  </si>
+  <si>
+    <t>먼저, 점토를 원하는 형태로 만들어라.</t>
+  </si>
+  <si>
+    <t>이 도구는 나무의 형태를 만드는 데 쓰인다.</t>
+  </si>
+  <si>
+    <t>망각의 심연 속에 가라앉다, 세상에서 잊히다.</t>
+  </si>
+  <si>
+    <t>돌멩이처럼 가라앉다</t>
+  </si>
+  <si>
+    <t>바다 밑으로 가라앉다.</t>
+  </si>
+  <si>
+    <t>산호초 내의 다양한 생명체들</t>
+  </si>
+  <si>
+    <t>지구 위 생명체의 역사</t>
+  </si>
+  <si>
+    <t>다른 행성들에도 생명체가 존재할까?</t>
+  </si>
+  <si>
+    <t>그림자 생물권은 실제로 존재하는가?</t>
+  </si>
+  <si>
+    <t>과학자들은 그 생물권에서 지금 살고 있다.</t>
+  </si>
+  <si>
+    <t>생물권 2에는 비닐하우스도 지어질 것이다.</t>
+  </si>
+  <si>
+    <t>나는 유통되는 모든 주식을 샀다.</t>
+  </si>
+  <si>
+    <t>Say stock XYZ is trading at 31 dollars.</t>
+  </si>
+  <si>
+    <t>Blakey</t>
+  </si>
+  <si>
+    <t>티켓 발매기에서 거스름돈이 나온다.</t>
+  </si>
+  <si>
+    <t>내가 술집에서 거스름돈을 덜 받았나 봐.</t>
+  </si>
+  <si>
+    <t>“이거 거스름돈이에요.” “네, 고마워요.”</t>
+  </si>
+  <si>
+    <t>기라성 같은 할리우드 배우들</t>
+  </si>
+  <si>
+    <t>기라성 같은 할리우드 유명 배우들</t>
+  </si>
+  <si>
+    <t>회의장은 기라성 같은 고관들로 북적였다.</t>
+  </si>
+  <si>
+    <t>구급차가 떠나고 나자 사람들은 흩어졌다.</t>
+  </si>
+  <si>
+    <t>구급차들이 부상자들을 급히 병원으로 실어 날랐다.</t>
   </si>
   <si>
     <t>to make/cost a mint</t>
@@ -1728,6 +2010,292 @@
     <t>They recited all their grievances to me.</t>
   </si>
   <si>
+    <t>Carbon-neutral means that for every amount of carbon burned to create energy, a renewable resource is also used.</t>
+  </si>
+  <si>
+    <t>However in practice they are not carbon neutral.</t>
+  </si>
+  <si>
+    <t>2nd Statement: It is correct that bio-fuels might technically be CO2 neutral.</t>
+  </si>
+  <si>
+    <t>have real existence</t>
+  </si>
+  <si>
+    <t>There is still a barrier, especially in manual work.</t>
+  </si>
+  <si>
+    <t>morssola216</t>
+  </si>
+  <si>
+    <t>This is largely because the amount of sleep needed is mainly determined by one's daytime activities.</t>
+  </si>
+  <si>
+    <t>This year, world grain production is likely to set historic records, permitting some rebuilding of world food stockpiles.</t>
+  </si>
+  <si>
+    <t>Exports to China, which account for over 20 percent of Korea's total overseas shipments, shrank 1.8 percent last month, marking the first monthly contraction since February 2002.</t>
+  </si>
+  <si>
+    <t>a research establishment</t>
+  </si>
+  <si>
+    <t>Two independent research bodies reached the same conclusions.</t>
+  </si>
+  <si>
+    <t>Never engage in IRB laundering.</t>
+  </si>
+  <si>
+    <t>the mildest winter since records began</t>
+  </si>
+  <si>
+    <t>The GOCI observes the Korean peninsula.</t>
+  </si>
+  <si>
+    <t>We could see a sycygy in the sky.</t>
+  </si>
+  <si>
+    <t>The research involves in-depth interviewing.</t>
+  </si>
+  <si>
+    <t>Marine life was discovered at depths previously thought to be azoic.</t>
+  </si>
+  <si>
+    <t>Thick data has a large number of variables and facts.</t>
+  </si>
+  <si>
+    <t>geology, or the science of the earth’s crust</t>
+  </si>
+  <si>
+    <t>Stop dawdling! We’re going to be late!</t>
+  </si>
+  <si>
+    <t>If you’re late, your wages will be docked.</t>
+  </si>
+  <si>
+    <t>Just two short years ago he was the best player in the country.</t>
+  </si>
+  <si>
+    <t>This bacillicide kills ten thousand fungi in seconds.</t>
+  </si>
+  <si>
+    <t>Just half an hour ago, there was a lager frenzy in this club.</t>
+  </si>
+  <si>
+    <t>the development of the human race from primitive savages</t>
+  </si>
+  <si>
+    <t>The human race has enough weapons to annihilate itself.</t>
+  </si>
+  <si>
+    <t>to live in peace and brotherhood</t>
+  </si>
+  <si>
+    <t>to make use of the most modern technologies</t>
+  </si>
+  <si>
+    <t>to deploy guerilla marketing tactics</t>
+  </si>
+  <si>
+    <t>use the iceberg tweet to overcome the word limit</t>
+  </si>
+  <si>
+    <t>The team failed to capitalize on their early lead.</t>
+  </si>
+  <si>
+    <t>We must harness the skill and creativity of our workforce.</t>
+  </si>
+  <si>
+    <t>recipes that make imaginative use of seasonal vegetables</t>
+  </si>
+  <si>
+    <t>There was very little room to manoeuvre.</t>
+  </si>
+  <si>
+    <t>There’s very little slack in the budget.</t>
+  </si>
+  <si>
+    <t>He passed the exams with the minimum of effort.</t>
+  </si>
+  <si>
+    <t>The AAJ is included in the cervical spine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning to live in the present moment is part of the path of joy. </t>
+  </si>
+  <si>
+    <t>실수는 인간의 일부다. 네 실수의 실체를 음미하라. 실수는 어렵게만 얻을 수 있는 소중한 삶의 교훈임을 음미하라. 치명적 실수는 예외지만, 이 경우에도 남들은 이 실수로부터 교훈을 얻을 수 있다. 
+명언/속담
+Highland games are parts of big sports events.</t>
+  </si>
+  <si>
+    <t>it is difficult to exaggerate the value of...</t>
+  </si>
+  <si>
+    <t>Same pattern of torture, ten years ago.</t>
+  </si>
+  <si>
+    <t>yh</t>
+  </si>
+  <si>
+    <t>The logs are drifted downstream to the mill.</t>
+  </si>
+  <si>
+    <t>There was general acquiescence in the UN sanctions.</t>
+  </si>
+  <si>
+    <t>All the furniture is crafted from natural materials.</t>
+  </si>
+  <si>
+    <t>forbid a person  the house</t>
+  </si>
+  <si>
+    <t>inhibit a person from doing</t>
+  </si>
+  <si>
+    <t>outlaw a player in a game</t>
+  </si>
+  <si>
+    <t>In tropical regions, it's easy for natives to find sustenance.</t>
+  </si>
+  <si>
+    <t>It is easy to recover one's feet when young.</t>
+  </si>
+  <si>
+    <t>And thanks to the World Wide Web and sites like these, it is easier to be informed, reach out, and stay in touch.</t>
+  </si>
+  <si>
+    <t>They were comprehensively beaten in the final.</t>
+  </si>
+  <si>
+    <t>He clocked 10.09 seconds in the 100 metres final.</t>
+  </si>
+  <si>
+    <t>He swept to victory in the final of the championship.</t>
+  </si>
+  <si>
+    <t>The meeting has been rescheduled for next week.</t>
+  </si>
+  <si>
+    <t>The judge’s decision is final.</t>
+  </si>
+  <si>
+    <t>Iron the garment on the reverse side.</t>
+  </si>
+  <si>
+    <t>Write your name on the back of the cheque.</t>
+  </si>
+  <si>
+    <t>the minutiae of the contract</t>
+  </si>
+  <si>
+    <t>That comment needs some amplification.</t>
+  </si>
+  <si>
+    <t>He was duped into giving them his credit card.</t>
+  </si>
+  <si>
+    <t>All major credit cards are accepted at our hotels.</t>
+  </si>
+  <si>
+    <t>Remittance can be made by cheque or credit card.</t>
+  </si>
+  <si>
+    <t>the keeper of geology at the museum</t>
+  </si>
+  <si>
+    <t>He was responsible for hiring and firing staff.</t>
+  </si>
+  <si>
+    <t>Someone must be held accountable for the killings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도서수집가가 된다는 것은 마약중독자와 구두쇠의 가장 나쁜 특징을 결합하는 것이다. 
+명언/속담
+If you have a talent, use it in every which way possible. Don't hoard it. Don't dole it out like a miser. Spend it lavishly like a millionaire intent on going broke. </t>
+  </si>
+  <si>
+    <t>그는 인근에 소문이 자자할 정도로 지독한 구두쇠였다</t>
+  </si>
+  <si>
+    <t>I faxed the list of hotels through to them.</t>
+  </si>
+  <si>
+    <t>a list of forthcoming books</t>
+  </si>
+  <si>
+    <t>The list of endangered species includes nearly 600 fishes.</t>
+  </si>
+  <si>
+    <t>The mustard is sold in powder form .</t>
+  </si>
+  <si>
+    <t>First, mould the clay into the desired shape.</t>
+  </si>
+  <si>
+    <t>This tool is used for shaping wood.</t>
+  </si>
+  <si>
+    <t>sink into the limbo of oblivion[of forgotten things]</t>
+  </si>
+  <si>
+    <t>to sink like a stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go  to the bottom </t>
+  </si>
+  <si>
+    <t>the multifarious life forms in the coral reef</t>
+  </si>
+  <si>
+    <t>the history of life on earth</t>
+  </si>
+  <si>
+    <t>Does life exist on other planets?</t>
+  </si>
+  <si>
+    <t>Does the shadow biosphere actually exist?</t>
+  </si>
+  <si>
+    <t>Scientists are living in the biosphere now.</t>
+  </si>
+  <si>
+    <t>A greenhouse will be built in Biosphere Two.</t>
+  </si>
+  <si>
+    <t>I bought up all the outstanding shares.</t>
+  </si>
+  <si>
+    <t>복복복</t>
+  </si>
+  <si>
+    <t>XYZ주가 31달러에 유통된다고 가정하자.</t>
+  </si>
+  <si>
+    <t>The ticket machine gives change.</t>
+  </si>
+  <si>
+    <t>I think I’ve been short-changed at the bar.</t>
+  </si>
+  <si>
+    <t>‘Here’s the change.’ ‘Thanks very much.’</t>
+  </si>
+  <si>
+    <t>a constellation of Hollywood talent</t>
+  </si>
+  <si>
+    <t>a galaxy of Hollywood stars</t>
+  </si>
+  <si>
+    <t>The convention hall was swarmed with a galaxy of dignitaries.</t>
+  </si>
+  <si>
+    <t>When the ambulance had gone, the crowd dissolved.</t>
+  </si>
+  <si>
+    <t>Ambulances rushed the injured to the hospital.</t>
+  </si>
+  <si>
     <t>들다</t>
   </si>
   <si>
@@ -2052,6 +2620,129 @@
     <t>불만</t>
   </si>
   <si>
+    <t>탄소중립</t>
+  </si>
+  <si>
+    <t>존재하다</t>
+  </si>
+  <si>
+    <t>량</t>
+  </si>
+  <si>
+    <t>연구기관</t>
+  </si>
+  <si>
+    <t>관측</t>
+  </si>
+  <si>
+    <t>심층</t>
+  </si>
+  <si>
+    <t>지각</t>
+  </si>
+  <si>
+    <t>불과</t>
+  </si>
+  <si>
+    <t>인류</t>
+  </si>
+  <si>
+    <t>활용하다</t>
+  </si>
+  <si>
+    <t>활용</t>
+  </si>
+  <si>
+    <t>극히</t>
+  </si>
+  <si>
+    <t>일부다</t>
+  </si>
+  <si>
+    <t>해당하다</t>
+  </si>
+  <si>
+    <t>제재</t>
+  </si>
+  <si>
+    <t>금하다</t>
+  </si>
+  <si>
+    <t>수월하다</t>
+  </si>
+  <si>
+    <t>결승</t>
+  </si>
+  <si>
+    <t>변경</t>
+  </si>
+  <si>
+    <t>뒷면</t>
+  </si>
+  <si>
+    <t>상세</t>
+  </si>
+  <si>
+    <t>신용</t>
+  </si>
+  <si>
+    <t>책임</t>
+  </si>
+  <si>
+    <t>구두쇠</t>
+  </si>
+  <si>
+    <t>목록</t>
+  </si>
+  <si>
+    <t>형태</t>
+  </si>
+  <si>
+    <t>가라앉다</t>
+  </si>
+  <si>
+    <t>생명체</t>
+  </si>
+  <si>
+    <t>생물권</t>
+  </si>
+  <si>
+    <t>유통되다</t>
+  </si>
+  <si>
+    <t>해저</t>
+  </si>
+  <si>
+    <t>거스름돈</t>
+  </si>
+  <si>
+    <t>기라성</t>
+  </si>
+  <si>
+    <t>구급차</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부상자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">설문 </t>
+  </si>
+  <si>
+    <t>훈련 받다</t>
+  </si>
+  <si>
+    <t>탄생</t>
+  </si>
+  <si>
+    <t>순환</t>
+  </si>
+  <si>
+    <t>차지하다</t>
+  </si>
+  <si>
+    <t>달하다</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -2086,6 +2777,21 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +3149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2468,13 +3174,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>758</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2482,13 +3188,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2496,13 +3202,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
-        <v>570</v>
+        <v>758</v>
       </c>
       <c r="D4" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2510,13 +3216,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>759</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2524,13 +3230,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>759</v>
       </c>
       <c r="D6" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2538,13 +3244,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>759</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2552,13 +3258,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>760</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2566,13 +3272,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>760</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2580,13 +3286,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>760</v>
       </c>
       <c r="D10" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2594,13 +3300,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>761</v>
       </c>
       <c r="D11" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2608,13 +3314,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>573</v>
+        <v>761</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2622,13 +3328,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>761</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2636,13 +3342,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2650,13 +3356,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2664,13 +3370,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2678,13 +3384,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>575</v>
+        <v>763</v>
       </c>
       <c r="D17" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2692,13 +3398,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
-        <v>575</v>
+        <v>763</v>
       </c>
       <c r="D18" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2706,13 +3412,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>575</v>
+        <v>763</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2720,13 +3426,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>576</v>
+        <v>764</v>
       </c>
       <c r="D20" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2734,13 +3440,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>764</v>
       </c>
       <c r="D21" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2748,13 +3454,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
-        <v>576</v>
+        <v>764</v>
       </c>
       <c r="D22" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2762,13 +3468,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>577</v>
+        <v>765</v>
       </c>
       <c r="D23" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2776,13 +3482,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="C24" t="s">
-        <v>577</v>
+        <v>765</v>
       </c>
       <c r="D24" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2790,13 +3496,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
-        <v>577</v>
+        <v>765</v>
       </c>
       <c r="D25" t="s">
-        <v>678</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2804,13 +3510,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="C26" t="s">
-        <v>578</v>
+        <v>766</v>
       </c>
       <c r="D26" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2818,13 +3524,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>578</v>
+        <v>766</v>
       </c>
       <c r="D27" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2832,13 +3538,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="C28" t="s">
-        <v>578</v>
+        <v>766</v>
       </c>
       <c r="D28" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2846,13 +3552,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>767</v>
       </c>
       <c r="D29" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2860,13 +3566,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>580</v>
+        <v>768</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2874,13 +3580,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="C31" t="s">
-        <v>580</v>
+        <v>768</v>
       </c>
       <c r="D31" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2888,13 +3594,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>410</v>
       </c>
       <c r="C32" t="s">
-        <v>580</v>
+        <v>768</v>
       </c>
       <c r="D32" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2902,13 +3608,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="D33" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2916,13 +3622,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="D34" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2930,13 +3636,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="C35" t="s">
-        <v>581</v>
+        <v>769</v>
       </c>
       <c r="D35" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2944,13 +3650,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>582</v>
+        <v>770</v>
       </c>
       <c r="D36" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2958,13 +3664,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>770</v>
       </c>
       <c r="D37" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2972,13 +3678,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>582</v>
+        <v>770</v>
       </c>
       <c r="D38" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2986,13 +3692,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="C39" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="D39" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3000,13 +3706,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="D40" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3014,13 +3720,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>584</v>
+        <v>772</v>
       </c>
       <c r="D41" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3028,13 +3734,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="C42" t="s">
-        <v>584</v>
+        <v>772</v>
       </c>
       <c r="D42" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3042,13 +3748,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="C43" t="s">
-        <v>584</v>
+        <v>772</v>
       </c>
       <c r="D43" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3056,13 +3762,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>422</v>
       </c>
       <c r="C44" t="s">
-        <v>585</v>
+        <v>773</v>
       </c>
       <c r="D44" t="s">
-        <v>679</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3070,13 +3776,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="C45" t="s">
-        <v>586</v>
+        <v>774</v>
       </c>
       <c r="D45" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3084,13 +3790,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
       <c r="C46" t="s">
-        <v>586</v>
+        <v>774</v>
       </c>
       <c r="D46" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3098,13 +3804,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>586</v>
+        <v>774</v>
       </c>
       <c r="D47" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3112,13 +3818,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="C48" t="s">
-        <v>587</v>
+        <v>775</v>
       </c>
       <c r="D48" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3126,13 +3832,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="C49" t="s">
-        <v>587</v>
+        <v>775</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3140,13 +3846,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="C50" t="s">
-        <v>587</v>
+        <v>775</v>
       </c>
       <c r="D50" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3154,13 +3860,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="C51" t="s">
-        <v>588</v>
+        <v>776</v>
       </c>
       <c r="D51" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3168,13 +3874,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="C52" t="s">
-        <v>588</v>
+        <v>776</v>
       </c>
       <c r="D52" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3182,13 +3888,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="C53" t="s">
-        <v>588</v>
+        <v>776</v>
       </c>
       <c r="D53" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3196,13 +3902,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="C54" t="s">
-        <v>589</v>
+        <v>777</v>
       </c>
       <c r="D54" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3210,13 +3916,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
+        <v>777</v>
       </c>
       <c r="D55" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3224,13 +3930,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="C56" t="s">
-        <v>589</v>
+        <v>777</v>
       </c>
       <c r="D56" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3238,13 +3944,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="C57" t="s">
-        <v>590</v>
+        <v>778</v>
       </c>
       <c r="D57" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3252,13 +3958,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
-        <v>590</v>
+        <v>778</v>
       </c>
       <c r="D58" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3266,13 +3972,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>590</v>
+        <v>778</v>
       </c>
       <c r="D59" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3280,13 +3986,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>591</v>
+        <v>779</v>
       </c>
       <c r="D60" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3294,13 +4000,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s">
-        <v>591</v>
+        <v>779</v>
       </c>
       <c r="D61" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3308,13 +4014,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s">
-        <v>591</v>
+        <v>779</v>
       </c>
       <c r="D62" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3322,13 +4028,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="C63" t="s">
-        <v>592</v>
+        <v>780</v>
       </c>
       <c r="D63" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3336,13 +4042,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>780</v>
       </c>
       <c r="D64" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3350,13 +4056,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s">
-        <v>592</v>
+        <v>780</v>
       </c>
       <c r="D65" t="s">
-        <v>680</v>
+        <v>909</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3364,13 +4070,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="C66" t="s">
-        <v>593</v>
+        <v>781</v>
       </c>
       <c r="D66" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3378,13 +4084,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="C67" t="s">
-        <v>593</v>
+        <v>781</v>
       </c>
       <c r="D67" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3392,13 +4098,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="C68" t="s">
-        <v>593</v>
+        <v>781</v>
       </c>
       <c r="D68" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3406,13 +4112,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
-        <v>594</v>
+        <v>782</v>
       </c>
       <c r="D69" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3420,13 +4126,13 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="C70" t="s">
-        <v>594</v>
+        <v>782</v>
       </c>
       <c r="D70" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3434,13 +4140,13 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="C71" t="s">
-        <v>594</v>
+        <v>782</v>
       </c>
       <c r="D71" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3448,13 +4154,13 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="C72" t="s">
-        <v>595</v>
+        <v>783</v>
       </c>
       <c r="D72" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3462,13 +4168,13 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
-        <v>595</v>
+        <v>783</v>
       </c>
       <c r="D73" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3476,13 +4182,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="C74" t="s">
-        <v>595</v>
+        <v>783</v>
       </c>
       <c r="D74" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3490,13 +4196,13 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s">
-        <v>596</v>
+        <v>784</v>
       </c>
       <c r="D75" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3504,13 +4210,13 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="C76" t="s">
-        <v>596</v>
+        <v>784</v>
       </c>
       <c r="D76" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3518,13 +4224,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="C77" t="s">
-        <v>596</v>
+        <v>784</v>
       </c>
       <c r="D77" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3532,13 +4238,13 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="C78" t="s">
-        <v>597</v>
+        <v>785</v>
       </c>
       <c r="D78" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3546,13 +4252,13 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="C79" t="s">
-        <v>597</v>
+        <v>785</v>
       </c>
       <c r="D79" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3560,13 +4266,13 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>597</v>
+        <v>785</v>
       </c>
       <c r="D80" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3574,13 +4280,13 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="C81" t="s">
-        <v>598</v>
+        <v>786</v>
       </c>
       <c r="D81" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3588,13 +4294,13 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="C82" t="s">
-        <v>598</v>
+        <v>786</v>
       </c>
       <c r="D82" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3602,13 +4308,13 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="C83" t="s">
-        <v>598</v>
+        <v>786</v>
       </c>
       <c r="D83" t="s">
-        <v>681</v>
+        <v>910</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3616,13 +4322,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
-        <v>599</v>
+        <v>787</v>
       </c>
       <c r="D84" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3630,13 +4336,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="C85" t="s">
-        <v>599</v>
+        <v>787</v>
       </c>
       <c r="D85" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3644,13 +4350,13 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s">
-        <v>599</v>
+        <v>787</v>
       </c>
       <c r="D86" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3658,13 +4364,13 @@
         <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C87" t="s">
-        <v>600</v>
+        <v>788</v>
       </c>
       <c r="D87" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3672,13 +4378,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="C88" t="s">
-        <v>600</v>
+        <v>788</v>
       </c>
       <c r="D88" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3686,13 +4392,13 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
-        <v>600</v>
+        <v>788</v>
       </c>
       <c r="D89" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3700,13 +4406,13 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="C90" t="s">
-        <v>601</v>
+        <v>789</v>
       </c>
       <c r="D90" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3714,13 +4420,13 @@
         <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="C91" t="s">
-        <v>601</v>
+        <v>789</v>
       </c>
       <c r="D91" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3728,13 +4434,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="C92" t="s">
-        <v>601</v>
+        <v>789</v>
       </c>
       <c r="D92" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3742,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="C93" t="s">
-        <v>602</v>
+        <v>790</v>
       </c>
       <c r="D93" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3756,13 +4462,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="C94" t="s">
-        <v>602</v>
+        <v>790</v>
       </c>
       <c r="D94" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3770,13 +4476,13 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="C95" t="s">
-        <v>602</v>
+        <v>790</v>
       </c>
       <c r="D95" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3784,13 +4490,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
-        <v>603</v>
+        <v>791</v>
       </c>
       <c r="D96" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3798,13 +4504,13 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
-        <v>603</v>
+        <v>791</v>
       </c>
       <c r="D97" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3812,13 +4518,13 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="C98" t="s">
-        <v>603</v>
+        <v>791</v>
       </c>
       <c r="D98" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3826,13 +4532,13 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="C99" t="s">
-        <v>604</v>
+        <v>792</v>
       </c>
       <c r="D99" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3840,13 +4546,13 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="C100" t="s">
-        <v>604</v>
+        <v>792</v>
       </c>
       <c r="D100" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3854,13 +4560,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
       <c r="C101" t="s">
-        <v>604</v>
+        <v>792</v>
       </c>
       <c r="D101" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3868,13 +4574,13 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="C102" t="s">
-        <v>605</v>
+        <v>793</v>
       </c>
       <c r="D102" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3882,13 +4588,13 @@
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="C103" t="s">
-        <v>605</v>
+        <v>793</v>
       </c>
       <c r="D103" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3896,13 +4602,13 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
       <c r="C104" t="s">
-        <v>605</v>
+        <v>793</v>
       </c>
       <c r="D104" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3910,13 +4616,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="C105" t="s">
-        <v>606</v>
+        <v>794</v>
       </c>
       <c r="D105" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3924,13 +4630,13 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
       <c r="C106" t="s">
-        <v>606</v>
+        <v>794</v>
       </c>
       <c r="D106" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3938,13 +4644,13 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="C107" t="s">
-        <v>606</v>
+        <v>794</v>
       </c>
       <c r="D107" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3952,13 +4658,13 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
       <c r="C108" t="s">
-        <v>607</v>
+        <v>795</v>
       </c>
       <c r="D108" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3966,13 +4672,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="C109" t="s">
-        <v>607</v>
+        <v>795</v>
       </c>
       <c r="D109" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3980,13 +4686,13 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>795</v>
       </c>
       <c r="D110" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3994,13 +4700,13 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="C111" t="s">
-        <v>608</v>
+        <v>796</v>
       </c>
       <c r="D111" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4008,13 +4714,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
       <c r="C112" t="s">
-        <v>608</v>
+        <v>796</v>
       </c>
       <c r="D112" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4022,13 +4728,13 @@
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C113" t="s">
-        <v>608</v>
+        <v>796</v>
       </c>
       <c r="D113" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4036,13 +4742,13 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
-        <v>609</v>
+        <v>797</v>
       </c>
       <c r="D114" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4050,13 +4756,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="C115" t="s">
-        <v>609</v>
+        <v>797</v>
       </c>
       <c r="D115" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4064,13 +4770,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="C116" t="s">
-        <v>609</v>
+        <v>797</v>
       </c>
       <c r="D116" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4078,13 +4784,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
       <c r="C117" t="s">
-        <v>610</v>
+        <v>798</v>
       </c>
       <c r="D117" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4092,13 +4798,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="C118" t="s">
-        <v>610</v>
+        <v>798</v>
       </c>
       <c r="D118" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4106,13 +4812,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="C119" t="s">
-        <v>610</v>
+        <v>798</v>
       </c>
       <c r="D119" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4120,13 +4826,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
       <c r="C120" t="s">
-        <v>611</v>
+        <v>799</v>
       </c>
       <c r="D120" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4134,13 +4840,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="C121" t="s">
-        <v>611</v>
+        <v>799</v>
       </c>
       <c r="D121" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4148,13 +4854,13 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="C122" t="s">
-        <v>611</v>
+        <v>799</v>
       </c>
       <c r="D122" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4162,13 +4868,13 @@
         <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="C123" t="s">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="D123" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4176,13 +4882,13 @@
         <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="C124" t="s">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="D124" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4190,13 +4896,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="C125" t="s">
-        <v>612</v>
+        <v>800</v>
       </c>
       <c r="D125" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4204,13 +4910,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="C126" t="s">
-        <v>613</v>
+        <v>801</v>
       </c>
       <c r="D126" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4218,13 +4924,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="C127" t="s">
-        <v>613</v>
+        <v>801</v>
       </c>
       <c r="D127" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4232,13 +4938,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s">
-        <v>613</v>
+        <v>801</v>
       </c>
       <c r="D128" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4246,13 +4952,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="C129" t="s">
-        <v>614</v>
+        <v>802</v>
       </c>
       <c r="D129" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4260,13 +4966,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="C130" t="s">
-        <v>614</v>
+        <v>802</v>
       </c>
       <c r="D130" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4274,13 +4980,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="C131" t="s">
-        <v>614</v>
+        <v>802</v>
       </c>
       <c r="D131" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4288,13 +4994,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="C132" t="s">
-        <v>615</v>
+        <v>803</v>
       </c>
       <c r="D132" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4302,13 +5008,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="C133" t="s">
-        <v>615</v>
+        <v>803</v>
       </c>
       <c r="D133" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4316,13 +5022,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="C134" t="s">
-        <v>615</v>
+        <v>803</v>
       </c>
       <c r="D134" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4330,13 +5036,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C135" t="s">
-        <v>616</v>
+        <v>804</v>
       </c>
       <c r="D135" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4344,13 +5050,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="C136" t="s">
-        <v>616</v>
+        <v>804</v>
       </c>
       <c r="D136" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4358,13 +5064,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>504</v>
       </c>
       <c r="C137" t="s">
-        <v>616</v>
+        <v>804</v>
       </c>
       <c r="D137" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4372,13 +5078,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="C138" t="s">
-        <v>617</v>
+        <v>805</v>
       </c>
       <c r="D138" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4386,13 +5092,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="C139" t="s">
-        <v>617</v>
+        <v>805</v>
       </c>
       <c r="D139" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4400,13 +5106,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>507</v>
       </c>
       <c r="C140" t="s">
-        <v>617</v>
+        <v>805</v>
       </c>
       <c r="D140" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4414,13 +5120,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="C141" t="s">
-        <v>618</v>
+        <v>806</v>
       </c>
       <c r="D141" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4428,13 +5134,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="C142" t="s">
-        <v>618</v>
+        <v>806</v>
       </c>
       <c r="D142" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4442,13 +5148,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>806</v>
       </c>
       <c r="D143" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4456,13 +5162,13 @@
         <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>807</v>
       </c>
       <c r="D144" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4470,13 +5176,13 @@
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="C145" t="s">
-        <v>619</v>
+        <v>807</v>
       </c>
       <c r="D145" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4484,13 +5190,13 @@
         <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="C146" t="s">
-        <v>619</v>
+        <v>807</v>
       </c>
       <c r="D146" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4498,13 +5204,13 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="C147" t="s">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="D147" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4512,13 +5218,13 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="C148" t="s">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="D148" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4526,13 +5232,13 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="C149" t="s">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="D149" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4540,13 +5246,13 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="C150" t="s">
-        <v>621</v>
+        <v>809</v>
       </c>
       <c r="D150" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4554,13 +5260,13 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="C151" t="s">
-        <v>621</v>
+        <v>809</v>
       </c>
       <c r="D151" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4568,13 +5274,13 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="C152" t="s">
-        <v>621</v>
+        <v>809</v>
       </c>
       <c r="D152" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4582,13 +5288,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="C153" t="s">
-        <v>622</v>
+        <v>810</v>
       </c>
       <c r="D153" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4596,13 +5302,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="C154" t="s">
-        <v>622</v>
+        <v>810</v>
       </c>
       <c r="D154" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4610,13 +5316,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="C155" t="s">
-        <v>622</v>
+        <v>810</v>
       </c>
       <c r="D155" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4624,13 +5330,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="C156" t="s">
-        <v>623</v>
+        <v>811</v>
       </c>
       <c r="D156" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4638,13 +5344,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="C157" t="s">
-        <v>623</v>
+        <v>811</v>
       </c>
       <c r="D157" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4652,13 +5358,13 @@
         <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="C158" t="s">
-        <v>623</v>
+        <v>811</v>
       </c>
       <c r="D158" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4666,13 +5372,13 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="C159" t="s">
-        <v>624</v>
+        <v>812</v>
       </c>
       <c r="D159" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4680,13 +5386,13 @@
         <v>146</v>
       </c>
       <c r="B160" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="C160" t="s">
-        <v>624</v>
+        <v>812</v>
       </c>
       <c r="D160" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4694,13 +5400,13 @@
         <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="C161" t="s">
-        <v>624</v>
+        <v>812</v>
       </c>
       <c r="D161" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4708,13 +5414,13 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="C162" t="s">
-        <v>625</v>
+        <v>813</v>
       </c>
       <c r="D162" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4722,13 +5428,13 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>625</v>
+        <v>813</v>
       </c>
       <c r="D163" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4736,13 +5442,13 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
       <c r="C164" t="s">
-        <v>625</v>
+        <v>813</v>
       </c>
       <c r="D164" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4750,13 +5456,13 @@
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="C165" t="s">
-        <v>626</v>
+        <v>814</v>
       </c>
       <c r="D165" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4764,13 +5470,13 @@
         <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
       <c r="C166" t="s">
-        <v>626</v>
+        <v>814</v>
       </c>
       <c r="D166" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4778,13 +5484,13 @@
         <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="C167" t="s">
-        <v>626</v>
+        <v>814</v>
       </c>
       <c r="D167" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4792,13 +5498,13 @@
         <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="C168" t="s">
-        <v>627</v>
+        <v>815</v>
       </c>
       <c r="D168" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4806,13 +5512,13 @@
         <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s">
-        <v>627</v>
+        <v>815</v>
       </c>
       <c r="D169" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4820,13 +5526,13 @@
         <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="C170" t="s">
-        <v>627</v>
+        <v>815</v>
       </c>
       <c r="D170" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4834,13 +5540,13 @@
         <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>441</v>
+        <v>535</v>
       </c>
       <c r="C171" t="s">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="D171" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4848,13 +5554,13 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
       <c r="C172" t="s">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="D172" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4862,13 +5568,13 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
       <c r="C173" t="s">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="D173" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4876,13 +5582,13 @@
         <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="C174" t="s">
-        <v>629</v>
+        <v>817</v>
       </c>
       <c r="D174" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4890,13 +5596,13 @@
         <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="C175" t="s">
-        <v>629</v>
+        <v>817</v>
       </c>
       <c r="D175" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4904,13 +5610,13 @@
         <v>162</v>
       </c>
       <c r="B176" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="C176" t="s">
-        <v>629</v>
+        <v>817</v>
       </c>
       <c r="D176" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4918,13 +5624,13 @@
         <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>447</v>
+        <v>541</v>
       </c>
       <c r="C177" t="s">
-        <v>630</v>
+        <v>818</v>
       </c>
       <c r="D177" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4932,13 +5638,13 @@
         <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="C178" t="s">
-        <v>630</v>
+        <v>818</v>
       </c>
       <c r="D178" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4946,13 +5652,13 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
       <c r="C179" t="s">
-        <v>630</v>
+        <v>818</v>
       </c>
       <c r="D179" t="s">
-        <v>683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4960,13 +5666,13 @@
         <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="C180" t="s">
-        <v>631</v>
+        <v>819</v>
       </c>
       <c r="D180" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4974,13 +5680,13 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="C181" t="s">
-        <v>631</v>
+        <v>819</v>
       </c>
       <c r="D181" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4988,13 +5694,13 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="C182" t="s">
-        <v>631</v>
+        <v>819</v>
       </c>
       <c r="D182" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5002,13 +5708,13 @@
         <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="C183" t="s">
-        <v>632</v>
+        <v>820</v>
       </c>
       <c r="D183" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5019,10 +5725,10 @@
         <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>632</v>
+        <v>820</v>
       </c>
       <c r="D184" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5030,13 +5736,13 @@
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="C185" t="s">
-        <v>632</v>
+        <v>820</v>
       </c>
       <c r="D185" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5044,13 +5750,13 @@
         <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="C186" t="s">
-        <v>633</v>
+        <v>821</v>
       </c>
       <c r="D186" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5058,13 +5764,13 @@
         <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>455</v>
+        <v>549</v>
       </c>
       <c r="C187" t="s">
-        <v>633</v>
+        <v>821</v>
       </c>
       <c r="D187" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5072,13 +5778,13 @@
         <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="C188" t="s">
-        <v>633</v>
+        <v>821</v>
       </c>
       <c r="D188" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5086,13 +5792,13 @@
         <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="C189" t="s">
-        <v>634</v>
+        <v>822</v>
       </c>
       <c r="D189" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5100,13 +5806,13 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="C190" t="s">
-        <v>634</v>
+        <v>822</v>
       </c>
       <c r="D190" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5114,13 +5820,13 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="C191" t="s">
-        <v>634</v>
+        <v>822</v>
       </c>
       <c r="D191" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5128,13 +5834,13 @@
         <v>176</v>
       </c>
       <c r="B192" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="C192" t="s">
-        <v>635</v>
+        <v>823</v>
       </c>
       <c r="D192" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5142,13 +5848,13 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="C193" t="s">
-        <v>635</v>
+        <v>823</v>
       </c>
       <c r="D193" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5156,13 +5862,13 @@
         <v>178</v>
       </c>
       <c r="B194" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="C194" t="s">
-        <v>635</v>
+        <v>823</v>
       </c>
       <c r="D194" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5170,13 +5876,13 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="C195" t="s">
-        <v>636</v>
+        <v>824</v>
       </c>
       <c r="D195" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5184,13 +5890,13 @@
         <v>180</v>
       </c>
       <c r="B196" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="C196" t="s">
-        <v>636</v>
+        <v>824</v>
       </c>
       <c r="D196" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5198,13 +5904,13 @@
         <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>464</v>
+        <v>558</v>
       </c>
       <c r="C197" t="s">
-        <v>636</v>
+        <v>824</v>
       </c>
       <c r="D197" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5212,13 +5918,13 @@
         <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="C198" t="s">
-        <v>637</v>
+        <v>825</v>
       </c>
       <c r="D198" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5226,13 +5932,13 @@
         <v>183</v>
       </c>
       <c r="B199" t="s">
-        <v>466</v>
+        <v>560</v>
       </c>
       <c r="C199" t="s">
-        <v>637</v>
+        <v>825</v>
       </c>
       <c r="D199" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5240,13 +5946,13 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>467</v>
+        <v>561</v>
       </c>
       <c r="C200" t="s">
-        <v>637</v>
+        <v>825</v>
       </c>
       <c r="D200" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5254,13 +5960,13 @@
         <v>185</v>
       </c>
       <c r="B201" t="s">
-        <v>468</v>
+        <v>562</v>
       </c>
       <c r="C201" t="s">
-        <v>638</v>
+        <v>826</v>
       </c>
       <c r="D201" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5268,13 +5974,13 @@
         <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>469</v>
+        <v>563</v>
       </c>
       <c r="C202" t="s">
-        <v>638</v>
+        <v>826</v>
       </c>
       <c r="D202" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5282,13 +5988,13 @@
         <v>187</v>
       </c>
       <c r="B203" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>638</v>
+        <v>826</v>
       </c>
       <c r="D203" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5296,13 +6002,13 @@
         <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>471</v>
+        <v>565</v>
       </c>
       <c r="C204" t="s">
-        <v>639</v>
+        <v>827</v>
       </c>
       <c r="D204" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5310,13 +6016,13 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="C205" t="s">
-        <v>639</v>
+        <v>827</v>
       </c>
       <c r="D205" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5324,13 +6030,13 @@
         <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="C206" t="s">
-        <v>639</v>
+        <v>827</v>
       </c>
       <c r="D206" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5338,13 +6044,13 @@
         <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="C207" t="s">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="D207" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5352,13 +6058,13 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="C208" t="s">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="D208" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5366,13 +6072,13 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="C209" t="s">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="D209" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5380,13 +6086,13 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
       <c r="C210" t="s">
-        <v>641</v>
+        <v>829</v>
       </c>
       <c r="D210" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5394,13 +6100,13 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
       <c r="C211" t="s">
-        <v>641</v>
+        <v>829</v>
       </c>
       <c r="D211" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5408,13 +6114,13 @@
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>641</v>
+        <v>829</v>
       </c>
       <c r="D212" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5422,13 +6128,13 @@
         <v>195</v>
       </c>
       <c r="B213" t="s">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="C213" t="s">
-        <v>642</v>
+        <v>830</v>
       </c>
       <c r="D213" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5436,13 +6142,13 @@
         <v>196</v>
       </c>
       <c r="B214" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
       <c r="C214" t="s">
-        <v>642</v>
+        <v>830</v>
       </c>
       <c r="D214" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5450,13 +6156,13 @@
         <v>197</v>
       </c>
       <c r="B215" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="C215" t="s">
-        <v>642</v>
+        <v>830</v>
       </c>
       <c r="D215" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5464,13 +6170,13 @@
         <v>198</v>
       </c>
       <c r="B216" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="C216" t="s">
-        <v>643</v>
+        <v>831</v>
       </c>
       <c r="D216" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5478,13 +6184,13 @@
         <v>199</v>
       </c>
       <c r="B217" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="C217" t="s">
-        <v>643</v>
+        <v>831</v>
       </c>
       <c r="D217" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5492,13 +6198,13 @@
         <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="C218" t="s">
-        <v>643</v>
+        <v>831</v>
       </c>
       <c r="D218" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5506,13 +6212,13 @@
         <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
-        <v>644</v>
+        <v>832</v>
       </c>
       <c r="D219" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5520,13 +6226,13 @@
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="C220" t="s">
-        <v>644</v>
+        <v>832</v>
       </c>
       <c r="D220" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5534,13 +6240,13 @@
         <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="C221" t="s">
-        <v>644</v>
+        <v>832</v>
       </c>
       <c r="D221" t="s">
-        <v>685</v>
+        <v>914</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5548,13 +6254,13 @@
         <v>204</v>
       </c>
       <c r="B222" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="C222" t="s">
-        <v>645</v>
+        <v>833</v>
       </c>
       <c r="D222" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5562,13 +6268,13 @@
         <v>205</v>
       </c>
       <c r="B223" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
-        <v>645</v>
+        <v>833</v>
       </c>
       <c r="D223" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5576,13 +6282,13 @@
         <v>46</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>833</v>
       </c>
       <c r="D224" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5590,13 +6296,13 @@
         <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="C225" t="s">
-        <v>646</v>
+        <v>834</v>
       </c>
       <c r="D225" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5604,13 +6310,13 @@
         <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="C226" t="s">
-        <v>646</v>
+        <v>834</v>
       </c>
       <c r="D226" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5618,13 +6324,13 @@
         <v>208</v>
       </c>
       <c r="B227" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="C227" t="s">
-        <v>646</v>
+        <v>834</v>
       </c>
       <c r="D227" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5632,13 +6338,13 @@
         <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="C228" t="s">
-        <v>647</v>
+        <v>835</v>
       </c>
       <c r="D228" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5646,13 +6352,13 @@
         <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="C229" t="s">
-        <v>647</v>
+        <v>835</v>
       </c>
       <c r="D229" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5660,13 +6366,13 @@
         <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="C230" t="s">
-        <v>647</v>
+        <v>835</v>
       </c>
       <c r="D230" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5674,13 +6380,13 @@
         <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="C231" t="s">
-        <v>648</v>
+        <v>836</v>
       </c>
       <c r="D231" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5688,13 +6394,13 @@
         <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="C232" t="s">
-        <v>648</v>
+        <v>836</v>
       </c>
       <c r="D232" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5702,13 +6408,13 @@
         <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="C233" t="s">
-        <v>648</v>
+        <v>836</v>
       </c>
       <c r="D233" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5716,13 +6422,13 @@
         <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="C234" t="s">
-        <v>649</v>
+        <v>837</v>
       </c>
       <c r="D234" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5730,13 +6436,13 @@
         <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="C235" t="s">
-        <v>649</v>
+        <v>837</v>
       </c>
       <c r="D235" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5744,13 +6450,13 @@
         <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="C236" t="s">
-        <v>649</v>
+        <v>837</v>
       </c>
       <c r="D236" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5758,13 +6464,13 @@
         <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="C237" t="s">
-        <v>650</v>
+        <v>838</v>
       </c>
       <c r="D237" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5772,13 +6478,13 @@
         <v>219</v>
       </c>
       <c r="B238" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="C238" t="s">
-        <v>650</v>
+        <v>838</v>
       </c>
       <c r="D238" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5786,13 +6492,13 @@
         <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="C239" t="s">
-        <v>650</v>
+        <v>838</v>
       </c>
       <c r="D239" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5800,13 +6506,13 @@
         <v>221</v>
       </c>
       <c r="B240" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
       <c r="C240" t="s">
-        <v>651</v>
+        <v>839</v>
       </c>
       <c r="D240" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5814,13 +6520,13 @@
         <v>222</v>
       </c>
       <c r="B241" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="C241" t="s">
-        <v>651</v>
+        <v>839</v>
       </c>
       <c r="D241" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5828,13 +6534,13 @@
         <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="C242" t="s">
-        <v>651</v>
+        <v>839</v>
       </c>
       <c r="D242" t="s">
-        <v>686</v>
+        <v>915</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5842,13 +6548,13 @@
         <v>48</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="C243" t="s">
-        <v>652</v>
+        <v>840</v>
       </c>
       <c r="D243" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5856,13 +6562,13 @@
         <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>507</v>
+        <v>601</v>
       </c>
       <c r="C244" t="s">
-        <v>652</v>
+        <v>840</v>
       </c>
       <c r="D244" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5870,13 +6576,13 @@
         <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="C245" t="s">
-        <v>652</v>
+        <v>840</v>
       </c>
       <c r="D245" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5884,13 +6590,13 @@
         <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="C246" t="s">
-        <v>653</v>
+        <v>841</v>
       </c>
       <c r="D246" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5898,13 +6604,13 @@
         <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="C247" t="s">
-        <v>653</v>
+        <v>841</v>
       </c>
       <c r="D247" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5912,13 +6618,13 @@
         <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="C248" t="s">
-        <v>653</v>
+        <v>841</v>
       </c>
       <c r="D248" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5926,13 +6632,13 @@
         <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="C249" t="s">
-        <v>654</v>
+        <v>842</v>
       </c>
       <c r="D249" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5940,13 +6646,13 @@
         <v>230</v>
       </c>
       <c r="B250" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
       <c r="C250" t="s">
-        <v>654</v>
+        <v>842</v>
       </c>
       <c r="D250" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5954,13 +6660,13 @@
         <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
       <c r="C251" t="s">
-        <v>654</v>
+        <v>842</v>
       </c>
       <c r="D251" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5968,13 +6674,13 @@
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="C252" t="s">
-        <v>655</v>
+        <v>843</v>
       </c>
       <c r="D252" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5982,13 +6688,13 @@
         <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
       <c r="C253" t="s">
-        <v>655</v>
+        <v>843</v>
       </c>
       <c r="D253" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5996,13 +6702,13 @@
         <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="C254" t="s">
-        <v>655</v>
+        <v>843</v>
       </c>
       <c r="D254" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6010,13 +6716,13 @@
         <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="C255" t="s">
-        <v>656</v>
+        <v>844</v>
       </c>
       <c r="D255" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6024,13 +6730,13 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>518</v>
+        <v>612</v>
       </c>
       <c r="C256" t="s">
-        <v>656</v>
+        <v>844</v>
       </c>
       <c r="D256" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6038,13 +6744,13 @@
         <v>236</v>
       </c>
       <c r="B257" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="C257" t="s">
-        <v>656</v>
+        <v>844</v>
       </c>
       <c r="D257" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6052,13 +6758,13 @@
         <v>237</v>
       </c>
       <c r="B258" t="s">
-        <v>520</v>
+        <v>614</v>
       </c>
       <c r="C258" t="s">
-        <v>657</v>
+        <v>845</v>
       </c>
       <c r="D258" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6066,13 +6772,13 @@
         <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="C259" t="s">
-        <v>657</v>
+        <v>845</v>
       </c>
       <c r="D259" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6080,13 +6786,13 @@
         <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
       <c r="C260" t="s">
-        <v>657</v>
+        <v>845</v>
       </c>
       <c r="D260" t="s">
-        <v>687</v>
+        <v>916</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6094,13 +6800,13 @@
         <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="C261" t="s">
-        <v>658</v>
+        <v>846</v>
       </c>
       <c r="D261" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6108,13 +6814,13 @@
         <v>240</v>
       </c>
       <c r="B262" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="C262" t="s">
-        <v>658</v>
+        <v>846</v>
       </c>
       <c r="D262" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6122,13 +6828,13 @@
         <v>241</v>
       </c>
       <c r="B263" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="C263" t="s">
-        <v>658</v>
+        <v>846</v>
       </c>
       <c r="D263" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6136,13 +6842,13 @@
         <v>242</v>
       </c>
       <c r="B264" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="C264" t="s">
-        <v>659</v>
+        <v>847</v>
       </c>
       <c r="D264" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6150,13 +6856,13 @@
         <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="C265" t="s">
-        <v>659</v>
+        <v>847</v>
       </c>
       <c r="D265" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6164,13 +6870,13 @@
         <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="C266" t="s">
-        <v>659</v>
+        <v>847</v>
       </c>
       <c r="D266" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6178,13 +6884,13 @@
         <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="C267" t="s">
-        <v>660</v>
+        <v>848</v>
       </c>
       <c r="D267" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6192,13 +6898,13 @@
         <v>246</v>
       </c>
       <c r="B268" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="C268" t="s">
-        <v>660</v>
+        <v>848</v>
       </c>
       <c r="D268" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6206,13 +6912,13 @@
         <v>54</v>
       </c>
       <c r="B269" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="C269" t="s">
-        <v>660</v>
+        <v>848</v>
       </c>
       <c r="D269" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6220,13 +6926,13 @@
         <v>247</v>
       </c>
       <c r="B270" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="C270" t="s">
-        <v>661</v>
+        <v>849</v>
       </c>
       <c r="D270" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6234,13 +6940,13 @@
         <v>248</v>
       </c>
       <c r="B271" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="C271" t="s">
-        <v>661</v>
+        <v>849</v>
       </c>
       <c r="D271" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6248,13 +6954,13 @@
         <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
       <c r="C272" t="s">
-        <v>661</v>
+        <v>849</v>
       </c>
       <c r="D272" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6262,13 +6968,13 @@
         <v>250</v>
       </c>
       <c r="B273" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="C273" t="s">
-        <v>662</v>
+        <v>850</v>
       </c>
       <c r="D273" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6276,13 +6982,13 @@
         <v>251</v>
       </c>
       <c r="B274" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="C274" t="s">
-        <v>662</v>
+        <v>850</v>
       </c>
       <c r="D274" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6290,13 +6996,13 @@
         <v>252</v>
       </c>
       <c r="B275" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="C275" t="s">
-        <v>662</v>
+        <v>850</v>
       </c>
       <c r="D275" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6304,13 +7010,13 @@
         <v>253</v>
       </c>
       <c r="B276" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="C276" t="s">
-        <v>663</v>
+        <v>851</v>
       </c>
       <c r="D276" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6318,13 +7024,13 @@
         <v>254</v>
       </c>
       <c r="B277" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
       <c r="C277" t="s">
-        <v>663</v>
+        <v>851</v>
       </c>
       <c r="D277" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6332,13 +7038,13 @@
         <v>255</v>
       </c>
       <c r="B278" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="C278" t="s">
-        <v>663</v>
+        <v>851</v>
       </c>
       <c r="D278" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6346,13 +7052,13 @@
         <v>256</v>
       </c>
       <c r="B279" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="C279" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
       <c r="D279" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6360,13 +7066,13 @@
         <v>257</v>
       </c>
       <c r="B280" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="C280" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
       <c r="D280" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6374,13 +7080,13 @@
         <v>258</v>
       </c>
       <c r="B281" t="s">
-        <v>541</v>
+        <v>635</v>
       </c>
       <c r="C281" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
       <c r="D281" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6388,13 +7094,13 @@
         <v>259</v>
       </c>
       <c r="B282" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
       <c r="C282" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
       <c r="D282" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6402,13 +7108,13 @@
         <v>260</v>
       </c>
       <c r="B283" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
       <c r="C283" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
       <c r="D283" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6416,13 +7122,13 @@
         <v>261</v>
       </c>
       <c r="B284" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
       <c r="C284" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
       <c r="D284" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6430,13 +7136,13 @@
         <v>60</v>
       </c>
       <c r="B285" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="C285" t="s">
-        <v>666</v>
+        <v>854</v>
       </c>
       <c r="D285" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6444,13 +7150,13 @@
         <v>62</v>
       </c>
       <c r="B286" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="C286" t="s">
-        <v>666</v>
+        <v>854</v>
       </c>
       <c r="D286" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6458,13 +7164,13 @@
         <v>262</v>
       </c>
       <c r="B287" t="s">
-        <v>545</v>
+        <v>639</v>
       </c>
       <c r="C287" t="s">
-        <v>666</v>
+        <v>854</v>
       </c>
       <c r="D287" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6472,13 +7178,13 @@
         <v>263</v>
       </c>
       <c r="B288" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
       <c r="C288" t="s">
-        <v>667</v>
+        <v>855</v>
       </c>
       <c r="D288" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6486,13 +7192,13 @@
         <v>264</v>
       </c>
       <c r="B289" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
       <c r="C289" t="s">
-        <v>667</v>
+        <v>855</v>
       </c>
       <c r="D289" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6500,13 +7206,13 @@
         <v>265</v>
       </c>
       <c r="B290" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="C290" t="s">
-        <v>667</v>
+        <v>855</v>
       </c>
       <c r="D290" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6514,13 +7220,13 @@
         <v>60</v>
       </c>
       <c r="B291" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="C291" t="s">
-        <v>668</v>
+        <v>856</v>
       </c>
       <c r="D291" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6528,13 +7234,13 @@
         <v>266</v>
       </c>
       <c r="B292" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
       <c r="C292" t="s">
-        <v>668</v>
+        <v>856</v>
       </c>
       <c r="D292" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6542,13 +7248,13 @@
         <v>267</v>
       </c>
       <c r="B293" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="C293" t="s">
-        <v>668</v>
+        <v>856</v>
       </c>
       <c r="D293" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6556,13 +7262,13 @@
         <v>268</v>
       </c>
       <c r="B294" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
       <c r="C294" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="D294" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6570,13 +7276,13 @@
         <v>269</v>
       </c>
       <c r="B295" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
       <c r="C295" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="D295" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6584,13 +7290,13 @@
         <v>270</v>
       </c>
       <c r="B296" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
       <c r="C296" t="s">
-        <v>669</v>
+        <v>857</v>
       </c>
       <c r="D296" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6598,13 +7304,13 @@
         <v>61</v>
       </c>
       <c r="B297" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="C297" t="s">
-        <v>670</v>
+        <v>858</v>
       </c>
       <c r="D297" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6612,13 +7318,13 @@
         <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
       <c r="C298" t="s">
-        <v>670</v>
+        <v>858</v>
       </c>
       <c r="D298" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6626,13 +7332,13 @@
         <v>272</v>
       </c>
       <c r="B299" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="C299" t="s">
-        <v>670</v>
+        <v>858</v>
       </c>
       <c r="D299" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6640,13 +7346,13 @@
         <v>273</v>
       </c>
       <c r="B300" t="s">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="C300" t="s">
-        <v>671</v>
+        <v>859</v>
       </c>
       <c r="D300" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6654,13 +7360,13 @@
         <v>274</v>
       </c>
       <c r="B301" t="s">
-        <v>557</v>
+        <v>651</v>
       </c>
       <c r="C301" t="s">
-        <v>671</v>
+        <v>859</v>
       </c>
       <c r="D301" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6668,13 +7374,13 @@
         <v>275</v>
       </c>
       <c r="B302" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="C302" t="s">
-        <v>671</v>
+        <v>859</v>
       </c>
       <c r="D302" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6682,13 +7388,13 @@
         <v>276</v>
       </c>
       <c r="B303" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="C303" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="D303" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6696,13 +7402,13 @@
         <v>277</v>
       </c>
       <c r="B304" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="C304" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="D304" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6710,13 +7416,13 @@
         <v>278</v>
       </c>
       <c r="B305" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="C305" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="D305" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6724,13 +7430,13 @@
         <v>204</v>
       </c>
       <c r="B306" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="C306" t="s">
-        <v>673</v>
+        <v>861</v>
       </c>
       <c r="D306" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6738,13 +7444,13 @@
         <v>204</v>
       </c>
       <c r="B307" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="C307" t="s">
-        <v>674</v>
+        <v>862</v>
       </c>
       <c r="D307" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6752,13 +7458,13 @@
         <v>279</v>
       </c>
       <c r="B308" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="C308" t="s">
-        <v>674</v>
+        <v>862</v>
       </c>
       <c r="D308" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6766,13 +7472,13 @@
         <v>280</v>
       </c>
       <c r="B309" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="C309" t="s">
-        <v>674</v>
+        <v>862</v>
       </c>
       <c r="D309" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6780,13 +7486,13 @@
         <v>205</v>
       </c>
       <c r="B310" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="C310" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="D310" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6794,13 +7500,13 @@
         <v>281</v>
       </c>
       <c r="B311" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="C311" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="D311" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6808,13 +7514,13 @@
         <v>282</v>
       </c>
       <c r="B312" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="C312" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="D312" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6822,13 +7528,13 @@
         <v>205</v>
       </c>
       <c r="B313" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="C313" t="s">
-        <v>676</v>
+        <v>864</v>
       </c>
       <c r="D313" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6836,13 +7542,13 @@
         <v>283</v>
       </c>
       <c r="B314" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="C314" t="s">
-        <v>676</v>
+        <v>864</v>
       </c>
       <c r="D314" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6850,13 +7556,13 @@
         <v>284</v>
       </c>
       <c r="B315" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
       <c r="C315" t="s">
-        <v>676</v>
+        <v>864</v>
       </c>
       <c r="D315" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6864,13 +7570,13 @@
         <v>285</v>
       </c>
       <c r="B316" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="C316" t="s">
-        <v>677</v>
+        <v>865</v>
       </c>
       <c r="D316" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6878,13 +7584,13 @@
         <v>205</v>
       </c>
       <c r="B317" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="C317" t="s">
-        <v>677</v>
+        <v>865</v>
       </c>
       <c r="D317" t="s">
-        <v>689</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6892,13 +7598,1735 @@
         <v>286</v>
       </c>
       <c r="B318" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
       <c r="C318" t="s">
+        <v>865</v>
+      </c>
+      <c r="D318" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>287</v>
+      </c>
+      <c r="B319" t="s">
+        <v>664</v>
+      </c>
+      <c r="C319" t="s">
+        <v>866</v>
+      </c>
+      <c r="D319" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>288</v>
+      </c>
+      <c r="B320" t="s">
+        <v>665</v>
+      </c>
+      <c r="C320" t="s">
+        <v>866</v>
+      </c>
+      <c r="D320" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>289</v>
+      </c>
+      <c r="B321" t="s">
+        <v>666</v>
+      </c>
+      <c r="C321" t="s">
+        <v>866</v>
+      </c>
+      <c r="D321" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>290</v>
+      </c>
+      <c r="B322" t="s">
+        <v>667</v>
+      </c>
+      <c r="C322" t="s">
+        <v>867</v>
+      </c>
+      <c r="D322" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>291</v>
+      </c>
+      <c r="B323" t="s">
+        <v>668</v>
+      </c>
+      <c r="C323" t="s">
+        <v>867</v>
+      </c>
+      <c r="D323" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>292</v>
+      </c>
+      <c r="B324" t="s">
+        <v>669</v>
+      </c>
+      <c r="C324" t="s">
+        <v>867</v>
+      </c>
+      <c r="D324" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>293</v>
+      </c>
+      <c r="B325" t="s">
+        <v>670</v>
+      </c>
+      <c r="C325" t="s">
+        <v>868</v>
+      </c>
+      <c r="D325" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>294</v>
+      </c>
+      <c r="B326" t="s">
+        <v>671</v>
+      </c>
+      <c r="C326" t="s">
+        <v>868</v>
+      </c>
+      <c r="D326" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>295</v>
+      </c>
+      <c r="B327" t="s">
+        <v>672</v>
+      </c>
+      <c r="C327" t="s">
+        <v>868</v>
+      </c>
+      <c r="D327" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>296</v>
+      </c>
+      <c r="B328" t="s">
+        <v>673</v>
+      </c>
+      <c r="C328" t="s">
+        <v>869</v>
+      </c>
+      <c r="D328" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>297</v>
+      </c>
+      <c r="B329" t="s">
+        <v>674</v>
+      </c>
+      <c r="C329" t="s">
+        <v>869</v>
+      </c>
+      <c r="D329" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>298</v>
+      </c>
+      <c r="B330" t="s">
+        <v>675</v>
+      </c>
+      <c r="C330" t="s">
+        <v>869</v>
+      </c>
+      <c r="D330" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>299</v>
+      </c>
+      <c r="B331" t="s">
+        <v>676</v>
+      </c>
+      <c r="C331" t="s">
+        <v>870</v>
+      </c>
+      <c r="D331" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>300</v>
+      </c>
+      <c r="B332" t="s">
         <v>677</v>
       </c>
-      <c r="D318" t="s">
+      <c r="C332" t="s">
+        <v>870</v>
+      </c>
+      <c r="D332" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>301</v>
+      </c>
+      <c r="B333" t="s">
+        <v>678</v>
+      </c>
+      <c r="C333" t="s">
+        <v>870</v>
+      </c>
+      <c r="D333" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>302</v>
+      </c>
+      <c r="B334" t="s">
+        <v>679</v>
+      </c>
+      <c r="C334" t="s">
+        <v>871</v>
+      </c>
+      <c r="D334" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>303</v>
+      </c>
+      <c r="B335" t="s">
+        <v>680</v>
+      </c>
+      <c r="C335" t="s">
+        <v>871</v>
+      </c>
+      <c r="D335" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>304</v>
+      </c>
+      <c r="B336" t="s">
+        <v>681</v>
+      </c>
+      <c r="C336" t="s">
+        <v>871</v>
+      </c>
+      <c r="D336" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>305</v>
+      </c>
+      <c r="B337" t="s">
+        <v>682</v>
+      </c>
+      <c r="C337" t="s">
+        <v>872</v>
+      </c>
+      <c r="D337" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>306</v>
+      </c>
+      <c r="B338" t="s">
+        <v>683</v>
+      </c>
+      <c r="C338" t="s">
+        <v>872</v>
+      </c>
+      <c r="D338" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>307</v>
+      </c>
+      <c r="B339" t="s">
+        <v>684</v>
+      </c>
+      <c r="C339" t="s">
+        <v>872</v>
+      </c>
+      <c r="D339" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>308</v>
+      </c>
+      <c r="B340" t="s">
+        <v>685</v>
+      </c>
+      <c r="C340" t="s">
+        <v>873</v>
+      </c>
+      <c r="D340" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>309</v>
+      </c>
+      <c r="B341" t="s">
+        <v>686</v>
+      </c>
+      <c r="C341" t="s">
+        <v>873</v>
+      </c>
+      <c r="D341" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>310</v>
+      </c>
+      <c r="B342" t="s">
+        <v>687</v>
+      </c>
+      <c r="C342" t="s">
+        <v>873</v>
+      </c>
+      <c r="D342" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>311</v>
+      </c>
+      <c r="B343" t="s">
+        <v>688</v>
+      </c>
+      <c r="C343" t="s">
+        <v>874</v>
+      </c>
+      <c r="D343" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>312</v>
+      </c>
+      <c r="B344" t="s">
         <v>689</v>
+      </c>
+      <c r="C344" t="s">
+        <v>874</v>
+      </c>
+      <c r="D344" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>313</v>
+      </c>
+      <c r="B345" t="s">
+        <v>690</v>
+      </c>
+      <c r="C345" t="s">
+        <v>874</v>
+      </c>
+      <c r="D345" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>314</v>
+      </c>
+      <c r="B346" t="s">
+        <v>691</v>
+      </c>
+      <c r="C346" t="s">
+        <v>875</v>
+      </c>
+      <c r="D346" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>315</v>
+      </c>
+      <c r="B347" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347" t="s">
+        <v>875</v>
+      </c>
+      <c r="D347" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>316</v>
+      </c>
+      <c r="B348" t="s">
+        <v>693</v>
+      </c>
+      <c r="C348" t="s">
+        <v>875</v>
+      </c>
+      <c r="D348" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>317</v>
+      </c>
+      <c r="B349" t="s">
+        <v>694</v>
+      </c>
+      <c r="C349" t="s">
+        <v>876</v>
+      </c>
+      <c r="D349" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>318</v>
+      </c>
+      <c r="B350" t="s">
+        <v>695</v>
+      </c>
+      <c r="C350" t="s">
+        <v>876</v>
+      </c>
+      <c r="D350" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>319</v>
+      </c>
+      <c r="B351" t="s">
+        <v>696</v>
+      </c>
+      <c r="C351" t="s">
+        <v>876</v>
+      </c>
+      <c r="D351" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>320</v>
+      </c>
+      <c r="B352" t="s">
+        <v>697</v>
+      </c>
+      <c r="C352" t="s">
+        <v>877</v>
+      </c>
+      <c r="D352" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>321</v>
+      </c>
+      <c r="B353" t="s">
+        <v>698</v>
+      </c>
+      <c r="C353" t="s">
+        <v>877</v>
+      </c>
+      <c r="D353" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>322</v>
+      </c>
+      <c r="B354" t="s">
+        <v>699</v>
+      </c>
+      <c r="C354" t="s">
+        <v>877</v>
+      </c>
+      <c r="D354" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" t="s">
+        <v>700</v>
+      </c>
+      <c r="C355" t="s">
+        <v>878</v>
+      </c>
+      <c r="D355" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>324</v>
+      </c>
+      <c r="B356" t="s">
+        <v>701</v>
+      </c>
+      <c r="C356" t="s">
+        <v>878</v>
+      </c>
+      <c r="D356" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>325</v>
+      </c>
+      <c r="B357" t="s">
+        <v>702</v>
+      </c>
+      <c r="C357" t="s">
+        <v>878</v>
+      </c>
+      <c r="D357" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>326</v>
+      </c>
+      <c r="B358" t="s">
+        <v>703</v>
+      </c>
+      <c r="C358" t="s">
+        <v>879</v>
+      </c>
+      <c r="D358" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>327</v>
+      </c>
+      <c r="B359" t="s">
+        <v>704</v>
+      </c>
+      <c r="C359" t="s">
+        <v>879</v>
+      </c>
+      <c r="D359" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>328</v>
+      </c>
+      <c r="B360" t="s">
+        <v>705</v>
+      </c>
+      <c r="C360" t="s">
+        <v>879</v>
+      </c>
+      <c r="D360" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>329</v>
+      </c>
+      <c r="B361" t="s">
+        <v>706</v>
+      </c>
+      <c r="C361" t="s">
+        <v>880</v>
+      </c>
+      <c r="D361" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>330</v>
+      </c>
+      <c r="B362" t="s">
+        <v>707</v>
+      </c>
+      <c r="C362" t="s">
+        <v>880</v>
+      </c>
+      <c r="D362" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>331</v>
+      </c>
+      <c r="B363" t="s">
+        <v>708</v>
+      </c>
+      <c r="C363" t="s">
+        <v>880</v>
+      </c>
+      <c r="D363" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>332</v>
+      </c>
+      <c r="B364" t="s">
+        <v>709</v>
+      </c>
+      <c r="C364" t="s">
+        <v>881</v>
+      </c>
+      <c r="D364" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>333</v>
+      </c>
+      <c r="B365" t="s">
+        <v>710</v>
+      </c>
+      <c r="C365" t="s">
+        <v>881</v>
+      </c>
+      <c r="D365" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>334</v>
+      </c>
+      <c r="B366" t="s">
+        <v>711</v>
+      </c>
+      <c r="C366" t="s">
+        <v>881</v>
+      </c>
+      <c r="D366" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>335</v>
+      </c>
+      <c r="B367" t="s">
+        <v>712</v>
+      </c>
+      <c r="C367" t="s">
+        <v>882</v>
+      </c>
+      <c r="D367" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>336</v>
+      </c>
+      <c r="B368" t="s">
+        <v>713</v>
+      </c>
+      <c r="C368" t="s">
+        <v>882</v>
+      </c>
+      <c r="D368" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>337</v>
+      </c>
+      <c r="B369" t="s">
+        <v>714</v>
+      </c>
+      <c r="C369" t="s">
+        <v>882</v>
+      </c>
+      <c r="D369" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>338</v>
+      </c>
+      <c r="B370" t="s">
+        <v>715</v>
+      </c>
+      <c r="C370" t="s">
+        <v>883</v>
+      </c>
+      <c r="D370" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>339</v>
+      </c>
+      <c r="B371" t="s">
+        <v>716</v>
+      </c>
+      <c r="C371" t="s">
+        <v>883</v>
+      </c>
+      <c r="D371" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>340</v>
+      </c>
+      <c r="B372" t="s">
+        <v>717</v>
+      </c>
+      <c r="C372" t="s">
+        <v>883</v>
+      </c>
+      <c r="D372" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>341</v>
+      </c>
+      <c r="B373" t="s">
+        <v>718</v>
+      </c>
+      <c r="C373" t="s">
+        <v>884</v>
+      </c>
+      <c r="D373" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>227</v>
+      </c>
+      <c r="B374" t="s">
+        <v>604</v>
+      </c>
+      <c r="C374" t="s">
+        <v>884</v>
+      </c>
+      <c r="D374" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>342</v>
+      </c>
+      <c r="B375" t="s">
+        <v>719</v>
+      </c>
+      <c r="C375" t="s">
+        <v>884</v>
+      </c>
+      <c r="D375" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>343</v>
+      </c>
+      <c r="B376" t="s">
+        <v>720</v>
+      </c>
+      <c r="C376" t="s">
+        <v>885</v>
+      </c>
+      <c r="D376" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>227</v>
+      </c>
+      <c r="B377" t="s">
+        <v>604</v>
+      </c>
+      <c r="C377" t="s">
+        <v>885</v>
+      </c>
+      <c r="D377" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>344</v>
+      </c>
+      <c r="B378" t="s">
+        <v>721</v>
+      </c>
+      <c r="C378" t="s">
+        <v>885</v>
+      </c>
+      <c r="D378" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>153</v>
+      </c>
+      <c r="B379" t="s">
+        <v>531</v>
+      </c>
+      <c r="C379" t="s">
+        <v>886</v>
+      </c>
+      <c r="D379" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>345</v>
+      </c>
+      <c r="B380" t="s">
+        <v>722</v>
+      </c>
+      <c r="C380" t="s">
+        <v>886</v>
+      </c>
+      <c r="D380" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>346</v>
+      </c>
+      <c r="B381" t="s">
+        <v>723</v>
+      </c>
+      <c r="C381" t="s">
+        <v>886</v>
+      </c>
+      <c r="D381" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>347</v>
+      </c>
+      <c r="B382" t="s">
+        <v>724</v>
+      </c>
+      <c r="C382" t="s">
+        <v>887</v>
+      </c>
+      <c r="D382" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>348</v>
+      </c>
+      <c r="B383" t="s">
+        <v>725</v>
+      </c>
+      <c r="C383" t="s">
+        <v>887</v>
+      </c>
+      <c r="D383" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>349</v>
+      </c>
+      <c r="B384" t="s">
+        <v>726</v>
+      </c>
+      <c r="C384" t="s">
+        <v>887</v>
+      </c>
+      <c r="D384" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>350</v>
+      </c>
+      <c r="B385" t="s">
+        <v>727</v>
+      </c>
+      <c r="C385" t="s">
+        <v>888</v>
+      </c>
+      <c r="D385" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>351</v>
+      </c>
+      <c r="B386" t="s">
+        <v>728</v>
+      </c>
+      <c r="C386" t="s">
+        <v>888</v>
+      </c>
+      <c r="D386" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>352</v>
+      </c>
+      <c r="B387" t="s">
+        <v>729</v>
+      </c>
+      <c r="C387" t="s">
+        <v>888</v>
+      </c>
+      <c r="D387" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>209</v>
+      </c>
+      <c r="B388" t="s">
+        <v>586</v>
+      </c>
+      <c r="C388" t="s">
+        <v>889</v>
+      </c>
+      <c r="D388" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>353</v>
+      </c>
+      <c r="B389" t="s">
+        <v>730</v>
+      </c>
+      <c r="C389" t="s">
+        <v>889</v>
+      </c>
+      <c r="D389" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>354</v>
+      </c>
+      <c r="B390" t="s">
+        <v>731</v>
+      </c>
+      <c r="C390" t="s">
+        <v>889</v>
+      </c>
+      <c r="D390" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>355</v>
+      </c>
+      <c r="B391" t="s">
+        <v>732</v>
+      </c>
+      <c r="C391" t="s">
+        <v>890</v>
+      </c>
+      <c r="D391" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>356</v>
+      </c>
+      <c r="B392" t="s">
+        <v>733</v>
+      </c>
+      <c r="C392" t="s">
+        <v>890</v>
+      </c>
+      <c r="D392" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>357</v>
+      </c>
+      <c r="B393" t="s">
+        <v>734</v>
+      </c>
+      <c r="C393" t="s">
+        <v>890</v>
+      </c>
+      <c r="D393" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>358</v>
+      </c>
+      <c r="B394" t="s">
+        <v>735</v>
+      </c>
+      <c r="C394" t="s">
+        <v>891</v>
+      </c>
+      <c r="D394" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>359</v>
+      </c>
+      <c r="B395" t="s">
+        <v>736</v>
+      </c>
+      <c r="C395" t="s">
+        <v>891</v>
+      </c>
+      <c r="D395" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>360</v>
+      </c>
+      <c r="B396" t="s">
+        <v>737</v>
+      </c>
+      <c r="C396" t="s">
+        <v>891</v>
+      </c>
+      <c r="D396" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>361</v>
+      </c>
+      <c r="B397" t="s">
+        <v>738</v>
+      </c>
+      <c r="C397" t="s">
+        <v>892</v>
+      </c>
+      <c r="D397" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>362</v>
+      </c>
+      <c r="B398" t="s">
+        <v>739</v>
+      </c>
+      <c r="C398" t="s">
+        <v>892</v>
+      </c>
+      <c r="D398" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>363</v>
+      </c>
+      <c r="B399" t="s">
+        <v>740</v>
+      </c>
+      <c r="C399" t="s">
+        <v>892</v>
+      </c>
+      <c r="D399" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>364</v>
+      </c>
+      <c r="B400" t="s">
+        <v>741</v>
+      </c>
+      <c r="C400" t="s">
+        <v>893</v>
+      </c>
+      <c r="D400" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>365</v>
+      </c>
+      <c r="B401" t="s">
+        <v>742</v>
+      </c>
+      <c r="C401" t="s">
+        <v>893</v>
+      </c>
+      <c r="D401" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>366</v>
+      </c>
+      <c r="B402" t="s">
+        <v>743</v>
+      </c>
+      <c r="C402" t="s">
+        <v>893</v>
+      </c>
+      <c r="D402" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>367</v>
+      </c>
+      <c r="B403" t="s">
+        <v>744</v>
+      </c>
+      <c r="C403" t="s">
+        <v>894</v>
+      </c>
+      <c r="D403" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>368</v>
+      </c>
+      <c r="B404" t="s">
+        <v>745</v>
+      </c>
+      <c r="C404" t="s">
+        <v>894</v>
+      </c>
+      <c r="D404" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>369</v>
+      </c>
+      <c r="B405" t="s">
+        <v>746</v>
+      </c>
+      <c r="C405" t="s">
+        <v>894</v>
+      </c>
+      <c r="D405" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>370</v>
+      </c>
+      <c r="B406" t="s">
+        <v>747</v>
+      </c>
+      <c r="C406" t="s">
+        <v>895</v>
+      </c>
+      <c r="D406" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>371</v>
+      </c>
+      <c r="B407" t="s">
+        <v>748</v>
+      </c>
+      <c r="C407" t="s">
+        <v>895</v>
+      </c>
+      <c r="D407" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>372</v>
+      </c>
+      <c r="B408" t="s">
+        <v>749</v>
+      </c>
+      <c r="C408" t="s">
+        <v>895</v>
+      </c>
+      <c r="D408" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>370</v>
+      </c>
+      <c r="B409" t="s">
+        <v>747</v>
+      </c>
+      <c r="C409" t="s">
+        <v>896</v>
+      </c>
+      <c r="D409" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>371</v>
+      </c>
+      <c r="B410" t="s">
+        <v>748</v>
+      </c>
+      <c r="C410" t="s">
+        <v>896</v>
+      </c>
+      <c r="D410" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>372</v>
+      </c>
+      <c r="B411" t="s">
+        <v>749</v>
+      </c>
+      <c r="C411" t="s">
+        <v>896</v>
+      </c>
+      <c r="D411" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>373</v>
+      </c>
+      <c r="B412" t="s">
+        <v>750</v>
+      </c>
+      <c r="C412" t="s">
+        <v>897</v>
+      </c>
+      <c r="D412" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>374</v>
+      </c>
+      <c r="B413" t="s">
+        <v>751</v>
+      </c>
+      <c r="C413" t="s">
+        <v>897</v>
+      </c>
+      <c r="D413" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>375</v>
+      </c>
+      <c r="B414" t="s">
+        <v>752</v>
+      </c>
+      <c r="C414" t="s">
+        <v>897</v>
+      </c>
+      <c r="D414" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>376</v>
+      </c>
+      <c r="B415" t="s">
+        <v>753</v>
+      </c>
+      <c r="C415" t="s">
+        <v>898</v>
+      </c>
+      <c r="D415" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>377</v>
+      </c>
+      <c r="B416" t="s">
+        <v>754</v>
+      </c>
+      <c r="C416" t="s">
+        <v>898</v>
+      </c>
+      <c r="D416" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>378</v>
+      </c>
+      <c r="B417" t="s">
+        <v>755</v>
+      </c>
+      <c r="C417" t="s">
+        <v>898</v>
+      </c>
+      <c r="D417" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>73</v>
+      </c>
+      <c r="B418" t="s">
+        <v>450</v>
+      </c>
+      <c r="C418" t="s">
+        <v>899</v>
+      </c>
+      <c r="D418" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>379</v>
+      </c>
+      <c r="B419" t="s">
+        <v>756</v>
+      </c>
+      <c r="C419" t="s">
+        <v>899</v>
+      </c>
+      <c r="D419" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>380</v>
+      </c>
+      <c r="B420" t="s">
+        <v>757</v>
+      </c>
+      <c r="C420" t="s">
+        <v>899</v>
+      </c>
+      <c r="D420" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>73</v>
+      </c>
+      <c r="B421" t="s">
+        <v>450</v>
+      </c>
+      <c r="C421" t="s">
+        <v>900</v>
+      </c>
+      <c r="D421" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>379</v>
+      </c>
+      <c r="B422" t="s">
+        <v>756</v>
+      </c>
+      <c r="C422" t="s">
+        <v>900</v>
+      </c>
+      <c r="D422" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>380</v>
+      </c>
+      <c r="B423" t="s">
+        <v>757</v>
+      </c>
+      <c r="C423" t="s">
+        <v>900</v>
+      </c>
+      <c r="D423" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>73</v>
+      </c>
+      <c r="B424" t="s">
+        <v>450</v>
+      </c>
+      <c r="C424" t="s">
+        <v>901</v>
+      </c>
+      <c r="D424" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>379</v>
+      </c>
+      <c r="B425" t="s">
+        <v>756</v>
+      </c>
+      <c r="C425" t="s">
+        <v>901</v>
+      </c>
+      <c r="D425" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>380</v>
+      </c>
+      <c r="B426" t="s">
+        <v>757</v>
+      </c>
+      <c r="C426" t="s">
+        <v>901</v>
+      </c>
+      <c r="D426" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>73</v>
+      </c>
+      <c r="B427" t="s">
+        <v>450</v>
+      </c>
+      <c r="C427" t="s">
+        <v>902</v>
+      </c>
+      <c r="D427" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>379</v>
+      </c>
+      <c r="B428" t="s">
+        <v>756</v>
+      </c>
+      <c r="C428" t="s">
+        <v>902</v>
+      </c>
+      <c r="D428" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>380</v>
+      </c>
+      <c r="B429" t="s">
+        <v>757</v>
+      </c>
+      <c r="C429" t="s">
+        <v>902</v>
+      </c>
+      <c r="D429" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>73</v>
+      </c>
+      <c r="B430" t="s">
+        <v>450</v>
+      </c>
+      <c r="C430" t="s">
+        <v>903</v>
+      </c>
+      <c r="D430" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>379</v>
+      </c>
+      <c r="B431" t="s">
+        <v>756</v>
+      </c>
+      <c r="C431" t="s">
+        <v>903</v>
+      </c>
+      <c r="D431" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>380</v>
+      </c>
+      <c r="B432" t="s">
+        <v>757</v>
+      </c>
+      <c r="C432" t="s">
+        <v>903</v>
+      </c>
+      <c r="D432" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>73</v>
+      </c>
+      <c r="B433" t="s">
+        <v>450</v>
+      </c>
+      <c r="C433" t="s">
+        <v>904</v>
+      </c>
+      <c r="D433" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>379</v>
+      </c>
+      <c r="B434" t="s">
+        <v>756</v>
+      </c>
+      <c r="C434" t="s">
+        <v>904</v>
+      </c>
+      <c r="D434" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>380</v>
+      </c>
+      <c r="B435" t="s">
+        <v>757</v>
+      </c>
+      <c r="C435" t="s">
+        <v>904</v>
+      </c>
+      <c r="D435" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>73</v>
+      </c>
+      <c r="B436" t="s">
+        <v>450</v>
+      </c>
+      <c r="C436" t="s">
+        <v>905</v>
+      </c>
+      <c r="D436" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>379</v>
+      </c>
+      <c r="B437" t="s">
+        <v>756</v>
+      </c>
+      <c r="C437" t="s">
+        <v>905</v>
+      </c>
+      <c r="D437" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>380</v>
+      </c>
+      <c r="B438" t="s">
+        <v>757</v>
+      </c>
+      <c r="C438" t="s">
+        <v>905</v>
+      </c>
+      <c r="D438" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>73</v>
+      </c>
+      <c r="B439" t="s">
+        <v>450</v>
+      </c>
+      <c r="C439" t="s">
+        <v>906</v>
+      </c>
+      <c r="D439" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>379</v>
+      </c>
+      <c r="B440" t="s">
+        <v>756</v>
+      </c>
+      <c r="C440" t="s">
+        <v>906</v>
+      </c>
+      <c r="D440" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>380</v>
+      </c>
+      <c r="B441" t="s">
+        <v>757</v>
+      </c>
+      <c r="C441" t="s">
+        <v>906</v>
+      </c>
+      <c r="D441" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
